--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G2" t="n">
         <v>0.5714285714285714</v>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.448592</t>
+          <t>2025-10-16T12:16:14.705949</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G3" t="n">
         <v>0.5714285714285714</v>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.448592</t>
+          <t>2025-10-16T12:16:14.705949</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G4" t="n">
         <v>0.5714285714285714</v>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.448592</t>
+          <t>2025-10-16T12:16:14.706951</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.448592</t>
+          <t>2025-10-16T12:16:14.706951</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G6" t="n">
         <v>0.5714285714285714</v>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.449590</t>
+          <t>2025-10-16T12:16:14.706951</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G7" t="n">
         <v>0.5714285714285714</v>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.449590</t>
+          <t>2025-10-16T12:16:14.706951</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G8" t="n">
         <v>0.5714285714285714</v>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.449590</t>
+          <t>2025-10-16T12:16:14.706951</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G9" t="n">
         <v>0.5714285714285714</v>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.450588</t>
+          <t>2025-10-16T12:16:14.706951</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G10" t="n">
         <v>0.5714285714285714</v>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.450588</t>
+          <t>2025-10-16T12:16:14.707947</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G11" t="n">
         <v>0.5714285714285714</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.450588</t>
+          <t>2025-10-16T12:16:14.707947</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G12" t="n">
         <v>0.5714285714285714</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.451586</t>
+          <t>2025-10-16T12:16:14.707947</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G13" t="n">
         <v>0.5714285714285714</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.451885</t>
+          <t>2025-10-16T12:16:14.707947</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G14" t="n">
         <v>0.5714285714285714</v>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.451885</t>
+          <t>2025-10-16T12:16:14.707947</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G15" t="n">
         <v>0.5714285714285714</v>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.452396</t>
+          <t>2025-10-16T12:16:14.708950</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G16" t="n">
         <v>0.5714285714285714</v>
@@ -1919,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.452396</t>
+          <t>2025-10-16T12:16:14.708950</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G17" t="n">
         <v>0.5714285714285714</v>
@@ -1959,7 +1959,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2009,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.452396</t>
+          <t>2025-10-16T12:16:14.708950</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G18" t="n">
         <v>0.5714285714285714</v>
@@ -2099,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.452396</t>
+          <t>2025-10-16T12:16:14.708950</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G19" t="n">
         <v>0.5714285714285714</v>
@@ -2139,7 +2139,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2189,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.452396</t>
+          <t>2025-10-16T12:16:14.709952</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G20" t="n">
         <v>0.5714285714285714</v>
@@ -2279,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.453415</t>
+          <t>2025-10-16T12:16:14.709952</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G21" t="n">
         <v>0.5714285714285714</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.453415</t>
+          <t>2025-10-16T12:16:14.709952</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G22" t="n">
         <v>0.5714285714285714</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.453415</t>
+          <t>2025-10-16T12:16:14.709952</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G23" t="n">
         <v>0.5714285714285714</v>
@@ -2557,7 +2557,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.453415</t>
+          <t>2025-10-16T12:16:14.709952</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G24" t="n">
         <v>0.5714285714285714</v>
@@ -2647,7 +2647,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.454412</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G25" t="n">
         <v>0.5714285714285714</v>
@@ -2737,7 +2737,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.454412</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G26" t="n">
         <v>0.5714285714285714</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.455413</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G27" t="n">
         <v>0.5714285714285714</v>
@@ -2921,7 +2921,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.455413</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G28" t="n">
         <v>0.5714285714285714</v>
@@ -3011,7 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.455413</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G29" t="n">
         <v>0.5714285714285714</v>
@@ -3101,7 +3101,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.455413</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G30" t="n">
         <v>0.5714285714285714</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.456417</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G31" t="n">
         <v>0.5714285714285714</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.457416</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G32" t="n">
         <v>0.5714285714285714</v>
@@ -3379,7 +3379,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.457416</t>
+          <t>2025-10-16T12:16:14.710950</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G33" t="n">
         <v>0.5714285714285714</v>
@@ -3469,7 +3469,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.457416</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G34" t="n">
         <v>0.5714285714285714</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.457416</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G35" t="n">
         <v>0.5714285714285714</v>
@@ -3649,7 +3649,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.458415</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G36" t="n">
         <v>0.5714285714285714</v>
@@ -3739,7 +3739,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.458415</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G37" t="n">
         <v>0.5714285714285714</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3829,7 +3829,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.458415</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G38" t="n">
         <v>0.5714285714285714</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.458415</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G39" t="n">
         <v>0.5714285714285714</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.458415</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G40" t="n">
         <v>0.5714285714285714</v>
@@ -4107,7 +4107,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.459414</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G41" t="n">
         <v>0.5714285714285714</v>
@@ -4197,7 +4197,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.459414</t>
+          <t>2025-10-16T12:16:14.711947</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G42" t="n">
         <v>0.5714285714285714</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.459414</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G43" t="n">
         <v>0.5714285714285714</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.459414</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G44" t="n">
         <v>0.5714285714285714</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.460413</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G45" t="n">
         <v>0.5714285714285714</v>
@@ -4561,7 +4561,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.460413</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G46" t="n">
         <v>0.5714285714285714</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.460413</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G47" t="n">
         <v>0.5714285714285714</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.460413</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G48" t="n">
         <v>0.5714285714285714</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.460413</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G49" t="n">
         <v>0.5714285714285714</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.460413</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G50" t="n">
         <v>0.5714285714285714</v>
@@ -5023,7 +5023,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.461410</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G51" t="n">
         <v>0.5714285714285714</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.461410</t>
+          <t>2025-10-16T12:16:14.712945</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G52" t="n">
         <v>0.5714285714285714</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.461410</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G53" t="n">
         <v>0.5714285714285714</v>
@@ -5301,7 +5301,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.461410</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G54" t="n">
         <v>0.5714285714285714</v>
@@ -5341,7 +5341,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5391,7 +5391,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.462411</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G55" t="n">
         <v>0.5714285714285714</v>
@@ -5481,7 +5481,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.462411</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G56" t="n">
         <v>0.5714285714285714</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.462411</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G57" t="n">
         <v>0.5714285714285714</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.462411</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G58" t="n">
         <v>0.5714285714285714</v>
@@ -5755,7 +5755,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.462411</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G59" t="n">
         <v>0.5714285714285714</v>
@@ -5795,7 +5795,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5845,7 +5845,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.463413</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G60" t="n">
         <v>0.5714285714285714</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.463413</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G61" t="n">
         <v>0.5714285714285714</v>
@@ -6025,7 +6025,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.463413</t>
+          <t>2025-10-16T12:16:14.713950</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G62" t="n">
         <v>0.5714285714285714</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.464413</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G63" t="n">
         <v>0.5714285714285714</v>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.464413</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G64" t="n">
         <v>0.5714285714285714</v>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.464413</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G65" t="n">
         <v>0.5714285714285714</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.465412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G66" t="n">
         <v>0.5714285714285714</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.465412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G67" t="n">
         <v>0.5714285714285714</v>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.465412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G68" t="n">
         <v>0.5714285714285714</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.465412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G69" t="n">
         <v>0.5714285714285714</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.466412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G70" t="n">
         <v>0.5714285714285714</v>
@@ -6859,7 +6859,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.466412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G71" t="n">
         <v>0.5714285714285714</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.466412</t>
+          <t>2025-10-16T12:16:14.714947</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G72" t="n">
         <v>0.5714285714285714</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.466412</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G73" t="n">
         <v>0.5714285714285714</v>
@@ -7129,7 +7129,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.467414</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G74" t="n">
         <v>0.5714285714285714</v>
@@ -7169,7 +7169,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7219,7 +7219,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.467414</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G75" t="n">
         <v>0.5714285714285714</v>
@@ -7309,7 +7309,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.467414</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7332,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G76" t="n">
         <v>0.5714285714285714</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.467414</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G77" t="n">
         <v>0.5714285714285714</v>
@@ -7493,7 +7493,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.468411</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G78" t="n">
         <v>0.5714285714285714</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.468411</t>
+          <t>2025-10-16T12:16:14.715946</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G79" t="n">
         <v>0.5714285714285714</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.468411</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G80" t="n">
         <v>0.5714285714285714</v>
@@ -7717,7 +7717,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L80" t="n">
         <v>0.8631205685666311</v>
@@ -7767,7 +7767,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.469413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G81" t="n">
         <v>0.5714285714285714</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.469413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7884,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G82" t="n">
         <v>0.5714285714285714</v>
@@ -7951,7 +7951,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.469413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G83" t="n">
         <v>0.5714285714285714</v>
@@ -8041,7 +8041,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.470413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G84" t="n">
         <v>0.5714285714285714</v>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.470413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G85" t="n">
         <v>0.5714285714285714</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8225,7 +8225,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.470413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G86" t="n">
         <v>0.5714285714285714</v>
@@ -8315,7 +8315,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.470413</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G87" t="n">
         <v>0.5714285714285714</v>
@@ -8405,7 +8405,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.471411</t>
+          <t>2025-10-16T12:16:14.716953</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G88" t="n">
         <v>0.5714285714285714</v>
@@ -8495,7 +8495,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.472412</t>
+          <t>2025-10-16T12:16:14.717951</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G89" t="n">
         <v>0.5714285714285714</v>
@@ -8585,7 +8585,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.473412</t>
+          <t>2025-10-16T12:16:14.717951</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G90" t="n">
         <v>0.5714285714285714</v>
@@ -8675,7 +8675,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.473412</t>
+          <t>2025-10-16T12:16:14.717951</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G91" t="n">
         <v>0.5714285714285714</v>
@@ -8765,7 +8765,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.473412</t>
+          <t>2025-10-16T12:16:14.717951</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G92" t="n">
         <v>0.5714285714285714</v>
@@ -8855,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.473412</t>
+          <t>2025-10-16T12:16:14.717951</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G93" t="n">
         <v>0.5714285714285714</v>
@@ -8945,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.474411</t>
+          <t>2025-10-16T12:16:14.717951</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G94" t="n">
         <v>0.5714285714285714</v>
@@ -8985,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -9035,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.474411</t>
+          <t>2025-10-16T12:16:14.718949</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G95" t="n">
         <v>0.5714285714285714</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.474411</t>
+          <t>2025-10-16T12:16:14.718949</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G96" t="n">
         <v>0.5714285714285714</v>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.474411</t>
+          <t>2025-10-16T12:16:14.718949</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G97" t="n">
         <v>0.5714285714285714</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.475421</t>
+          <t>2025-10-16T12:16:14.719949</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G98" t="n">
         <v>0.5714285714285714</v>
@@ -9403,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.475421</t>
+          <t>2025-10-16T12:16:14.719949</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G99" t="n">
         <v>0.5714285714285714</v>
@@ -9493,7 +9493,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.475421</t>
+          <t>2025-10-16T12:16:14.719949</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G100" t="n">
         <v>0.5714285714285714</v>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.475421</t>
+          <t>2025-10-16T12:16:14.719949</t>
         </is>
       </c>
     </row>
@@ -9610,7 +9610,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G101" t="n">
         <v>0.5714285714285714</v>
@@ -9677,7 +9677,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.476411</t>
+          <t>2025-10-16T12:16:14.720951</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G102" t="n">
         <v>0.5714285714285714</v>
@@ -9767,7 +9767,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.476411</t>
+          <t>2025-10-16T12:16:14.720951</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9790,7 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G103" t="n">
         <v>0.5714285714285714</v>
@@ -9857,7 +9857,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.476411</t>
+          <t>2025-10-16T12:16:14.720951</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G104" t="n">
         <v>0.5714285714285714</v>
@@ -9947,7 +9947,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.476411</t>
+          <t>2025-10-16T12:16:14.720951</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G105" t="n">
         <v>0.5714285714285714</v>
@@ -10037,7 +10037,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.478414</t>
+          <t>2025-10-16T12:16:14.721950</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G106" t="n">
         <v>0.5714285714285714</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.478414</t>
+          <t>2025-10-16T12:16:14.721950</t>
         </is>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G107" t="n">
         <v>0.5714285714285714</v>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.478414</t>
+          <t>2025-10-16T12:16:14.721950</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G108" t="n">
         <v>0.5714285714285714</v>
@@ -10315,7 +10315,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.479410</t>
+          <t>2025-10-16T12:16:14.721950</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G109" t="n">
         <v>0.5714285714285714</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.479410</t>
+          <t>2025-10-16T12:16:14.721950</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G110" t="n">
         <v>0.5714285714285714</v>
@@ -10499,7 +10499,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.479410</t>
+          <t>2025-10-16T12:16:14.721950</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G111" t="n">
         <v>0.5714285714285714</v>
@@ -10589,7 +10589,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.480410</t>
+          <t>2025-10-16T12:16:14.722948</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G112" t="n">
         <v>0.5714285714285714</v>
@@ -10679,7 +10679,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.480410</t>
+          <t>2025-10-16T12:16:14.722948</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10702,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G113" t="n">
         <v>0.5714285714285714</v>
@@ -10769,7 +10769,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.480410</t>
+          <t>2025-10-16T12:16:14.722948</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G114" t="n">
         <v>0.5714285714285714</v>
@@ -10859,7 +10859,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.480410</t>
+          <t>2025-10-16T12:16:14.722948</t>
         </is>
       </c>
     </row>
@@ -10882,7 +10882,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G115" t="n">
         <v>0.5714285714285714</v>
@@ -10899,7 +10899,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10949,7 +10949,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.481411</t>
+          <t>2025-10-16T12:16:14.722948</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G116" t="n">
         <v>0.5714285714285714</v>
@@ -11039,7 +11039,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.481411</t>
+          <t>2025-10-16T12:16:14.722948</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G117" t="n">
         <v>0.5714285714285714</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11129,7 +11129,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.481411</t>
+          <t>2025-10-16T12:16:14.723947</t>
         </is>
       </c>
     </row>
@@ -11152,7 +11152,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G118" t="n">
         <v>0.5714285714285714</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.481411</t>
+          <t>2025-10-16T12:16:14.723947</t>
         </is>
       </c>
     </row>
@@ -11246,7 +11246,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G119" t="n">
         <v>0.5714285714285714</v>
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11313,7 +11313,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.482410</t>
+          <t>2025-10-16T12:16:14.723947</t>
         </is>
       </c>
     </row>
@@ -11336,7 +11336,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G120" t="n">
         <v>0.5714285714285714</v>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.482410</t>
+          <t>2025-10-16T12:16:14.723947</t>
         </is>
       </c>
     </row>
@@ -11430,7 +11430,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G121" t="n">
         <v>0.5714285714285714</v>
@@ -11447,7 +11447,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11497,7 +11497,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.482410</t>
+          <t>2025-10-16T12:16:14.723947</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G122" t="n">
         <v>0.5714285714285714</v>
@@ -11587,7 +11587,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.482410</t>
+          <t>2025-10-16T12:16:14.723947</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G123" t="n">
         <v>0.5714285714285714</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.483412</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -11700,7 +11700,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G124" t="n">
         <v>0.5714285714285714</v>
@@ -11717,7 +11717,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11767,7 +11767,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.483412</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -11790,7 +11790,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G125" t="n">
         <v>0.5714285714285714</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11857,7 +11857,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.483412</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -11880,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G126" t="n">
         <v>0.5714285714285714</v>
@@ -11947,7 +11947,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.483412</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G127" t="n">
         <v>0.5714285714285714</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.484641</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -12060,7 +12060,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G128" t="n">
         <v>0.5714285714285714</v>
@@ -12127,7 +12127,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.485152</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -12150,7 +12150,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G129" t="n">
         <v>0.5714285714285714</v>
@@ -12217,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.485152</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -12240,7 +12240,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G130" t="n">
         <v>0.5714285714285714</v>
@@ -12307,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.485152</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -12330,7 +12330,7 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G131" t="n">
         <v>0.5714285714285714</v>
@@ -12397,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.485152</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12420,7 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G132" t="n">
         <v>0.5714285714285714</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.486165</t>
+          <t>2025-10-16T12:16:14.724947</t>
         </is>
       </c>
     </row>
@@ -12514,7 +12514,7 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G133" t="n">
         <v>0.5714285714285714</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12581,7 +12581,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.486165</t>
+          <t>2025-10-16T12:16:14.725949</t>
         </is>
       </c>
     </row>
@@ -12604,7 +12604,7 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G134" t="n">
         <v>0.5714285714285714</v>
@@ -12671,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.486165</t>
+          <t>2025-10-16T12:16:14.725949</t>
         </is>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G135" t="n">
         <v>0.5714285714285714</v>
@@ -12761,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.486165</t>
+          <t>2025-10-16T12:16:14.725949</t>
         </is>
       </c>
     </row>
@@ -12784,7 +12784,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G136" t="n">
         <v>0.5714285714285714</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.486165</t>
+          <t>2025-10-16T12:16:14.725949</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12878,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G137" t="n">
         <v>0.5714285714285714</v>
@@ -12945,7 +12945,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.487164</t>
+          <t>2025-10-16T12:16:14.725949</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G138" t="n">
         <v>0.5714285714285714</v>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -13035,7 +13035,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.487164</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G139" t="n">
         <v>0.5714285714285714</v>
@@ -13125,7 +13125,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.487164</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13148,7 +13148,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G140" t="n">
         <v>0.5714285714285714</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.487164</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G141" t="n">
         <v>0.5714285714285714</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13309,7 +13309,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.488165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13332,7 +13332,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G142" t="n">
         <v>0.5714285714285714</v>
@@ -13349,7 +13349,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13399,7 +13399,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.488165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13422,7 +13422,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G143" t="n">
         <v>0.5714285714285714</v>
@@ -13439,7 +13439,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13489,7 +13489,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.488165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13512,7 +13512,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G144" t="n">
         <v>0.5714285714285714</v>
@@ -13579,7 +13579,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.488165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G145" t="n">
         <v>0.5714285714285714</v>
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13669,7 +13669,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.489165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13692,7 +13692,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G146" t="n">
         <v>0.5714285714285714</v>
@@ -13759,7 +13759,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.489165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13782,7 +13782,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G147" t="n">
         <v>0.5714285714285714</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13849,7 +13849,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.489165</t>
+          <t>2025-10-16T12:16:14.726948</t>
         </is>
       </c>
     </row>
@@ -13872,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G148" t="n">
         <v>0.5714285714285714</v>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.489165</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G149" t="n">
         <v>0.5714285714285714</v>
@@ -14033,7 +14033,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.489165</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14056,7 +14056,7 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G150" t="n">
         <v>0.5714285714285714</v>
@@ -14123,7 +14123,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.490164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14146,7 +14146,7 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G151" t="n">
         <v>0.5714285714285714</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14213,7 +14213,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.490164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14236,7 +14236,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G152" t="n">
         <v>0.5714285714285714</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14303,7 +14303,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.490164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G153" t="n">
         <v>0.5714285714285714</v>
@@ -14393,7 +14393,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.490164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G154" t="n">
         <v>0.5714285714285714</v>
@@ -14483,7 +14483,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.490164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14506,7 +14506,7 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G155" t="n">
         <v>0.5714285714285714</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14573,7 +14573,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.491164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G156" t="n">
         <v>0.5714285714285714</v>
@@ -14663,7 +14663,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.491164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14686,7 +14686,7 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G157" t="n">
         <v>0.5714285714285714</v>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.491164</t>
+          <t>2025-10-16T12:16:14.727948</t>
         </is>
       </c>
     </row>
@@ -14780,7 +14780,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G158" t="n">
         <v>0.5714285714285714</v>
@@ -14847,7 +14847,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.491164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G159" t="n">
         <v>0.5714285714285714</v>
@@ -14937,7 +14937,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.491164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -14960,7 +14960,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G160" t="n">
         <v>0.5714285714285714</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.492164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -15054,7 +15054,7 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G161" t="n">
         <v>0.5714285714285714</v>
@@ -15121,7 +15121,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.492164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -15144,7 +15144,7 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G162" t="n">
         <v>0.5714285714285714</v>
@@ -15211,7 +15211,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.492164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -15234,7 +15234,7 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G163" t="n">
         <v>0.5714285714285714</v>
@@ -15251,7 +15251,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15301,7 +15301,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.492164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -15324,7 +15324,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G164" t="n">
         <v>0.5714285714285714</v>
@@ -15391,7 +15391,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.492164</t>
+          <t>2025-10-16T12:16:14.728947</t>
         </is>
       </c>
     </row>
@@ -15414,7 +15414,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G165" t="n">
         <v>0.5714285714285714</v>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15481,7 +15481,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.493164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>
@@ -15504,7 +15504,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G166" t="n">
         <v>0.5714285714285714</v>
@@ -15521,7 +15521,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15571,7 +15571,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.493164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G167" t="n">
         <v>0.5714285714285714</v>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.493164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G168" t="n">
         <v>0.5714285714285714</v>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.493164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>
@@ -15782,7 +15782,7 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G169" t="n">
         <v>0.5714285714285714</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.493164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G170" t="n">
         <v>0.5714285714285714</v>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.494164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>
@@ -15970,7 +15970,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631937286413605</v>
+        <v>0.9528331728191507</v>
       </c>
       <c r="G171" t="n">
         <v>0.5714285714285714</v>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:41.494164</t>
+          <t>2025-10-16T12:16:14.729948</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G2" t="n">
         <v>0.5714285714285714</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[1.8699456462780393, 1.9310291903366734, 2.1187842612958963, 2.157114632593742, 2.309014130170618, 2.3372883002611866, 2.4649257335029087]</t>
+          <t>[1.8699456453323364, 1.9310290813446045, 2.118784189224243, 2.1571145057678223, 2.309014320373535, 2.3372886180877686, 2.464925527572632]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -635,14 +635,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[1.9310291903366734, 1.8699456462780393, 2.157114632593742, 2.1187842612958963, 2.4649257335029087, 2.5975406505908887, 2.6666405850970385]</t>
+          <t>[1.9310290813446045, 1.8699456453323364, 2.1571145057678223, 2.118784189224243, 2.464925527572632, 2.597540855407715, 2.666640520095825]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8905376251045024</v>
+        <v>0.8905375599861145</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.705949</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G3" t="n">
         <v>0.5714285714285714</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 4.657368450840615, 4.551328003068311, 4.360157601979225, 4.227651771241657, 4.7412606399789885, 4.158799051101398]</t>
+          <t>[3.3570351600646973, 4.6573686599731445, 4.551328182220459, 4.360157489776611, 4.227651596069336, 4.741261005401611, 4.158799171447754]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -725,14 +725,14 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 4.657368450840615, 4.551328003068311, 4.360157601979225, 4.227651771241657, 4.7412606399789885, 4.158799051101398]</t>
+          <t>[3.3570351600646973, 4.6573686599731445, 4.551328182220459, 4.360157489776611, 4.227651596069336, 4.741261005401611, 4.158799171447754]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.002574741857509</v>
+        <v>1.002574682235718</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.705949</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G4" t="n">
         <v>0.5714285714285714</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.637667802357196, 2.9558347247120693, 3.0747294711528927, 3.437535354444313, 3.208827984996173, 2.942256578333335]</t>
+          <t>[2.7656188011169434, 2.6376678943634033, 2.9558346271514893, 3.0747292041778564, 3.437535285949707, 3.2088279724121094, 2.9422569274902344]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -815,14 +815,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.637667802357196, 2.9558347247120693, 3.0747294711528927, 3.437535354444313, 3.208827984996173, 2.942256578333335]</t>
+          <t>[2.7656188011169434, 2.6376678943634033, 2.9558346271514893, 3.0747292041778564, 3.437535285949707, 3.2088279724121094, 2.9422569274902344]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9325032910788938</v>
+        <v>0.9325032234191895</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.706951</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G5" t="n">
         <v>0.5714285714285714</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.347497452039956, 17.48337011231502, 15.817074294635388, 13.973901799869077, 18.591679370173104, 15.527436547000278]</t>
+          <t>[8.26854133605957, 14.34749698638916, 17.483369827270508, 15.817073822021484, 13.973901748657227, 18.591678619384766, 15.527436256408691]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -905,14 +905,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.347497452039956, 17.48337011231502, 15.817074294635388, 13.973901799869077, 18.591679370173104, 20.472213993445344]</t>
+          <t>[8.26854133605957, 14.34749698638916, 17.483369827270508, 15.817073822021484, 13.973901748657227, 18.591678619384766, 20.472213745117188]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.536119884719464</v>
+        <v>1.536119818687439</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.706951</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G6" t="n">
         <v>0.5714285714285714</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[2.1290879073336044, 2.0949856713953765, 2.3307847652335973, 2.1981102205145446, 2.4844206772935213, 2.537948094634543, 2.7739619932688373]</t>
+          <t>[2.1290879249572754, 2.0949854850769043, 2.330784320831299, 2.1981098651885986, 2.4844205379486084, 2.5379481315612793, 2.7739617824554443]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -999,14 +999,14 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[2.0949856713953765, 2.3307847652335973, 2.1981102205145446, 2.4844206772935213, 2.537948094634543, 2.881950442561504, 2.7739619932688373]</t>
+          <t>[2.0949854850769043, 2.330784320831299, 2.1981098651885986, 2.4844205379486084, 2.5379481315612793, 2.881950616836548, 2.7739617824554443]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8627520165454562</v>
+        <v>0.8627519011497498</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.706951</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G7" t="n">
         <v>0.5714285714285714</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.7858993453005365, 1.8491791713111778, 2.16851672908144, 2.4140938545005257, 2.2811609901806733, 2.4649257335029087]</t>
+          <t>[1.5321093797683716, 1.7858995199203491, 1.8491790294647217, 2.1685168743133545, 2.4140937328338623, 2.281160831451416, 2.464925527572632]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1089,14 +1089,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.8491791713111778, 1.7858993453005365, 2.2811609901806733, 2.4649257335029087, 2.7298887823733757, 2.62459668933437]</t>
+          <t>[1.5321093797683716, 1.8491790294647217, 1.7858995199203491, 2.281160831451416, 2.464925527572632, 2.729888916015625, 2.62459659576416]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9304333616833372</v>
+        <v>0.9304333925247192</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.706951</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G8" t="n">
         <v>0.5714285714285714</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 3.064696362186613, 3.1159537581020493, 3.208827984996173, 3.430947459742662, 3.668346666469462, 3.3151618788091226]</t>
+          <t>[2.1767048835754395, 3.0646960735321045, 3.1159534454345703, 3.2088279724121094, 3.430947780609131, 3.668346405029297, 3.315161943435669]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 3.064696362186613, 3.1159537581020493, 3.208827984996173, 3.668346666469462, 3.430947459742662, 3.3151618788091226]</t>
+          <t>[2.1767048835754395, 3.0646960735321045, 3.1159534454345703, 3.2088279724121094, 3.668346405029297, 3.430947780609131, 3.315161943435669]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9670884233588186</v>
+        <v>0.9670884013175964</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.706951</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G9" t="n">
         <v>0.5714285714285714</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.5399127719420465, 3.485902229819895, 3.5507466719885357, 3.8995257200443763, 3.3237751173204066, 3.4820018644335184]</t>
+          <t>[3.179478168487549, 3.5399129390716553, 3.4859018325805664, 3.5507469177246094, 3.8995256423950195, 3.323775291442871, 3.482002019882202]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.5399127719420465, 3.485902229819895, 3.5507466719885357, 3.8995257200443763, 3.3237751173204066, 3.4820018644335184]</t>
+          <t>[3.179478168487549, 3.5399129390716553, 3.4859018325805664, 3.5507469177246094, 3.8995256423950195, 3.323775291442871, 3.482002019882202]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.024681057152124</v>
+        <v>1.024681091308594</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.706951</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G10" t="n">
         <v>0.5714285714285714</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.7295344474234504, 3.704053483332116, 4.181013240348693, 4.7490582515585045, 4.614545061221802, 6.0865307956003365]</t>
+          <t>[3.8333353996276855, 3.729534387588501, 3.7040534019470215, 4.181013107299805, 4.749058246612549, 4.614544868469238, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1359,14 +1359,14 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.7295344474234504, 3.704053483332116, 4.181013240348693, 4.7490582515585045, 4.614545061221802, 6.0865307956003365]</t>
+          <t>[3.8333353996276855, 3.729534387588501, 3.7040534019470215, 4.181013107299805, 4.749058246612549, 4.614544868469238, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8662215254929531</v>
+        <v>0.8662214875221252</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.707947</t>
+          <t>2025-10-17T02:09:58.344060</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G11" t="n">
         <v>0.5714285714285714</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 3.190882849225537, 3.3810821216851688, 4.0318300127897775, 4.074189211709716, 3.9937842785865203, 4.089835463334681]</t>
+          <t>[2.676260471343994, 3.190882921218872, 3.38108229637146, 4.031829833984375, 4.07418966293335, 3.9937844276428223, 4.089835166931152]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1449,14 +1449,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 3.190882849225537, 3.3810821216851688, 4.0318300127897775, 4.074189211709716, 3.9937842785865203, 4.089835463334681]</t>
+          <t>[2.676260471343994, 3.190882921218872, 3.38108229637146, 4.031829833984375, 4.07418966293335, 3.9937844276428223, 4.089835166931152]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9564217617985832</v>
+        <v>0.9564217329025269</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.707947</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G12" t="n">
         <v>0.5714285714285714</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[2.829638037136089, 3.7390088570686877, 3.514280685908663, 3.5076932622985377, 3.33330983713227, 3.4786622829974356, 3.55537337726651]</t>
+          <t>[2.8296382427215576, 3.739009141921997, 3.5142805576324463, 3.5076937675476074, 3.333310127258301, 3.4786622524261475, 3.555373430252075]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1539,14 +1539,14 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[2.829638037136089, 3.514280685908663, 3.7390088570686877, 3.5076932622985377, 3.33330983713227, 3.4786622829974356, 3.55537337726651]</t>
+          <t>[2.8296382427215576, 3.5142805576324463, 3.739009141921997, 3.5076937675476074, 3.333310127258301, 3.4786622524261475, 3.555373430252075]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9937276248955005</v>
+        <v>0.9937278032302856</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.707947</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G13" t="n">
         <v>0.5714285714285714</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.105340217557762, 13.156933733064346, 13.472716097043474, 12.758660121459268, 13.223913304651559, 16.80879471068115]</t>
+          <t>[8.26854133605957, 14.105340957641602, 13.156933784484863, 13.472715377807617, 12.758660316467285, 13.223913192749023, 16.808794021606445]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[8.268541943367712, 14.105340217557762, 13.156933733064346, 13.472716097043474, 12.758660121459268, 13.223913304651559, 16.80879471068115]</t>
+          <t>[8.26854133605957, 14.105340957641602, 13.156933784484863, 13.472715377807617, 12.758660316467285, 13.223913192749023, 16.808794021606445]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.50560329472288</v>
+        <v>1.505603194236755</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.707947</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G14" t="n">
         <v>0.5714285714285714</v>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[1.7813073879053836, 1.9713535589875961, 2.0307905739305205, 2.0929172058822116, 2.103978874782868, 2.1981102205145446, 2.4380065550884993]</t>
+          <t>[1.781307578086853, 1.9713536500930786, 2.0307908058166504, 2.0929172039031982, 2.1039788722991943, 2.1981098651885986, 2.438006639480591]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[1.7813073879053836, 1.9713535589875961, 2.103978874782868, 2.0307905739305205, 2.0929172058822116, 2.1981102205145446, 2.4380065550884993]</t>
+          <t>[1.781307578086853, 1.9713536500930786, 2.1039788722991943, 2.0307908058166504, 2.0929172039031982, 2.1981098651885986, 2.438006639480591]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.828595550679006</v>
+        <v>0.8285955786705017</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.707947</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G15" t="n">
         <v>0.5714285714285714</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.525921641869262, 2.6966799247529702, 2.7958012473154814, 3.5487879437975716, 3.462326700618113, 3.027298133839749]</t>
+          <t>[2.22337007522583, 2.525921583175659, 2.6966795921325684, 2.7958014011383057, 3.548788070678711, 3.462326765060425, 3.0272979736328125]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1813,14 +1813,14 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.525921641869262, 2.6966799247529702, 2.7958012473154814, 3.5487879437975716, 3.462326700618113, 3.027298133839749]</t>
+          <t>[2.22337007522583, 2.525921583175659, 2.6966795921325684, 2.7958014011383057, 3.548788070678711, 3.462326765060425, 3.0272979736328125]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8942654223000234</v>
+        <v>0.8942654728889465</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.708950</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G16" t="n">
         <v>0.5714285714285714</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 2.8674885573782056, 3.3062490883986415, 3.4773982922781213, 4.181013240348693, 4.656518049344014, 4.197307937366091]</t>
+          <t>[2.770078420639038, 2.867488384246826, 3.306248903274536, 3.477397918701172, 4.181013107299805, 4.65651798248291, 4.19730806350708]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1903,14 +1903,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 2.8674885573782056, 3.3062490883986415, 3.4773982922781213, 4.181013240348693, 4.656518049344014, 4.197307937366091]</t>
+          <t>[2.770078420639038, 2.867488384246826, 3.306248903274536, 3.477397918701172, 4.181013107299805, 4.65651798248291, 4.19730806350708]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8307130119461216</v>
+        <v>0.8307129740715027</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.708950</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G17" t="n">
         <v>0.5714285714285714</v>
@@ -1959,7 +1959,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[8.479500021432601, 7.931451127191836, 9.953043787019434, 8.495764283422462, 8.44988172949529, 10.13033931935584, 12.546516420263776]</t>
+          <t>[8.479499816894531, 7.931450843811035, 9.953043937683105, 8.495762825012207, 8.449881553649902, 10.130338668823242, 12.546515464782715]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[8.479500021432601, 7.931451127191836, 9.953043787019434, 8.495764283422462, 8.44988172949529, 10.472673823971313, 11.325993981902274]</t>
+          <t>[8.479499816894531, 7.931450843811035, 9.953043937683105, 8.495762825012207, 8.449881553649902, 10.472673416137695, 11.325993537902832]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.067189300787625</v>
+        <v>1.06718909740448</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.708950</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G18" t="n">
         <v>0.5714285714285714</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[2.163869306811381, 2.18291802038063, 2.6966799247529702, 2.5901691590287803, 2.856168748218591, 2.6759960290505087, 3.315636165817204]</t>
+          <t>[2.163869619369507, 2.182918071746826, 2.6966795921325684, 2.5901691913604736, 2.856168746948242, 2.6759958267211914, 3.315636157989502]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2083,14 +2083,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.163869306811381, 2.18291802038063, 2.6966799247529702, 2.5901691590287803, 2.856168748218591, 2.6759960290505087, 3.315636165817204]</t>
+          <t>[2.163869619369507, 2.182918071746826, 2.6966795921325684, 2.5901691913604736, 2.856168746948242, 2.6759958267211914, 3.315636157989502]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9039866307206335</v>
+        <v>0.9039865732192993</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.708950</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G19" t="n">
         <v>0.5714285714285714</v>
@@ -2139,7 +2139,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.0759015116759723, 3.073374779076887, 3.6973298714213056, 3.590182636033232, 3.6209661368232013, 4.359033408394388]</t>
+          <t>[2.5598838329315186, 3.0759012699127197, 3.0733749866485596, 3.69732928276062, 3.5901825428009033, 3.6209661960601807, 4.359033107757568]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2173,14 +2173,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.590182636033232, 3.6209661368232013, 3.073374779076887, 3.627325286605539, 4.359033408394388, 3.619893275705778]</t>
+          <t>[2.5598838329315186, 3.5901825428009033, 3.6209661960601807, 3.0733749866485596, 3.6273250579833984, 4.359033107757568, 3.6198933124542236]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>0.980365429734565</v>
+        <v>0.9803652763366699</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2189,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.709952</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G20" t="n">
         <v>0.5714285714285714</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 2.5673366849972497, 2.31176644967602, 2.432317181652187, 2.5944576900545924, 2.521955835662292, 2.4826809269033525]</t>
+          <t>[2.5025241374969482, 2.5673365592956543, 2.3117666244506836, 2.4323172569274902, 2.5944576263427734, 2.521955728530884, 2.4826810359954834]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2263,14 +2263,14 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 2.5673366849972497, 2.648351310793584, 2.432317181652187, 2.5944576900545924, 2.521955835662292, 2.4826809269033525]</t>
+          <t>[2.5025241374969482, 2.5673365592956543, 2.6483511924743652, 2.4323172569274902, 2.5944576263427734, 2.521955728530884, 2.4826810359954834]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9497021163586566</v>
+        <v>0.9497022032737732</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.709952</t>
+          <t>2025-10-17T02:09:58.345056</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G21" t="n">
         <v>0.5714285714285714</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.4193735527061333, 1.846257876701924, 1.959227576079553, 2.023158699795688, 1.8655718853676027, 2.044082402626124, 2.2470378991447713]</t>
+          <t>[1.419373631477356, 1.8462578058242798, 1.9592275619506836, 2.023158550262451, 1.8655718564987183, 2.0440824031829834, 2.247037887573242]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2353,14 +2353,14 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[1.4193735527061333, 1.846257876701924, 1.959227576079553, 2.023158699795688, 1.8655718853676027, 2.044082402626124, 2.2470378991447713]</t>
+          <t>[1.419373631477356, 1.8462578058242798, 1.9592275619506836, 2.023158550262451, 1.8655718564987183, 2.0440824031829834, 2.247037887573242]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8677072862269066</v>
+        <v>0.8677072525024414</v>
       </c>
       <c r="W21" t="n">
         <v>2</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.709952</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G22" t="n">
         <v>0.5714285714285714</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[3.05009238450375, 2.854408343615909, 3.3266559595532956, 3.735061726277516, 3.732706964431748, 3.721307896124602, 3.8500159957674116]</t>
+          <t>[3.0500919818878174, 2.8544085025787354, 3.326655626296997, 3.7350618839263916, 3.7327070236206055, 3.7213079929351807, 3.8500161170959473]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2447,14 +2447,14 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[3.05009238450375, 2.854408343615909, 3.3266559595532956, 3.735061726277516, 3.732706964431748, 3.721307896124602, 3.8500159957674116]</t>
+          <t>[3.0500919818878174, 2.8544085025787354, 3.326655626296997, 3.7350618839263916, 3.7327070236206055, 3.7213079929351807, 3.8500161170959473]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.056306347020177</v>
+        <v>1.0563063621521</v>
       </c>
       <c r="W22" t="n">
         <v>3</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.709952</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G23" t="n">
         <v>0.5714285714285714</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4193735527061333, 1.633431842009987, 1.7749982005131384, 1.8687255484203718, 1.7933483341242031, 2.1132754356681542]</t>
+          <t>[1.1009761095046997, 1.419373631477356, 1.6334316730499268, 1.7749979496002197, 1.8687255382537842, 1.7933483123779297, 2.1132755279541016]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4193735527061333, 1.633431842009987, 1.7749982005131384, 1.8687255484203718, 1.7933483341242031, 2.1132754356681542]</t>
+          <t>[1.1009761095046997, 1.419373631477356, 1.6334316730499268, 1.7749979496002197, 1.8687255382537842, 1.7933483123779297, 2.1132755279541016]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8061405908103748</v>
+        <v>0.8061404824256897</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.709952</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G24" t="n">
         <v>0.5714285714285714</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[1.8378077524821266, 1.8491791713111778, 1.910042289811469, 2.0866545744490907, 1.947857564805605, 2.232717596247913, 2.1117294810881115]</t>
+          <t>[1.8378074169158936, 1.8491790294647217, 1.910042405128479, 2.0866546630859375, 1.9478576183319092, 2.232717275619507, 2.111729383468628]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2631,14 +2631,14 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[1.8491791713111778, 1.910042289811469, 2.232717596247913, 2.4573943079116973, 2.5239659001150083, 2.6666405850970385, 2.7819569965801185]</t>
+          <t>[1.8491790294647217, 1.910042405128479, 2.232717275619507, 2.4573941230773926, 2.523965835571289, 2.666640520095825, 2.781956911087036]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7887206551270548</v>
+        <v>0.7887206673622131</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G25" t="n">
         <v>0.5714285714285714</v>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.4448964866051028, 1.7749982005131384, 2.131900411425432, 2.044082402626124, 2.3844115626425397, 2.5282960996910315, 2.3695618485838037]</t>
+          <t>[1.4448964595794678, 1.7749979496002197, 2.1319003105163574, 2.0440824031829834, 2.384411573410034, 2.5282962322235107, 2.3695621490478516]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2721,14 +2721,14 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.4448964866051028, 1.7749982005131384, 2.131900411425432, 2.044082402626124, 2.3844115626425397, 2.5282960996910315, 2.634864323321415]</t>
+          <t>[1.4448964595794678, 1.7749979496002197, 2.1319003105163574, 2.0440824031829834, 2.384411573410034, 2.5282962322235107, 2.634864330291748]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8935031494156955</v>
+        <v>0.8935031294822693</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G26" t="n">
         <v>0.5714285714285714</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[5.478773838501507, 5.862947111620982, 5.716039312776141, 5.625724824146646, 7.11501099494576, 5.566536054134686, 6.425681027680412]</t>
+          <t>[5.478774070739746, 5.8629469871521, 5.716039657592773, 5.625724792480469, 7.115010738372803, 5.5665364265441895, 6.425680637359619]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2811,14 +2811,14 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[5.478773838501507, 5.862947111620982, 5.716039312776141, 5.625724824146646, 7.11501099494576, 5.566536054134686, 6.425681027680412]</t>
+          <t>[5.478774070739746, 5.8629469871521, 5.716039657592773, 5.625724792480469, 7.115010738372803, 5.5665364265441895, 6.425680637359619]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.156607161215865</v>
+        <v>1.156607151031494</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G27" t="n">
         <v>0.5714285714285714</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.3914478815664062, 2.1957213843581145, 2.103978874782868, 2.3307847652335973, 2.4098320176756123, 2.4699116962814003, 2.9378876000195544]</t>
+          <t>[1.3914480209350586, 2.1957216262817383, 2.1039788722991943, 2.330784320831299, 2.409832000732422, 2.469911813735962, 2.937887668609619]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2905,14 +2905,14 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[2.1957213843581145, 2.103978874782868, 2.3307847652335973, 2.4098320176756123, 2.4699116962814003, 2.9378876000195544, 2.7782079731247786]</t>
+          <t>[2.1957216262817383, 2.1039788722991943, 2.330784320831299, 2.409832000732422, 2.469911813735962, 2.937887668609619, 2.7782082557678223]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8197170759962674</v>
+        <v>0.8197169303894043</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G28" t="n">
         <v>0.5714285714285714</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.8670662102839277, 1.828548470858394, 2.232717596247913, 2.7222615172449642, 2.678786780417688, 2.5462913487782366]</t>
+          <t>[1.5321093797683716, 1.8670663833618164, 1.8285486698150635, 2.232717275619507, 2.722261428833008, 2.6787867546081543, 2.5462915897369385]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2995,14 +2995,14 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[1.5321094406548483, 1.8670662102839277, 1.828548470858394, 2.232717596247913, 2.7222615172449642, 2.678786780417688, 2.5462913487782366]</t>
+          <t>[1.5321093797683716, 1.8670663833618164, 1.8285486698150635, 2.232717275619507, 2.722261428833008, 2.6787867546081543, 2.5462915897369385]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9129517470182065</v>
+        <v>0.9129517078399658</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G29" t="n">
         <v>0.5714285714285714</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 3.871425366245549, 3.657987477731485, 3.8630560237563953, 4.948517491644427, 5.462943139572716, 3.9521317724554006]</t>
+          <t>[3.8686211109161377, 3.871425151824951, 3.657987356185913, 3.863055944442749, 4.948517322540283, 5.462942600250244, 3.952131748199463]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 3.871425366245549, 3.657987477731485, 3.8630560237563953, 4.948517491644427, 5.462943139572716, 3.9521317724554006]</t>
+          <t>[3.8686211109161377, 3.871425151824951, 3.657987356185913, 3.863055944442749, 4.948517322540283, 5.462942600250244, 3.952131748199463]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.05613854764126</v>
+        <v>1.056138515472412</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G30" t="n">
         <v>0.5714285714285714</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 1.7493576782092717, 2.1237018960754175, 2.4011948485270946, 2.185838434420039, 2.728515147156043, 2.835864764067928]</t>
+          <t>[1.8763794898986816, 1.7493575811386108, 2.123701572418213, 2.4011945724487305, 2.185838222503662, 2.728515386581421, 2.835864782333374]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3175,14 +3175,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 1.7493576782092717, 2.1237018960754175, 2.4011948485270946, 2.185838434420039, 2.728515147156043, 2.835864764067928]</t>
+          <t>[1.8763794898986816, 1.7493575811386108, 2.123701572418213, 2.4011945724487305, 2.185838222503662, 2.728515386581421, 2.835864782333374]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8732235359179513</v>
+        <v>0.8732233643531799</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.346056</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G31" t="n">
         <v>0.5714285714285714</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[1.8687255484203718, 2.1631128229650765, 2.023158699795688, 2.073935675757163, 2.432317181652187, 2.476794694747412, 2.6848936838409267]</t>
+          <t>[1.8687255382537842, 2.1631126403808594, 2.023158550262451, 2.0739355087280273, 2.4323172569274902, 2.476794481277466, 2.6848936080932617]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3269,14 +3269,14 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[2.1631128229650765, 1.8687255484203718, 2.023158699795688, 2.073935675757163, 2.432317181652187, 2.476794694747412, 2.6848936838409267]</t>
+          <t>[2.1631126403808594, 1.8687255382537842, 2.023158550262451, 2.0739355087280273, 2.4323172569274902, 2.476794481277466, 2.6848936080932617]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9150664587377568</v>
+        <v>0.9150664806365967</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G32" t="n">
         <v>0.5714285714285714</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[2.0834979478045486, 2.2647031354672147, 1.9486627840668806, 2.1132754356681542, 2.1526319772589306, 2.854408343615909, 2.2912762141796343]</t>
+          <t>[2.083498001098633, 2.2647030353546143, 1.9486628770828247, 2.1132755279541016, 2.152631998062134, 2.8544085025787354, 2.291275978088379]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3363,14 +3363,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[2.0834979478045486, 2.2647031354672147, 1.9486627840668806, 2.1132754356681542, 2.1526319772589306, 2.854408343615909, 2.2912762141796343]</t>
+          <t>[2.083498001098633, 2.2647030353546143, 1.9486628770828247, 2.1132755279541016, 2.152631998062134, 2.8544085025787354, 2.291275978088379]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9150935466314639</v>
+        <v>0.9150936007499695</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.710950</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G33" t="n">
         <v>0.5714285714285714</v>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.8629198518469456, 4.031183150392049, 3.7935650492667885, 3.534783207137133, 4.400537589687239, 4.924728906736444]</t>
+          <t>[2.88997220993042, 3.862920045852661, 4.03118371963501, 3.793565273284912, 3.534783124923706, 4.400537967681885, 4.924728870391846]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3453,14 +3453,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.8629198518469456, 4.031183150392049, 3.7935650492667885, 3.534783207137133, 4.400537589687239, 4.924728906736444]</t>
+          <t>[2.88997220993042, 3.862920045852661, 4.03118371963501, 3.793565273284912, 3.534783124923706, 4.400537967681885, 4.924728870391846]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9599440270783125</v>
+        <v>0.9599440097808838</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G34" t="n">
         <v>0.5714285714285714</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[3.251023802974645, 3.2578315593888023, 3.1185432125128605, 3.534783207137133, 3.512515393209485, 3.921548972909323, 3.2495913927787967]</t>
+          <t>[3.2510242462158203, 3.257831573486328, 3.1185433864593506, 3.534783124923706, 3.5125155448913574, 3.921549081802368, 3.249591588973999]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3543,14 +3543,14 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[3.251023802974645, 3.2578315593888023, 3.1185432125128605, 3.534783207137133, 3.512515393209485, 3.921548972909323, 3.2495913927787967]</t>
+          <t>[3.2510242462158203, 3.257831573486328, 3.1185433864593506, 3.534783124923706, 3.5125155448913574, 3.921549081802368, 3.249591588973999]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9601145162706023</v>
+        <v>0.9601144194602966</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G35" t="n">
         <v>0.5714285714285714</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[1.7380028822881741, 1.8893887139972358, 1.7050279013957113, 2.157114632593742, 2.0809916746256443, 2.1109708387784547, 2.412684299782368]</t>
+          <t>[1.7380026578903198, 1.8893886804580688, 1.7050278186798096, 2.1571145057678223, 2.080991744995117, 2.1109707355499268, 2.412684202194214]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3633,14 +3633,14 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[1.8893887139972358, 2.157114632593742, 2.412684299782368, 2.4573943079116973, 2.4186038102904597, 2.872814613760217, 3.0848882674555886]</t>
+          <t>[1.8893886804580688, 2.1571145057678223, 2.412684202194214, 2.4573941230773926, 2.4186031818389893, 2.872814416885376, 3.084888219833374]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7822608328407611</v>
+        <v>0.7822607755661011</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G36" t="n">
         <v>0.5714285714285714</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[3.8629198518469456, 4.3717533073014865, 4.074189211709716, 4.063390370605255, 4.76307526271921, 4.7231771019033575, 5.447000805753296]</t>
+          <t>[3.862920045852661, 4.371753215789795, 4.07418966293335, 4.063390731811523, 4.763075828552246, 4.723177433013916, 5.447000980377197]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3723,14 +3723,14 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[3.8629198518469456, 4.3717533073014865, 4.074189211709716, 4.063390370605255, 4.76307526271921, 4.7231771019033575, 5.447000805753296]</t>
+          <t>[3.862920045852661, 4.371753215789795, 4.07418966293335, 4.063390731811523, 4.763075828552246, 4.723177433013916, 5.447000980377197]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.00792000896017</v>
+        <v>1.007920145988464</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G37" t="n">
         <v>0.5714285714285714</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[8.07798415946937, 9.520485012671415, 9.085322417718368, 14.347497452039956, 11.229149645848086, 14.105340217557762, 10.736236220178883]</t>
+          <t>[8.077983856201172, 9.520484924316406, 9.085322380065918, 14.34749698638916, 11.22914981842041, 14.105340957641602, 10.736235618591309]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3813,14 +3813,14 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[8.07798415946937, 9.520485012671415, 9.085322417718368, 14.347497452039956, 11.229149645848086, 14.105340217557762, 10.736236220178883]</t>
+          <t>[8.077983856201172, 9.520484924316406, 9.085322380065918, 14.34749698638916, 11.22914981842041, 14.105340957641602, 10.736235618591309]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>1.131529035466786</v>
+        <v>1.131529092788696</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3829,7 +3829,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G38" t="n">
         <v>0.5714285714285714</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 2.9709963738177745, 3.1736584535809893, 3.225885473778741, 2.8451725907548107, 3.20192285053055, 3.374424588361647]</t>
+          <t>[2.5025241374969482, 2.970996618270874, 3.1736578941345215, 3.2258851528167725, 2.845172643661499, 3.20192289352417, 3.374424457550049]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3903,14 +3903,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[2.502524449502609, 3.1736584535809893, 3.225885473778741, 2.9709963738177745, 2.8451725907548107, 3.085358032748121, 3.20192285053055]</t>
+          <t>[2.5025241374969482, 3.1736578941345215, 3.2258851528167725, 2.970996618270874, 2.845172643661499, 3.085357904434204, 3.20192289352417]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>0.935213612542212</v>
+        <v>0.9352136254310608</v>
       </c>
       <c r="W38" t="n">
         <v>2</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G39" t="n">
         <v>0.5714285714285714</v>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[3.5790002847462494, 4.063030690939169, 4.240592894529004, 4.144880708057545, 5.442207236021047, 6.103587394190683, 4.567472323764699]</t>
+          <t>[3.579000234603882, 4.063031196594238, 4.2405924797058105, 4.144880771636963, 5.442206859588623, 6.103587627410889, 4.567472457885742]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3997,14 +3997,14 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[3.5790002847462494, 4.063030690939169, 4.240592894529004, 4.144880708057545, 5.442207236021047, 6.103587394190683, 4.567472323764699]</t>
+          <t>[3.579000234603882, 4.063031196594238, 4.2405924797058105, 4.144880771636963, 5.442206859588623, 6.103587627410889, 4.567472457885742]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9889402671969006</v>
+        <v>0.9889402985572815</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G40" t="n">
         <v>0.5714285714285714</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 2.45154123748135, 3.1721940124763592, 2.930293146612869, 3.705643929511386, 3.1808561076235478, 3.4277910428378067]</t>
+          <t>[2.676260471343994, 2.451540946960449, 3.172193765640259, 2.930293321609497, 3.705644130706787, 3.1808559894561768, 3.427790880203247]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[2.676260566233233, 2.45154123748135, 3.1721940124763592, 2.930293146612869, 3.705643929511386, 3.1808561076235478, 3.4277910428378067]</t>
+          <t>[2.676260471343994, 2.451540946960449, 3.172193765640259, 2.930293321609497, 3.705644130706787, 3.1808559894561768, 3.427790880203247]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9341269433061655</v>
+        <v>0.9341269731521606</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.347056</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G41" t="n">
         <v>0.5714285714285714</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.946188177274338, 2.0517492806729503, 2.075854731143017, 2.16373611104834, 2.473052264397535, 2.362578746943257, 2.685874358168506]</t>
+          <t>[1.94618821144104, 2.0517489910125732, 2.075855016708374, 2.16373610496521, 2.4730520248413086, 2.3625786304473877, 2.6858742237091064]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4181,14 +4181,14 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[2.0517492806729503, 2.075854731143017, 2.16373611104834, 2.473052264397535, 2.362578746943257, 2.685874358168506, 2.8868471797770363]</t>
+          <t>[2.0517489910125732, 2.075855016708374, 2.16373610496521, 2.4730520248413086, 2.3625786304473877, 2.6858742237091064, 2.8868470191955566]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7680087097443975</v>
+        <v>0.7680087089538574</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.711947</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G42" t="n">
         <v>0.5714285714285714</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[2.880482964398465, 2.9558347247120693, 2.7745883479076503, 3.211227554585352, 3.2097150741296745, 2.919971046197755, 3.15491325623095]</t>
+          <t>[2.8804829120635986, 2.9558346271514893, 2.7745883464813232, 3.2112276554107666, 3.2097151279449463, 2.919971466064453, 3.1549131870269775]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4271,14 +4271,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[2.880482964398465, 2.9558347247120693, 2.7745883479076503, 3.211227554585352, 3.2097150741296745, 2.919971046197755, 3.15491325623095]</t>
+          <t>[2.8804829120635986, 2.9558346271514893, 2.7745883464813232, 3.2112276554107666, 3.2097151279449463, 2.919971466064453, 3.1549131870269775]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9723418583113305</v>
+        <v>0.9723418354988098</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G43" t="n">
         <v>0.5714285714285714</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 3.704053483332116, 3.2008009984667787, 4.056423795516002, 3.631736842028982, 3.940002700588823, 3.5487879437975716]</t>
+          <t>[2.770078420639038, 3.7040534019470215, 3.200800895690918, 4.056423664093018, 3.631736993789673, 3.94000244140625, 3.548788070678711]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4361,14 +4361,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[2.770078647479813, 3.704053483332116, 3.2008009984667787, 4.056423795516002, 3.631736842028982, 3.940002700588823, 3.5487879437975716]</t>
+          <t>[2.770078420639038, 3.7040534019470215, 3.200800895690918, 4.056423664093018, 3.631736993789673, 3.94000244140625, 3.548788070678711]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8680020708901388</v>
+        <v>0.8680020570755005</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G44" t="n">
         <v>0.5714285714285714</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.2897707920903008, 3.437535354444313, 3.7390088570686877, 4.371141379696012, 4.28427544851291, 4.313850905134462]</t>
+          <t>[3.110032796859741, 3.2897708415985107, 3.437535285949707, 3.739009141921997, 4.3711419105529785, 4.284275531768799, 4.3138508796691895]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4451,14 +4451,14 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.2897707920903008, 3.437535354444313, 3.7390088570686877, 4.371141379696012, 4.28427544851291, 4.313850905134462]</t>
+          <t>[3.110032796859741, 3.2897708415985107, 3.437535285949707, 3.739009141921997, 4.3711419105529785, 4.284275531768799, 4.3138508796691895]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9494452685010294</v>
+        <v>0.949445366859436</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G45" t="n">
         <v>0.5714285714285714</v>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[2.693250670322787, 2.9031353277783545, 2.8110306227395556, 3.3592167481724067, 3.440851391314264, 3.2004062988969277, 3.3894181411281377]</t>
+          <t>[2.6932506561279297, 2.903135299682617, 2.811030387878418, 3.3592166900634766, 3.4408512115478516, 3.200406312942505, 3.389417886734009]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4545,14 +4545,14 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[2.693250670322787, 2.9031353277783545, 2.8110306227395556, 3.3592167481724067, 3.440851391314264, 3.2004062988969277, 3.3894181411281377]</t>
+          <t>[2.6932506561279297, 2.903135299682617, 2.811030387878418, 3.3592166900634766, 3.4408512115478516, 3.200406312942505, 3.389417886734009]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9912703886599502</v>
+        <v>0.9912704229354858</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4561,7 +4561,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G46" t="n">
         <v>0.5714285714285714</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.2356272993768265, 6.7148297929617735, 7.146114835384492, 6.76648307157548, 7.451636038208967, 7.739910241020434]</t>
+          <t>[6.968998432159424, 7.235627174377441, 6.714829921722412, 7.146114349365234, 6.766482830047607, 7.45163631439209, 7.739909648895264]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4635,14 +4635,14 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.2356272993768265, 6.7148297929617735, 7.146114835384492, 6.76648307157548, 7.451636038208967, 7.739910241020434]</t>
+          <t>[6.968998432159424, 7.235627174377441, 6.714829921722412, 7.146114349365234, 6.766482830047607, 7.45163631439209, 7.739909648895264]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>1.0174203194125</v>
+        <v>1.017420291900635</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G47" t="n">
         <v>0.5714285714285714</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 4.640130992802321, 4.387338589717392, 4.007469779875353, 4.717777587850117, 5.58928580465266, 4.919157229157083]</t>
+          <t>[3.8686211109161377, 4.640130519866943, 4.387338161468506, 4.007469654083252, 4.717777729034424, 5.589285850524902, 4.919157028198242]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4729,14 +4729,14 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[3.8686208063057577, 4.640130992802321, 4.387338589717392, 4.007469779875353, 4.717777587850117, 5.58928580465266, 4.919157229157083]</t>
+          <t>[3.8686211109161377, 4.640130519866943, 4.387338161468506, 4.007469654083252, 4.717777729034424, 5.589285850524902, 4.919157028198242]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.01980352238731</v>
+        <v>1.019803524017334</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G48" t="n">
         <v>0.5714285714285714</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.8707407319544656, 3.887117231214725, 4.12255051234064, 5.031162143941981, 4.467939049827308, 4.643892580689259, 4.626392066062639]</t>
+          <t>[3.8707408905029297, 3.8871171474456787, 4.122550010681152, 5.031162261962891, 4.467939376831055, 4.643892765045166, 4.626392364501953]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4819,14 +4819,14 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[3.8707407319544656, 3.887117231214725, 4.12255051234064, 5.031162143941981, 4.467939049827308, 4.643892580689259, 4.626392066062639]</t>
+          <t>[3.8707408905029297, 3.8871171474456787, 4.122550010681152, 5.031162261962891, 4.467939376831055, 4.643892765045166, 4.626392364501953]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.061741287545789</v>
+        <v>1.061741232872009</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G49" t="n">
         <v>0.5714285714285714</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4448964866051028, 1.8163297071618814, 1.8910175572535692, 1.8080617436884052, 1.8655718853676027, 2.073935675757163]</t>
+          <t>[1.1009761095046997, 1.4448964595794678, 1.816329836845398, 1.8910176753997803, 1.8080617189407349, 1.8655718564987183, 2.0739355087280273]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4913,14 +4913,14 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[1.100975975252204, 1.4448964866051028, 1.8163297071618814, 1.8910175572535692, 1.8080617436884052, 1.8655718853676027, 2.073935675757163]</t>
+          <t>[1.1009761095046997, 1.4448964595794678, 1.816329836845398, 1.8910176753997803, 1.8080617189407349, 1.8655718564987183, 2.0739355087280273]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>0.802179136493244</v>
+        <v>0.8021791577339172</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G50" t="n">
         <v>0.5714285714285714</v>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.0182317967175893, 3.1177991631370303, 3.2495913927787967, 3.0727270649366534, 3.8247539668239523, 3.242259756374843]</t>
+          <t>[2.9948232173919678, 3.0182318687438965, 3.1177992820739746, 3.249591588973999, 3.0727272033691406, 3.824754238128662, 3.2422597408294678]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5007,14 +5007,14 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.0182317967175893, 3.1177991631370303, 3.2495913927787967, 3.0727270649366534, 3.8247539668239523, 3.242259756374843]</t>
+          <t>[2.9948232173919678, 3.0182318687438965, 3.1177992820739746, 3.249591588973999, 3.0727272033691406, 3.824754238128662, 3.2422597408294678]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9853599636990673</v>
+        <v>0.9853599667549133</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.348055</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G51" t="n">
         <v>0.5714285714285714</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.4529015532153244, 3.6680443707894725, 3.6495754751220733, 3.8132375015781017, 3.354719658066827, 3.693312821291303]</t>
+          <t>[3.179478168487549, 3.452901601791382, 3.668044328689575, 3.6495754718780518, 3.813237428665161, 3.354719877243042, 3.693312406539917]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5097,14 +5097,14 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[3.179478140406934, 3.4529015532153244, 3.6680443707894725, 3.6495754751220733, 3.8132375015781017, 3.354719658066827, 3.693312821291303]</t>
+          <t>[3.179478168487549, 3.452901601791382, 3.668044328689575, 3.6495754718780518, 3.813237428665161, 3.354719877243042, 3.693312406539917]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>1.018472742342629</v>
+        <v>1.018472790718079</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.712945</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G52" t="n">
         <v>0.5714285714285714</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 3.0461976757426013, 3.2008009984667787, 3.3062490883986415, 3.17226243147613, 3.2485326168167097, 4.149100855489355]</t>
+          <t>[2.450679063796997, 3.0461976528167725, 3.200800895690918, 3.306248903274536, 3.17226243019104, 3.24853253364563, 4.1491007804870605]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5191,14 +5191,14 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 3.0461976757426013, 3.2008009984667787, 3.3062490883986415, 3.17226243147613, 3.2485326168167097, 4.149100855489355]</t>
+          <t>[2.450679063796997, 3.0461976528167725, 3.200800895690918, 3.306248903274536, 3.17226243019104, 3.24853253364563, 4.1491007804870605]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8301675474508685</v>
+        <v>0.8301675319671631</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G53" t="n">
         <v>0.5714285714285714</v>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 1.9535507198899174, 2.6171413855656924, 2.551895458869722, 2.9031353277783545, 3.017863810342878, 2.8743946832103364]</t>
+          <t>[1.892378330230713, 1.953550934791565, 2.6171412467956543, 2.5518956184387207, 2.903135299682617, 3.0178637504577637, 2.874394655227661]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5285,14 +5285,14 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 1.9535507198899174, 2.6171413855656924, 2.551895458869722, 2.9031353277783545, 3.017863810342878, 2.8743946832103364]</t>
+          <t>[1.892378330230713, 1.953550934791565, 2.6171412467956543, 2.5518956184387207, 2.903135299682617, 3.0178637504577637, 2.874394655227661]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8816400955485985</v>
+        <v>0.8816401362419128</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G54" t="n">
         <v>0.5714285714285714</v>
@@ -5341,7 +5341,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 3.6978142344491816, 3.971494727548748, 3.673367500372436, 3.5726445484366236, 4.124350078722681, 4.831064328092496]</t>
+          <t>[4.874252796173096, 3.6978139877319336, 3.9714949131011963, 3.6733672618865967, 3.5726444721221924, 4.124350070953369, 4.831064224243164]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5375,14 +5375,14 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 3.6978142344491816, 3.673367500372436, 3.9830050279210485, 3.971494727548748, 4.057019439719888, 4.831064328092496]</t>
+          <t>[4.874252796173096, 3.6978139877319336, 3.6733672618865967, 3.9830050468444824, 3.9714949131011963, 4.0570197105407715, 4.831064224243164]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>1.191883578966763</v>
+        <v>1.191883563995361</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G55" t="n">
         <v>0.5714285714285714</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 2.2399087876048225, 2.4699116962814003, 2.619320189305224, 2.521338788860672, 2.8517644573757157, 2.414479920791436]</t>
+          <t>[1.892975091934204, 2.2399086952209473, 2.469911813735962, 2.6193203926086426, 2.521338939666748, 2.851764678955078, 2.4144797325134277]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5465,14 +5465,14 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 2.2399087876048225, 2.4699116962814003, 2.619320189305224, 2.8517644573757157, 2.414479920791436, 2.8502327628929693]</t>
+          <t>[1.892975091934204, 2.2399086952209473, 2.469911813735962, 2.6193203926086426, 2.851764678955078, 2.4144797325134277, 2.8502326011657715]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8877722483332815</v>
+        <v>0.8877723813056946</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G56" t="n">
         <v>0.5714285714285714</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 5.963501910020404, 4.829949611380288, 6.9637754015754, 6.239005850219928, 6.495593500783756, 6.97565121584154]</t>
+          <t>[4.911062240600586, 5.963501453399658, 4.829949378967285, 6.963775634765625, 6.2390055656433105, 6.495593547821045, 6.975650310516357]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5555,14 +5555,14 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 5.963501910020404, 4.829949611380288, 6.9637754015754, 6.239005850219928, 6.495593500783756, 6.97565121584154]</t>
+          <t>[4.911062240600586, 5.963501453399658, 4.829949378967285, 6.963775634765625, 6.2390055656433105, 6.495593547821045, 6.975650310516357]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.04351589898547</v>
+        <v>1.043515920639038</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G57" t="n">
         <v>0.5714285714285714</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[3.389834022021634, 3.451305239260681, 4.28427544851291, 3.8120532747370346, 4.407372668924887, 4.495724782159341, 3.95635049304522]</t>
+          <t>[3.389833927154541, 3.451305389404297, 4.284275531768799, 3.8120532035827637, 4.407371997833252, 4.495724678039551, 3.956350564956665]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5645,14 +5645,14 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[3.389834022021634, 3.451305239260681, 4.28427544851291, 3.8120532747370346, 4.407372668924887, 4.495724782159341, 3.95635049304522]</t>
+          <t>[3.389833927154541, 3.451305389404297, 4.284275531768799, 3.8120532035827637, 4.407371997833252, 4.495724678039551, 3.956350564956665]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>1.045915863384974</v>
+        <v>1.045915842056274</v>
       </c>
       <c r="W57" t="n">
         <v>1</v>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G58" t="n">
         <v>0.5714285714285714</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 4.046628961057276, 4.140207121876274, 4.489907243438827, 6.283158010827813, 4.861304728624475, 5.760514502053949]</t>
+          <t>[4.846018314361572, 4.046628952026367, 4.140206813812256, 4.4899067878723145, 6.283157825469971, 4.861304759979248, 5.760514736175537]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5739,14 +5739,14 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 4.046628961057276, 4.140207121876274, 4.489907243438827, 4.861304728624475, 6.283158010827813, 5.760514502053949]</t>
+          <t>[4.846018314361572, 4.046628952026367, 4.140206813812256, 4.4899067878723145, 4.861304759979248, 6.283157825469971, 5.760514736175537]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>1.06702661747768</v>
+        <v>1.067026495933533</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -5755,7 +5755,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G59" t="n">
         <v>0.5714285714285714</v>
@@ -5795,7 +5795,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.025761351943278, 8.736628035913151, 9.720782086612948, 7.103111695923586, 11.229149645848086, 7.519877829076104]</t>
+          <t>[6.968998432159424, 7.025761604309082, 8.736627578735352, 9.720782279968262, 7.103111743927002, 11.22914981842041, 7.519877910614014]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5829,14 +5829,14 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[6.968998137974113, 7.025761351943278, 9.720782086612948, 7.103111695923586, 11.229149645848086, 7.519877829076104, 8.896510820874616]</t>
+          <t>[6.968998432159424, 7.025761604309082, 9.720782279968262, 7.103111743927002, 11.22914981842041, 7.519877910614014, 8.896510124206543]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>4</v>
       </c>
       <c r="V59" t="n">
-        <v>1.08260825725225</v>
+        <v>1.082608222961426</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5845,7 +5845,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G60" t="n">
         <v>0.5714285714285714</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[2.044082455813837, 2.634864323321415, 2.4750355001752564, 2.5409902390264656, 2.6390747288006655, 2.8471806397901633, 3.6978142344491816]</t>
+          <t>[2.0440824031829834, 2.634864330291748, 2.4750356674194336, 2.540990114212036, 2.6390748023986816, 2.8471806049346924, 3.6978139877319336]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5919,14 +5919,14 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[2.044082455813837, 2.634864323321415, 2.4750355001752564, 3.0848882674555886, 3.6978142344491816, 2.5409902390264656, 2.6390747288006655]</t>
+          <t>[2.0440824031829834, 2.634864330291748, 2.4750356674194336, 3.084888219833374, 3.6978139877319336, 2.540990114212036, 2.6390748023986816]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.02520506861921</v>
+        <v>1.025205135345459</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.349056</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G61" t="n">
         <v>0.5714285714285714</v>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[2.248768851566471, 2.7726260453341616, 3.064696362186613, 3.345827107508354, 3.323772525509346, 3.67740830816017, 3.136862824041843]</t>
+          <t>[2.2487688064575195, 2.7726261615753174, 3.0646960735321045, 3.345827341079712, 3.323772430419922, 3.677408218383789, 3.1368627548217773]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[2.248768851566471, 2.7726260453341616, 3.064696362186613, 3.323772525509346, 3.67740830816017, 3.136862824041843, 3.513730869653155]</t>
+          <t>[2.2487688064575195, 2.7726261615753174, 3.0646960735321045, 3.323772430419922, 3.677408218383789, 3.1368627548217773, 3.513730764389038]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>4</v>
       </c>
       <c r="V61" t="n">
-        <v>0.9871035897358983</v>
+        <v>0.9871036410331726</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.713950</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G62" t="n">
         <v>0.5714285714285714</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 5.1814891731200055, 5.667717216994172, 5.199067139342398, 6.3179097955235415, 5.64810296837418, 5.48234683955293]</t>
+          <t>[4.874252796173096, 5.181488990783691, 5.667717456817627, 5.199067115783691, 6.3179097175598145, 5.6481032371521, 5.482347011566162]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6099,14 +6099,14 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[4.874252523249762, 5.199067139342398, 5.1814891731200055, 5.667717216994172, 5.64810296837418, 6.3179097955235415, 5.48234683955293]</t>
+          <t>[4.874252796173096, 5.199067115783691, 5.181488990783691, 5.667717456817627, 5.6481032371521, 6.3179097175598145, 5.482347011566162]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>1.201245767355376</v>
+        <v>1.201245784759521</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G63" t="n">
         <v>0.5714285714285714</v>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.3569203703761845, 3.144673363001919, 3.1185432125128605, 2.7955260545114418, 3.887117231214725, 3.908517428628496]</t>
+          <t>[2.1150593757629395, 2.3569202423095703, 3.1446735858917236, 3.1185433864593506, 2.7955260276794434, 3.8871171474456787, 3.908517599105835]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6189,14 +6189,14 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.3569203703761845, 3.144673363001919, 2.7955260545114418, 3.1185432125128605, 3.887117231214725, 3.908517428628496]</t>
+          <t>[2.1150593757629395, 2.3569202423095703, 3.1446735858917236, 2.7955260276794434, 3.1185433864593506, 3.8871171474456787, 3.908517599105835]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>0.9372854195315157</v>
+        <v>0.9372854828834534</v>
       </c>
       <c r="W63" t="n">
         <v>1</v>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G64" t="n">
         <v>0.5714285714285714</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[3.940002700588823, 4.149100855489355, 4.284815685561375, 4.53626021811681, 4.559580543368966, 4.190589945547683, 5.271964299796446]</t>
+          <t>[3.94000244140625, 4.1491007804870605, 4.284815788269043, 4.536260604858398, 4.559580326080322, 4.190589427947998, 5.271964073181152]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6283,14 +6283,14 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[3.940002700588823, 4.149100855489355, 4.284815685561375, 4.53626021811681, 4.559580543368966, 4.190589945547683, 5.271964299796446]</t>
+          <t>[3.94000244140625, 4.1491007804870605, 4.284815788269043, 4.536260604858398, 4.559580326080322, 4.190589427947998, 5.271964073181152]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>1.037130358190573</v>
+        <v>1.03713047504425</v>
       </c>
       <c r="W64" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G65" t="n">
         <v>0.5714285714285714</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[2.7080412154284974, 3.13169603536538, 2.8043221578060846, 3.5262188434262915, 3.1808561076235478, 3.4504713100022006, 3.5531869071252546]</t>
+          <t>[2.708040952682495, 3.1316962242126465, 2.8043220043182373, 3.526219367980957, 3.1808559894561768, 3.4504716396331787, 3.5531866550445557]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[2.7080412154284974, 3.13169603536538, 2.8043221578060846, 3.5262188434262915, 3.1808561076235478, 3.4504713100022006, 3.5531869071252546]</t>
+          <t>[2.708040952682495, 3.1316962242126465, 2.8043220043182373, 3.526219367980957, 3.1808559894561768, 3.4504716396331787, 3.5531866550445557]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>4</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9261772089363786</v>
+        <v>0.9261773228645325</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G66" t="n">
         <v>0.5714285714285714</v>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[2.525921641869262, 2.7044602320074995, 3.081728081041649, 3.1547164486600305, 3.3330360334793236, 3.027415269260538, 4.847490636520776]</t>
+          <t>[2.525921583175659, 2.704460382461548, 3.0817277431488037, 3.1547162532806396, 3.333036184310913, 3.0274152755737305, 4.8474907875061035]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6467,14 +6467,14 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[2.525921641869262, 2.7044602320074995, 3.081728081041649, 3.1547164486600305, 3.3330360334793236, 3.027415269260538, 4.847490636520776]</t>
+          <t>[2.525921583175659, 2.704460382461548, 3.0817277431488037, 3.1547162532806396, 3.333036184310913, 3.0274152755737305, 4.8474907875061035]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>4</v>
       </c>
       <c r="V66" t="n">
-        <v>0.9216836981793628</v>
+        <v>0.921683669090271</v>
       </c>
       <c r="W66" t="n">
         <v>2</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G67" t="n">
         <v>0.5714285714285714</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[2.156108113834737, 2.0834979478045486, 2.18291802038063, 1.8910175572535692, 2.1989943524372895, 2.825923612487896, 2.252367032905442]</t>
+          <t>[2.1561083793640137, 2.083498001098633, 2.182918071746826, 1.8910176753997803, 2.1989948749542236, 2.8259236812591553, 2.2523674964904785]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[2.156108113834737, 2.0834979478045486, 2.18291802038063, 1.8910175572535692, 2.1989943524372895, 2.825923612487896, 2.252367032905442]</t>
+          <t>[2.1561083793640137, 2.083498001098633, 2.182918071746826, 1.8910176753997803, 2.1989948749542236, 2.8259236812591553, 2.2523674964904785]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>4</v>
       </c>
       <c r="V67" t="n">
-        <v>0.802179136493244</v>
+        <v>0.8021791577339172</v>
       </c>
       <c r="W67" t="n">
         <v>2</v>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G68" t="n">
         <v>0.5714285714285714</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[1.8670662102839277, 2.4662781827586278, 2.2910375949335617, 2.3844115626425397, 2.476794694747412, 2.6390205932126607, 2.706460794578008]</t>
+          <t>[1.8670663833618164, 2.4662787914276123, 2.2910375595092773, 2.384411573410034, 2.476794481277466, 2.6390206813812256, 2.706460952758789]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6655,14 +6655,14 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[1.8670662102839277, 2.4662781827586278, 2.2910375949335617, 2.3844115626425397, 2.476794694747412, 2.6390205932126607, 2.61544839021174]</t>
+          <t>[1.8670663833618164, 2.4662787914276123, 2.2910375595092773, 2.384411573410034, 2.476794481277466, 2.6390206813812256, 2.615448236465454]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>4</v>
       </c>
       <c r="V68" t="n">
-        <v>0.954811260655284</v>
+        <v>0.9548112750053406</v>
       </c>
       <c r="W68" t="n">
         <v>1</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G69" t="n">
         <v>0.5714285714285714</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[7.025761351943278, 5.2468920535753725, 6.029143738706898, 7.035663664819318, 6.9637754015754, 9.085322417718368, 7.451636038208967]</t>
+          <t>[7.025761604309082, 5.246891975402832, 6.029144287109375, 7.035663604736328, 6.963775634765625, 9.085322380065918, 7.45163631439209]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6749,14 +6749,14 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[7.025761351943278, 5.2468920535753725, 6.029143738706898, 7.035663664819318, 6.9637754015754, 9.085322417718368, 7.451636038208967]</t>
+          <t>[7.025761604309082, 5.246891975402832, 6.029144287109375, 7.035663604736328, 6.963775634765625, 9.085322380065918, 7.45163631439209]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>1.005148334189432</v>
+        <v>1.00514829158783</v>
       </c>
       <c r="W69" t="n">
         <v>1</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G70" t="n">
         <v>0.5714285714285714</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[2.302834731169962, 2.5673366849972497, 2.778759609160809, 2.7739619932688373, 3.204414507206446, 3.3031439729484724, 3.20192285053055]</t>
+          <t>[2.3028347492218018, 2.5673365592956543, 2.778759717941284, 2.7739617824554443, 3.2044146060943604, 3.3031439781188965, 3.20192289352417]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6843,14 +6843,14 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[2.302834731169962, 2.5673366849972497, 2.7739619932688373, 2.778759609160809, 3.204414507206446, 3.3031439729484724, 3.20192285053055]</t>
+          <t>[2.3028347492218018, 2.5673365592956543, 2.7739617824554443, 2.778759717941284, 3.2044146060943604, 3.3031439781188965, 3.20192289352417]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>4</v>
       </c>
       <c r="V70" t="n">
-        <v>0.9442282920673751</v>
+        <v>0.9442282319068909</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.350055</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G71" t="n">
         <v>0.5714285714285714</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 3.5428647038411, 3.886372076452864, 4.313850905134462, 4.3782608704398305, 3.729479316365309, 4.495724782159341]</t>
+          <t>[2.920504570007324, 3.5428647994995117, 3.8863720893859863, 4.3138508796691895, 4.378261089324951, 3.7294793128967285, 4.495724678039551]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6933,14 +6933,14 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 3.5428647038411, 3.886372076452864, 4.313850905134462, 4.3782608704398305, 3.729479316365309, 4.495724782159341]</t>
+          <t>[2.920504570007324, 3.5428647994995117, 3.8863720893859863, 4.3138508796691895, 4.378261089324951, 3.7294793128967285, 4.495724678039551]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>1.025490416015758</v>
+        <v>1.025490403175354</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.714947</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G72" t="n">
         <v>0.5714285714285714</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[1.9535507198899174, 2.036375392462135, 2.1691611570487335, 2.706172787816595, 2.637667802357196, 2.8110306227395556, 2.5205126162045515]</t>
+          <t>[1.953550934791565, 2.0363752841949463, 2.169160842895508, 2.7061729431152344, 2.6376678943634033, 2.811030387878418, 2.520512342453003]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7023,14 +7023,14 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[1.9535507198899174, 2.036375392462135, 2.1691611570487335, 2.706172787816595, 2.637667802357196, 2.8110306227395556, 2.5205126162045515]</t>
+          <t>[1.953550934791565, 2.0363752841949463, 2.169160842895508, 2.7061729431152344, 2.6376678943634033, 2.811030387878418, 2.520512342453003]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>0.8960078389553137</v>
+        <v>0.8960078954696655</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G73" t="n">
         <v>0.5714285714285714</v>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.1209404147368773, 2.5982107671239807, 2.5205126162045515, 2.678786780417688, 2.8743946832103364, 2.608808792957946]</t>
+          <t>[1.9066146612167358, 2.1209404468536377, 2.5982108116149902, 2.520512342453003, 2.6787867546081543, 2.874394655227661, 2.608808994293213]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.1209404147368773, 2.5982107671239807, 2.5205126162045515, 2.678786780417688, 2.8743946832103364, 2.608808792957946]</t>
+          <t>[1.9066146612167358, 2.1209404468536377, 2.5982108116149902, 2.520512342453003, 2.6787867546081543, 2.874394655227661, 2.608808994293213]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>4</v>
       </c>
       <c r="V73" t="n">
-        <v>0.9435958266931663</v>
+        <v>0.9435957074165344</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G74" t="n">
         <v>0.5714285714285714</v>
@@ -7169,7 +7169,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 2.90029678333476, 3.5084594175811135, 3.8707407319544656, 3.5838060196714343, 4.140207121876274, 3.481227382560054]</t>
+          <t>[2.74865984916687, 2.900296926498413, 3.5084593296051025, 3.8707408905029297, 3.583806276321411, 4.140206813812256, 3.481227159500122]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7203,14 +7203,14 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 2.90029678333476, 3.5084594175811135, 3.8707407319544656, 4.140207121876274, 3.481227382560054, 3.5191093225153987]</t>
+          <t>[2.74865984916687, 2.900296926498413, 3.5084593296051025, 3.8707408905029297, 4.140206813812256, 3.481227159500122, 3.5191092491149902]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>0.959304509599244</v>
+        <v>0.9593045115470886</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -7219,7 +7219,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G75" t="n">
         <v>0.5714285714285714</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[2.0780007862012946, 2.42753343342506, 2.4465273814667765, 3.202727394662366, 2.7308429586355283, 3.251425404735552, 4.526288077944848]</t>
+          <t>[2.078000783920288, 2.4275333881378174, 2.4465272426605225, 3.2027273178100586, 2.7308428287506104, 3.2514257431030273, 4.5262885093688965]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7293,14 +7293,14 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[4.526288077944848, 3.829262481018032, 4.092069468766758, 3.908068919385294, 5.455953797213714, 5.11588661856244, 5.601809583008806]</t>
+          <t>[4.5262885093688965, 3.8292627334594727, 4.092069149017334, 3.908069133758545, 5.455954074859619, 5.115886688232422, 5.601809978485107]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>0.7749537575270389</v>
+        <v>0.7749537229537964</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7309,7 +7309,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7332,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G76" t="n">
         <v>0.5714285714285714</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[2.2870513133156822, 3.1159537581020493, 2.856168748218591, 2.806350562734419, 2.53602791589201, 2.9125909227489215, 3.323772525509346]</t>
+          <t>[2.287051200866699, 3.1159534454345703, 2.856168746948242, 2.8063504695892334, 2.5360279083251953, 2.912590980529785, 3.323772430419922]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7383,14 +7383,14 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[2.2870513133156822, 3.1159537581020493, 2.856168748218591, 2.806350562734419, 2.53602791589201, 2.9125909227489215, 3.323772525509346]</t>
+          <t>[2.287051200866699, 3.1159534454345703, 2.856168746948242, 2.8063504695892334, 2.5360279083251953, 2.912590980529785, 3.323772430419922]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>4</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9712250195934478</v>
+        <v>0.9712249636650085</v>
       </c>
       <c r="W76" t="n">
         <v>1</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G77" t="n">
         <v>0.5714285714285714</v>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 2.791842143039259, 2.6171413855656924, 2.788251025152097, 2.975157319679292, 3.185168753020744, 3.2341919146583553]</t>
+          <t>[2.920504570007324, 2.791842222213745, 2.6171412467956543, 2.7882509231567383, 2.9751570224761963, 3.185168504714966, 3.23419189453125]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7477,14 +7477,14 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[2.9205044071672184, 2.791842143039259, 2.6171413855656924, 2.788251025152097, 2.975157319679292, 3.185168753020744, 3.2341919146583553]</t>
+          <t>[2.920504570007324, 2.791842222213745, 2.6171412467956543, 2.7882509231567383, 2.9751570224761963, 3.185168504714966, 3.23419189453125]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>0.9216871541154733</v>
+        <v>0.921687126159668</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -7493,7 +7493,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G78" t="n">
         <v>0.5714285714285714</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[3.3330360334793236, 3.462326700618113, 3.5154341960130173, 4.167624062456981, 3.610581075327495, 4.26905935953283, 3.7868012827004875]</t>
+          <t>[3.333036184310913, 3.462326765060425, 3.5154342651367188, 4.167623996734619, 3.610581159591675, 4.269059658050537, 3.786801338195801]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7567,14 +7567,14 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[3.3330360334793236, 3.462326700618113, 3.5154341960130173, 4.167624062456981, 3.610581075327495, 4.26905935953283, 3.7868012827004875]</t>
+          <t>[3.333036184310913, 3.462326765060425, 3.5154342651367188, 4.167623996734619, 3.610581159591675, 4.269059658050537, 3.786801338195801]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>4</v>
       </c>
       <c r="V78" t="n">
-        <v>1.061033339613686</v>
+        <v>1.061033368110657</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.715946</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G79" t="n">
         <v>0.5714285714285714</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.2578315593888023, 3.4984824462414847, 3.367487775144783, 3.6505118501183618, 4.010083022343331, 3.6641565139146226]</t>
+          <t>[2.88997220993042, 3.257831573486328, 3.4984824657440186, 3.367487668991089, 3.6505117416381836, 4.010083198547363, 3.664156675338745]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7657,14 +7657,14 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[2.889972265254008, 3.2578315593888023, 3.4984824462414847, 3.367487775144783, 3.6505118501183618, 4.010083022343331, 3.6641565139146226]</t>
+          <t>[2.88997220993042, 3.257831573486328, 3.4984824657440186, 3.367487668991089, 3.6505117416381836, 4.010083198547363, 3.664156675338745]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9683814863986268</v>
+        <v>0.9683815240859985</v>
       </c>
       <c r="W79" t="n">
         <v>2</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G80" t="n">
         <v>0.5714285714285714</v>
@@ -7717,7 +7717,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0.8631205685666311</v>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[10.352894775208599, 9.279989226545792, 9.885748469874752, 9.035167461804436, 13.595794861430612, 16.5590054214704, 13.834056742311]</t>
+          <t>[10.35289478302002, 9.279990196228027, 9.885748863220215, 9.035167694091797, 13.595794677734375, 16.559003829956055, 13.834054946899414]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7751,14 +7751,14 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>[9.035167461804436, 13.595794861430612, 13.227676134595512, 12.330834302804604, 11.492681053610623, 12.507253399128807, 12.60782698089261]</t>
+          <t>[9.035167694091797, 13.595794677734375, 13.227675437927246, 12.33083438873291, 11.492680549621582, 12.50725269317627, 12.607828140258789]</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>4</v>
       </c>
       <c r="V80" t="n">
-        <v>1.282612928521025</v>
+        <v>1.282613039016724</v>
       </c>
       <c r="W80" t="n">
         <v>0</v>
@@ -7767,7 +7767,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.351055</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G81" t="n">
         <v>0.5714285714285714</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 2.415524940043881, 2.7004280468397543, 2.491880290149008, 2.7086672201019857, 2.7961434714562166, 3.2419253207942345]</t>
+          <t>[1.8763794898986816, 2.41552472114563, 2.700427770614624, 2.491880178451538, 2.708667278289795, 2.7961437702178955, 3.24192476272583]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7841,14 +7841,14 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[1.8763791077025522, 2.415524940043881, 2.7004280468397543, 2.491880290149008, 3.0276800363791128, 2.7086672201019857, 3.2419253207942345]</t>
+          <t>[1.8763794898986816, 2.41552472114563, 2.700427770614624, 2.491880178451538, 3.0276803970336914, 2.708667278289795, 3.24192476272583]</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>4</v>
       </c>
       <c r="V81" t="n">
-        <v>0.9589142374138149</v>
+        <v>0.9589142203330994</v>
       </c>
       <c r="W81" t="n">
         <v>2</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7884,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G82" t="n">
         <v>0.5714285714285714</v>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 3.617624860968299, 3.214559223420193, 3.7680119181181544, 3.6894828274177156, 4.314549888358221, 3.588745889815516]</t>
+          <t>[2.74865984916687, 3.6176247596740723, 3.214559555053711, 3.768012285232544, 3.6894829273223877, 4.314549922943115, 3.588745594024658]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7935,14 +7935,14 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>[2.74865954234127, 3.617624860968299, 3.214559223420193, 3.6894828274177156, 4.314549888358221, 3.9568333478519424, 3.8995257200443763]</t>
+          <t>[2.74865984916687, 3.6176247596740723, 3.214559555053711, 3.6894829273223877, 4.314549922943115, 3.9568331241607666, 3.8995256423950195]</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>4</v>
       </c>
       <c r="V82" t="n">
-        <v>0.9765524164342377</v>
+        <v>0.9765525460243225</v>
       </c>
       <c r="W82" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G83" t="n">
         <v>0.5714285714285714</v>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[1.7454465203880052, 2.3829685485228724, 1.9998191670762588, 2.069133110384634, 2.324934172604318, 2.298265724911048, 2.536875466834034]</t>
+          <t>[1.7454464435577393, 2.3829686641693115, 1.9998191595077515, 2.0691328048706055, 2.324934482574463, 2.2982656955718994, 2.5368752479553223]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8025,14 +8025,14 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[2.324934172604318, 2.648351310793584, 2.798754170325639, 2.630072062262676, 2.9839393567540182, 3.2935049298999823, 2.9655393253360067]</t>
+          <t>[2.324934482574463, 2.6483511924743652, 2.7987544536590576, 2.6300721168518066, 2.9839391708374023, 3.2935049533843994, 2.9655392169952393]</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8157772077755425</v>
+        <v>0.8157771229743958</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
@@ -8041,7 +8041,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G84" t="n">
         <v>0.5714285714285714</v>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[4.0706848750932565, 4.371141379696012, 4.0569719312422645, 4.539308897238702, 4.280381979649011, 4.980393411077335, 4.949024826828054]</t>
+          <t>[4.070684909820557, 4.3711419105529785, 4.056972026824951, 4.539309024810791, 4.280381679534912, 4.980393409729004, 4.9490251541137695]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8115,14 +8115,14 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>[4.0706848750932565, 4.371141379696012, 4.0569719312422645, 4.539308897238702, 4.280381979649011, 4.980393411077335, 4.949024826828054]</t>
+          <t>[4.070684909820557, 4.3711419105529785, 4.056972026824951, 4.539309024810791, 4.280381679534912, 4.980393409729004, 4.9490251541137695]</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>4</v>
       </c>
       <c r="V84" t="n">
-        <v>1.090222089600855</v>
+        <v>1.090222120285034</v>
       </c>
       <c r="W84" t="n">
         <v>1</v>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G85" t="n">
         <v>0.5714285714285714</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.6885844009810738, 4.749802060161882, 6.375900373085561, 5.021322306435332, 4.865948770511858, 5.412069813772136]</t>
+          <t>[3.8333353996276855, 3.688584566116333, 4.749802112579346, 6.3759002685546875, 5.021322250366211, 4.865948677062988, 5.412069797515869]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8209,14 +8209,14 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[3.83333537729729, 3.6885844009810738, 4.749802060161882, 6.375900373085561, 5.021322306435332, 4.865948770511858, 5.412069813772136]</t>
+          <t>[3.8333353996276855, 3.688584566116333, 4.749802112579346, 6.3759002685546875, 5.021322250366211, 4.865948677062988, 5.412069797515869]</t>
         </is>
       </c>
       <c r="U85" t="n">
         <v>4</v>
       </c>
       <c r="V85" t="n">
-        <v>1.033254468602779</v>
+        <v>1.033254504203796</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
@@ -8225,7 +8225,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G86" t="n">
         <v>0.5714285714285714</v>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[3.225885473778741, 3.1762557693920335, 3.871425366245549, 3.3606670383073642, 3.7722493787738594, 3.749005383561491, 3.5239058616799395]</t>
+          <t>[3.2258851528167725, 3.176255941390991, 3.871425151824951, 3.3606669902801514, 3.772249221801758, 3.7490053176879883, 3.5239057540893555]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -8299,14 +8299,14 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>[3.225885473778741, 3.1762557693920335, 3.871425366245549, 3.3606670383073642, 3.749005383561491, 4.190896995678954, 4.693464240354737]</t>
+          <t>[3.2258851528167725, 3.176255941390991, 3.871425151824951, 3.3606669902801514, 3.7490053176879883, 4.190896987915039, 4.693464279174805]</t>
         </is>
       </c>
       <c r="U86" t="n">
         <v>4</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9478891126584824</v>
+        <v>0.9478890895843506</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G87" t="n">
         <v>0.5714285714285714</v>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.0624819192338673, 3.4288836807784775, 3.65343276780438, 3.6209661368232013, 3.841079487695473, 3.3439477770012203]</t>
+          <t>[2.1220343112945557, 3.0624818801879883, 3.4288840293884277, 3.653432846069336, 3.6209661960601807, 3.8410794734954834, 3.3439478874206543]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8389,14 +8389,14 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.0624819192338673, 3.65343276780438, 3.841079487695473, 3.6209661368232013, 4.223645005502128, 4.303092299508627]</t>
+          <t>[2.1220343112945557, 3.0624818801879883, 3.653432846069336, 3.8410794734954834, 3.6209661960601807, 4.223645210266113, 4.3030924797058105]</t>
         </is>
       </c>
       <c r="U87" t="n">
         <v>4</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9477652482416347</v>
+        <v>0.9477652311325073</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.716953</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G88" t="n">
         <v>0.5714285714285714</v>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[2.63793048574738, 2.7080412154284974, 3.055382927610812, 3.144673363001919, 3.211227554585352, 3.0154656706771883, 3.47836534022667]</t>
+          <t>[2.6379308700561523, 2.708040952682495, 3.0553829669952393, 3.1446735858917236, 3.2112276554107666, 3.015465497970581, 3.478365421295166]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8479,14 +8479,14 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[2.63793048574738, 2.7080412154284974, 3.055382927610812, 3.144673363001919, 3.211227554585352, 3.0154656706771883, 3.47836534022667]</t>
+          <t>[2.6379308700561523, 2.708040952682495, 3.0553829669952393, 3.1446735858917236, 3.2112276554107666, 3.015465497970581, 3.478365421295166]</t>
         </is>
       </c>
       <c r="U88" t="n">
         <v>4</v>
       </c>
       <c r="V88" t="n">
-        <v>0.9223571926789197</v>
+        <v>0.9223572015762329</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8495,7 +8495,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.717951</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G89" t="n">
         <v>0.5714285714285714</v>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[3.0461976757426013, 3.1118762088882757, 3.398753201626448, 3.4773982922781213, 3.7142996924694107, 4.3111699814593765, 4.19107375718157]</t>
+          <t>[3.0461976528167725, 3.1118760108947754, 3.3987531661987305, 3.477397918701172, 3.7142999172210693, 4.3111701011657715, 4.191073417663574]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8569,14 +8569,14 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[3.0461976757426013, 3.1118762088882757, 3.398753201626448, 3.4773982922781213, 3.7142996924694107, 4.3111699814593765, 4.19107375718157]</t>
+          <t>[3.0461976528167725, 3.1118760108947754, 3.3987531661987305, 3.477397918701172, 3.7142999172210693, 4.3111701011657715, 4.191073417663574]</t>
         </is>
       </c>
       <c r="U89" t="n">
         <v>4</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8307130119461216</v>
+        <v>0.8307129740715027</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -8585,7 +8585,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.717951</t>
+          <t>2025-10-17T02:09:58.352056</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G90" t="n">
         <v>0.5714285714285714</v>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[2.3039064670548552, 3.561668030566468, 3.2419253207942345, 3.6894828274177156, 3.816883767196018, 3.3300570950329336, 3.4366759523329073]</t>
+          <t>[2.3039064407348633, 3.5616679191589355, 3.24192476272583, 3.6894829273223877, 3.8168838024139404, 3.33005690574646, 3.436676025390625]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8659,14 +8659,14 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[3.6894828274177156, 3.2419253207942345, 3.3300570950329336, 3.837268719911371, 3.556450758884373, 4.304701892762385, 3.876381126179331]</t>
+          <t>[3.6894829273223877, 3.24192476272583, 3.33005690574646, 3.837268829345703, 3.556450605392456, 4.304701805114746, 3.8763811588287354]</t>
         </is>
       </c>
       <c r="U90" t="n">
         <v>4</v>
       </c>
       <c r="V90" t="n">
-        <v>0.9653751697363731</v>
+        <v>0.9653751850128174</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -8675,7 +8675,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.717951</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G91" t="n">
         <v>0.5714285714285714</v>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[2.4011948485270946, 2.4662781827586278, 2.489864013521455, 2.5282960996910315, 2.701330942017249, 2.938952080278281, 2.868205635343705]</t>
+          <t>[2.4011945724487305, 2.4662787914276123, 2.489863872528076, 2.5282962322235107, 2.7013309001922607, 2.9389522075653076, 2.8682057857513428]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8749,14 +8749,14 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[2.4011948485270946, 2.4662781827586278, 2.489864013521455, 2.5282960996910315, 2.701330942017249, 2.938952080278281, 3.194867052366358]</t>
+          <t>[2.4011945724487305, 2.4662787914276123, 2.489863872528076, 2.5282962322235107, 2.7013309001922607, 2.9389522075653076, 3.1948671340942383]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>4</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9835547483422743</v>
+        <v>0.9835547804832458</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.717951</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G92" t="n">
         <v>0.5714285714285714</v>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.2399087876048225, 2.6162436170715484, 2.6140567590334665, 2.34686428603201, 3.1762557693920335, 3.1562825075264787]</t>
+          <t>[2.1150593757629395, 2.2399086952209473, 2.616243839263916, 2.6140570640563965, 2.346864700317383, 3.176255941390991, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -8839,14 +8839,14 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[2.11505963938218, 2.2399087876048225, 2.34686428603201, 2.6162436170715484, 2.6140567590334665, 3.1762557693920335, 3.1562825075264787]</t>
+          <t>[2.1150593757629395, 2.2399086952209473, 2.346864700317383, 2.616243839263916, 2.6140570640563965, 3.176255941390991, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="U92" t="n">
         <v>4</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8280044130268452</v>
+        <v>0.8280044198036194</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8855,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.717951</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G93" t="n">
         <v>0.5714285714285714</v>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[4.3717533073014865, 4.551328003068311, 3.908517428628496, 4.400537589687239, 5.072414803206294, 4.717777587850117, 4.791256479801224]</t>
+          <t>[4.371753215789795, 4.551328182220459, 3.908517599105835, 4.400537967681885, 5.072414875030518, 4.717777729034424, 4.791256904602051]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -8929,14 +8929,14 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[4.3717533073014865, 4.551328003068311, 3.908517428628496, 4.400537589687239, 5.072414803206294, 4.717777587850117, 4.791256479801224]</t>
+          <t>[4.371753215789795, 4.551328182220459, 3.908517599105835, 4.400537967681885, 5.072414875030518, 4.717777729034424, 4.791256904602051]</t>
         </is>
       </c>
       <c r="U93" t="n">
         <v>4</v>
       </c>
       <c r="V93" t="n">
-        <v>1.016620377302378</v>
+        <v>1.016620397567749</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.717951</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8968,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G94" t="n">
         <v>0.5714285714285714</v>
@@ -8985,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[3.4286465763325458, 3.469683128075531, 3.4821195967408975, 4.845022800522006, 3.8247539668239523, 3.664970230413518, 4.664514303015287]</t>
+          <t>[3.4286468029022217, 3.4696831703186035, 3.482119560241699, 4.845022678375244, 3.824754238128662, 3.664970874786377, 4.664514064788818]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9019,14 +9019,14 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[3.4286465763325458, 3.469683128075531, 3.4821195967408975, 4.845022800522006, 3.8247539668239523, 3.664970230413518, 3.654120924734772]</t>
+          <t>[3.4286468029022217, 3.4696831703186035, 3.482119560241699, 4.845022678375244, 3.824754238128662, 3.664970874786377, 3.654120922088623]</t>
         </is>
       </c>
       <c r="U94" t="n">
         <v>4</v>
       </c>
       <c r="V94" t="n">
-        <v>1.041368913192447</v>
+        <v>1.041368961334229</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -9035,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.718949</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G95" t="n">
         <v>0.5714285714285714</v>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[3.8877355626995187, 4.803753400845289, 3.921548972909323, 4.314549888358221, 5.396847366262858, 5.031162143941981, 4.631079750964393]</t>
+          <t>[3.8877358436584473, 4.80375337600708, 3.921549081802368, 4.314549922943115, 5.396846771240234, 5.031162261962891, 4.63107967376709]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9109,14 +9109,14 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[3.8877355626995187, 4.803753400845289, 3.921548972909323, 4.314549888358221, 5.396847366262858, 5.031162143941981, 4.631079750964393]</t>
+          <t>[3.8877358436584473, 4.80375337600708, 3.921549081802368, 4.314549922943115, 5.396846771240234, 5.031162261962891, 4.63107967376709]</t>
         </is>
       </c>
       <c r="U95" t="n">
         <v>4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.008906616902768</v>
+        <v>1.008906602859497</v>
       </c>
       <c r="W95" t="n">
         <v>2</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.718949</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G96" t="n">
         <v>0.5714285714285714</v>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 4.817995118291822, 5.072414803206294, 4.924728906736444, 5.637545821627436, 6.239005850219928, 5.447000805753296]</t>
+          <t>[3.4999589920043945, 4.817995548248291, 5.072414875030518, 4.924728870391846, 5.637546062469482, 6.2390055656433105, 5.447000980377197]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9203,14 +9203,14 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 4.817995118291822, 5.072414803206294, 4.924728906736444, 5.637545821627436, 6.239005850219928, 5.447000805753296]</t>
+          <t>[3.4999589920043945, 4.817995548248291, 5.072414875030518, 4.924728870391846, 5.637546062469482, 6.2390055656433105, 5.447000980377197]</t>
         </is>
       </c>
       <c r="U96" t="n">
         <v>4</v>
       </c>
       <c r="V96" t="n">
-        <v>1.03998183086312</v>
+        <v>1.039981722831726</v>
       </c>
       <c r="W96" t="n">
         <v>1</v>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.718949</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G97" t="n">
         <v>0.5714285714285714</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[3.1118762088882757, 3.17226243147613, 3.214043163869644, 3.5790002847462494, 3.6162494363590643, 3.4277910428378067, 3.4504713100022006]</t>
+          <t>[3.1118760108947754, 3.17226243019104, 3.214043378829956, 3.579000234603882, 3.6162493228912354, 3.427790880203247, 3.4504716396331787]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -9297,14 +9297,14 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>[3.1118762088882757, 3.17226243147613, 3.214043163869644, 3.5790002847462494, 3.6162494363590643, 3.4277910428378067, 3.4504713100022006]</t>
+          <t>[3.1118760108947754, 3.17226243019104, 3.214043378829956, 3.579000234603882, 3.6162493228912354, 3.427790880203247, 3.4504716396331787]</t>
         </is>
       </c>
       <c r="U97" t="n">
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8891294010557412</v>
+        <v>0.8891294002532959</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.719949</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G98" t="n">
         <v>0.5714285714285714</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[1.6933330180828408, 1.8893887139972358, 1.8641501716262503, 1.8508768220230551, 2.1451685191227727, 2.158270050865402, 2.220420669831067]</t>
+          <t>[1.6933331489562988, 1.8893886804580688, 1.864150047302246, 1.8508765697479248, 2.1451683044433594, 2.1582698822021484, 2.2204208374023438]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9387,14 +9387,14 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>[1.8893887139972358, 2.3596155879150187, 2.5975406505908887, 2.62459668933437, 2.8657150206750184, 2.777440826020507, 2.7819569965801185]</t>
+          <t>[1.8893886804580688, 2.3596153259277344, 2.597540855407715, 2.62459659576416, 2.8657150268554688, 2.7774407863616943, 2.781956911087036]</t>
         </is>
       </c>
       <c r="U98" t="n">
         <v>4</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8250246572184985</v>
+        <v>0.8250245451927185</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.719949</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G99" t="n">
         <v>0.5714285714285714</v>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[2.036375392462135, 2.5651904610895238, 2.7167230186619094, 2.6229389847786533, 3.0812013387263106, 3.2145248367646295, 2.948164182576989]</t>
+          <t>[2.0363752841949463, 2.565190315246582, 2.7167229652404785, 2.622938632965088, 3.0812017917633057, 3.214524507522583, 2.948164224624634]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9477,14 +9477,14 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>[2.036375392462135, 2.5651904610895238, 2.7167230186619094, 2.6229389847786533, 3.0812013387263106, 3.2145248367646295, 2.948164182576989]</t>
+          <t>[2.0363752841949463, 2.565190315246582, 2.7167229652404785, 2.622938632965088, 3.0812017917633057, 3.214524507522583, 2.948164224624634]</t>
         </is>
       </c>
       <c r="U99" t="n">
         <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>0.9385263107954745</v>
+        <v>0.9385262131690979</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -9493,7 +9493,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.719949</t>
+          <t>2025-10-17T02:09:58.353056</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G100" t="n">
         <v>0.5714285714285714</v>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[1.8163297071618814, 1.9421502542334632, 2.131900411425432, 2.3930576328797897, 2.739864526304626, 2.583285145077623, 3.0286375897579676]</t>
+          <t>[1.816329836845398, 1.9421498775482178, 2.1319003105163574, 2.3930575847625732, 2.7398641109466553, 2.583285093307495, 3.028637647628784]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9567,14 +9567,14 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>[1.8163297071618814, 1.9421502542334632, 2.131900411425432, 2.3930576328797897, 2.739864526304626, 2.583285145077623, 3.0286375897579676]</t>
+          <t>[1.816329836845398, 1.9421498775482178, 2.1319003105163574, 2.3930575847625732, 2.7398641109466553, 2.583285093307495, 3.028637647628784]</t>
         </is>
       </c>
       <c r="U100" t="n">
         <v>4</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9090999746558901</v>
+        <v>0.9090999364852905</v>
       </c>
       <c r="W100" t="n">
         <v>1</v>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.719949</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -9610,7 +9610,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G101" t="n">
         <v>0.5714285714285714</v>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 1.7813073879053836, 2.0949856713953765, 2.111189838820872, 2.302834731169962, 2.419034003475125, 2.8977346864010944]</t>
+          <t>[2.0348715782165527, 1.781307578086853, 2.0949854850769043, 2.1111900806427, 2.3028347492218018, 2.419034004211426, 2.8977346420288086]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9661,14 +9661,14 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 1.7813073879053836, 2.0949856713953765, 2.111189838820872, 2.302834731169962, 2.419034003475125, 2.8977346864010944]</t>
+          <t>[2.0348715782165527, 1.781307578086853, 2.0949854850769043, 2.1111900806427, 2.3028347492218018, 2.419034004211426, 2.8977346420288086]</t>
         </is>
       </c>
       <c r="U101" t="n">
         <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>0.7727854768115778</v>
+        <v>0.7727855443954468</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -9677,7 +9677,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.720951</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G102" t="n">
         <v>0.5714285714285714</v>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[2.975157319679292, 3.207568467180873, 3.1457463813976885, 3.0770726866745868, 2.825923612487896, 3.367487775144783, 3.392304187746319]</t>
+          <t>[2.9751570224761963, 3.207568407058716, 3.1457464694976807, 3.0770726203918457, 2.8259236812591553, 3.367487668991089, 3.392303943634033]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9751,14 +9751,14 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>[2.975157319679292, 3.207568467180873, 3.1457463813976885, 3.0770726866745868, 2.825923612487896, 3.367487775144783, 3.392304187746319]</t>
+          <t>[2.9751570224761963, 3.207568407058716, 3.1457464694976807, 3.0770726203918457, 2.8259236812591553, 3.367487668991089, 3.392303943634033]</t>
         </is>
       </c>
       <c r="U102" t="n">
         <v>4</v>
       </c>
       <c r="V102" t="n">
-        <v>0.9626835799104463</v>
+        <v>0.9626836180686951</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -9767,7 +9767,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.720951</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9790,7 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G103" t="n">
         <v>0.5714285714285714</v>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 2.1237018960754175, 2.2912762141796343, 2.033260559426506, 2.6221364391449695, 2.2772457486263464, 2.2470378991447713]</t>
+          <t>[1.8009406328201294, 2.123701572418213, 2.291275978088379, 2.0332605838775635, 2.622136354446411, 2.27724552154541, 2.247037887573242]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -9841,14 +9841,14 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 2.1237018960754175, 2.2912762141796343, 2.033260559426506, 2.6221364391449695, 2.2772457486263464, 2.2470378991447713]</t>
+          <t>[1.8009406328201294, 2.123701572418213, 2.291275978088379, 2.0332605838775635, 2.622136354446411, 2.27724552154541, 2.247037887573242]</t>
         </is>
       </c>
       <c r="U103" t="n">
         <v>4</v>
       </c>
       <c r="V103" t="n">
-        <v>0.9420149492511896</v>
+        <v>0.9420149326324463</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.720951</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G104" t="n">
         <v>0.5714285714285714</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[4.056423795516002, 5.233694277111122, 4.5449380006444, 5.271964299796446, 4.631298983640157, 5.444602094529317, 5.623388562811189]</t>
+          <t>[4.056423664093018, 5.233694553375244, 4.544938087463379, 5.271964073181152, 4.631299018859863, 5.444601535797119, 5.623388767242432]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -9931,14 +9931,14 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>[4.056423795516002, 5.233694277111122, 4.5449380006444, 5.271964299796446, 4.631298983640157, 5.444602094529317, 5.623388562811189]</t>
+          <t>[4.056423664093018, 5.233694553375244, 4.544938087463379, 5.271964073181152, 4.631299018859863, 5.444601535797119, 5.623388767242432]</t>
         </is>
       </c>
       <c r="U104" t="n">
         <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>1.060816846458897</v>
+        <v>1.060816884040833</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9947,7 +9947,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.720951</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G105" t="n">
         <v>0.5714285714285714</v>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.5399127719420465, 3.5119890338276916, 3.745381629486875, 3.9281958459210777, 3.7990226342793085, 3.9793896949815237]</t>
+          <t>[2.5598838329315186, 3.5399129390716553, 3.511988878250122, 3.7453813552856445, 3.9281957149505615, 3.7990224361419678, 3.9793899059295654]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10021,14 +10021,14 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>[2.5598837551996945, 3.5399127719420465, 3.5119890338276916, 3.745381629486875, 3.9281958459210777, 3.7990226342793085, 3.9793896949815237]</t>
+          <t>[2.5598838329315186, 3.5399129390716553, 3.511988878250122, 3.7453813552856445, 3.9281957149505615, 3.7990224361419678, 3.9793899059295654]</t>
         </is>
       </c>
       <c r="U105" t="n">
         <v>4</v>
       </c>
       <c r="V105" t="n">
-        <v>1.039855726139445</v>
+        <v>1.039855599403381</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
@@ -10037,7 +10037,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.721950</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G106" t="n">
         <v>0.5714285714285714</v>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[2.45154123748135, 2.6176432862342134, 3.05009238450375, 2.8602280261288016, 3.2485326168167097, 3.2341919146583553, 3.074431775882909]</t>
+          <t>[2.451540946960449, 2.617643117904663, 3.0500919818878174, 2.8602283000946045, 3.24853253364563, 3.23419189453125, 3.074431896209717]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10111,14 +10111,14 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[2.45154123748135, 2.6176432862342134, 3.05009238450375, 2.8602280261288016, 3.2485326168167097, 3.2341919146583553, 3.074431775882909]</t>
+          <t>[2.451540946960449, 2.617643117904663, 3.0500919818878174, 2.8602283000946045, 3.24853253364563, 3.23419189453125, 3.074431896209717]</t>
         </is>
       </c>
       <c r="U106" t="n">
         <v>4</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8984999064099058</v>
+        <v>0.8985000252723694</v>
       </c>
       <c r="W106" t="n">
         <v>1</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.721950</t>
+          <t>2025-10-17T02:09:58.354055</t>
         </is>
       </c>
     </row>
@@ -10154,7 +10154,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G107" t="n">
         <v>0.5714285714285714</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 1.9459336432158363, 2.1957213843581145, 2.34686428603201, 2.0307905739305205, 2.3988046700318457, 2.760044928412959]</t>
+          <t>[1.892975091934204, 1.9459336996078491, 2.1957216262817383, 2.346864700317383, 2.0307908058166504, 2.3988049030303955, 2.760044813156128]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10205,14 +10205,14 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[1.8929746849762596, 1.9459336432158363, 2.1957213843581145, 2.0307905739305205, 2.34686428603201, 2.3988046700318457, 2.760044928412959]</t>
+          <t>[1.892975091934204, 1.9459336996078491, 2.1957216262817383, 2.0307908058166504, 2.346864700317383, 2.3988049030303955, 2.760044813156128]</t>
         </is>
       </c>
       <c r="U107" t="n">
         <v>4</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8138798455909828</v>
+        <v>0.8138799071311951</v>
       </c>
       <c r="W107" t="n">
         <v>1</v>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.721950</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G108" t="n">
         <v>0.5714285714285714</v>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 2.8674885573782056, 3.7295344474234504, 3.6885844009810738, 3.398753201626448, 3.631736842028982, 4.262615134053559]</t>
+          <t>[2.450679063796997, 2.867488384246826, 3.729534387588501, 3.688584566116333, 3.3987531661987305, 3.631736993789673, 4.262615203857422]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10299,14 +10299,14 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>[2.4506793362366674, 2.8674885573782056, 3.7295344474234504, 3.6885844009810738, 3.398753201626448, 3.631736842028982, 4.262615134053559]</t>
+          <t>[2.450679063796997, 2.867488384246826, 3.729534387588501, 3.688584566116333, 3.3987531661987305, 3.631736993789673, 4.262615203857422]</t>
         </is>
       </c>
       <c r="U108" t="n">
         <v>4</v>
       </c>
       <c r="V108" t="n">
-        <v>0.7853027135569371</v>
+        <v>0.7853028178215027</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -10315,7 +10315,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.721950</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G109" t="n">
         <v>0.5714285714285714</v>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 2.163869306811381, 2.2870513133156822, 2.511294561293404, 2.3930576328797897, 3.0025325607537208, 2.641351687610943]</t>
+          <t>[2.1767048835754395, 2.163869619369507, 2.287051200866699, 2.5112946033477783, 2.3930575847625732, 3.002532482147217, 2.6413516998291016]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10389,14 +10389,14 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[2.176704962447375, 2.163869306811381, 2.2870513133156822, 2.511294561293404, 2.3930576328797897, 3.0025325607537208, 2.641351687610943]</t>
+          <t>[2.1767048835754395, 2.163869619369507, 2.287051200866699, 2.5112946033477783, 2.3930575847625732, 3.002532482147217, 2.6413516998291016]</t>
         </is>
       </c>
       <c r="U109" t="n">
         <v>4</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9032120762778185</v>
+        <v>0.9032120704650879</v>
       </c>
       <c r="W109" t="n">
         <v>1</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.721950</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G110" t="n">
         <v>0.5714285714285714</v>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.6406611436403225, 3.081728081041649, 2.739864526304626, 4.027479901551564, 3.392304187746319, 3.4532536779282283]</t>
+          <t>[2.6275532245635986, 2.6406612396240234, 3.0817277431488037, 2.7398641109466553, 4.027479648590088, 3.392303943634033, 3.4532535076141357]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10483,14 +10483,14 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.6406611436403225, 3.081728081041649, 2.739864526304626, 4.027479901551564, 3.392304187746319, 3.4532536779282283]</t>
+          <t>[2.6275532245635986, 2.6406612396240234, 3.0817277431488037, 2.7398641109466553, 4.027479648590088, 3.392303943634033, 3.4532535076141357]</t>
         </is>
       </c>
       <c r="U110" t="n">
         <v>4</v>
       </c>
       <c r="V110" t="n">
-        <v>0.9355716701782978</v>
+        <v>0.935571551322937</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
@@ -10499,7 +10499,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.721950</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G111" t="n">
         <v>0.5714285714285714</v>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 3.311073028732481, 3.6680443707894725, 3.5531869071252546, 3.209506714198147, 3.711389285605079, 3.7140112305565762]</t>
+          <t>[2.346198081970215, 3.311072826385498, 3.668044328689575, 3.5531866550445557, 3.2095067501068115, 3.7113890647888184, 3.7140114307403564]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10573,14 +10573,14 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 3.311073028732481, 3.6680443707894725, 3.5531869071252546, 3.209506714198147, 3.711389285605079, 3.7140112305565762]</t>
+          <t>[2.346198081970215, 3.311072826385498, 3.668044328689575, 3.5531866550445557, 3.2095067501068115, 3.7113890647888184, 3.7140114307403564]</t>
         </is>
       </c>
       <c r="U111" t="n">
         <v>4</v>
       </c>
       <c r="V111" t="n">
-        <v>1.005035181634206</v>
+        <v>1.005035161972046</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.722948</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G112" t="n">
         <v>0.5714285714285714</v>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>[1.9459336432158363, 2.111189838820872, 1.9713535589875961, 2.415524940043881, 2.4098320176756123, 2.4844206772935213, 2.778759609160809]</t>
+          <t>[1.9459336996078491, 2.1111900806427, 1.9713536500930786, 2.41552472114563, 2.409832000732422, 2.4844205379486084, 2.778759717941284]</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10663,14 +10663,14 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>[1.9459336432158363, 1.9713535589875961, 2.111189838820872, 2.4098320176756123, 2.415524940043881, 2.4844206772935213, 2.778759609160809]</t>
+          <t>[1.9459336996078491, 1.9713536500930786, 2.1111900806427, 2.409832000732422, 2.41552472114563, 2.4844205379486084, 2.778759717941284]</t>
         </is>
       </c>
       <c r="U112" t="n">
         <v>4</v>
       </c>
       <c r="V112" t="n">
-        <v>0.845258962994342</v>
+        <v>0.8452588319778442</v>
       </c>
       <c r="W112" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.722948</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10702,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G113" t="n">
         <v>0.5714285714285714</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[2.16373611104834, 2.456120885016748, 2.2704152427110444, 2.6390205932126607, 2.850076702030704, 2.7494922600790024, 2.655972193018424]</t>
+          <t>[2.16373610496521, 2.456120729446411, 2.2704153060913086, 2.6390206813812256, 2.850076675415039, 2.7494924068450928, 2.6559722423553467]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -10753,14 +10753,14 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>[2.16373611104834, 2.456120885016748, 2.2704152427110444, 2.655972193018424, 2.6390205932126607, 2.777440826020507, 2.7494922600790024]</t>
+          <t>[2.16373610496521, 2.456120729446411, 2.2704153060913086, 2.6559722423553467, 2.6390206813812256, 2.7774407863616943, 2.7494924068450928]</t>
         </is>
       </c>
       <c r="U113" t="n">
         <v>4</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9831892584545575</v>
+        <v>0.9831893444061279</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
@@ -10769,7 +10769,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.722948</t>
+          <t>2025-10-17T02:09:58.355054</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G114" t="n">
         <v>0.5714285714285714</v>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 2.1691611570487335, 2.693250670322787, 2.829638037136089, 2.648480526787959, 2.788251025152097, 2.5982107671239807]</t>
+          <t>[1.892378330230713, 2.169160842895508, 2.6932506561279297, 2.8296382427215576, 2.6484808921813965, 2.7882509231567383, 2.5982108116149902]</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -10843,14 +10843,14 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>[1.8923783874694138, 2.1691611570487335, 2.693250670322787, 2.829638037136089, 2.648480526787959, 2.788251025152097, 2.5982107671239807]</t>
+          <t>[1.892378330230713, 2.169160842895508, 2.6932506561279297, 2.8296382427215576, 2.6484808921813965, 2.7882509231567383, 2.5982108116149902]</t>
         </is>
       </c>
       <c r="U114" t="n">
         <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8771917044887615</v>
+        <v>0.8771917223930359</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -10859,7 +10859,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.722948</t>
+          <t>2025-10-17T02:09:58.355813</t>
         </is>
       </c>
     </row>
@@ -10882,7 +10882,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G115" t="n">
         <v>0.5714285714285714</v>
@@ -10899,7 +10899,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 5.701618162168646, 8.495764283422462, 5.729641733932363, 5.9453073176398235, 5.832029041164872, 7.161574500110296]</t>
+          <t>[4.846018314361572, 5.701618194580078, 8.495762825012207, 5.729641914367676, 5.94530725479126, 5.832029342651367, 7.1615753173828125]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -10933,14 +10933,14 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>[4.846018330261868, 5.701618162168646, 8.495764283422462, 5.729641733932363, 5.9453073176398235, 5.832029041164872, 7.7389133522693605]</t>
+          <t>[4.846018314361572, 5.701618194580078, 8.495762825012207, 5.729641914367676, 5.94530725479126, 5.832029342651367, 7.738913536071777]</t>
         </is>
       </c>
       <c r="U115" t="n">
         <v>4</v>
       </c>
       <c r="V115" t="n">
-        <v>1.109358809664528</v>
+        <v>1.109358787536621</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
@@ -10949,7 +10949,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.722948</t>
+          <t>2025-10-17T02:09:58.355813</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G116" t="n">
         <v>0.5714285714285714</v>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>[2.1209404147368773, 2.4761678644475293, 2.7167230186619094, 3.0857608148351225, 2.6848936838409267, 2.7921856064899973, 2.941712416539839]</t>
+          <t>[2.1209404468536377, 2.476167678833008, 2.7167229652404785, 3.085761070251465, 2.6848936080932617, 2.7921857833862305, 2.9417126178741455]</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -11023,14 +11023,14 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>[2.1209404147368773, 2.4761678644475293, 2.7167230186619094, 2.7921856064899973, 2.6848936838409267, 2.9222879164684814, 2.941712416539839]</t>
+          <t>[2.1209404468536377, 2.476167678833008, 2.7167229652404785, 2.7921857833862305, 2.6848936080932617, 2.922287940979004, 2.9417126178741455]</t>
         </is>
       </c>
       <c r="U116" t="n">
         <v>4</v>
       </c>
       <c r="V116" t="n">
-        <v>1.001881980613354</v>
+        <v>1.001882076263428</v>
       </c>
       <c r="W116" t="n">
         <v>0</v>
@@ -11039,7 +11039,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.722948</t>
+          <t>2025-10-17T02:09:58.356371</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G117" t="n">
         <v>0.5714285714285714</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[3.214043163869644, 3.467959368578602, 3.5147438672630504, 4.144880708057545, 3.5947222916150525, 3.8132375015781017, 4.284815685561375]</t>
+          <t>[3.214043378829956, 3.4679596424102783, 3.514744281768799, 4.144880771636963, 3.594722270965576, 3.813237428665161, 4.284815788269043]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -11113,14 +11113,14 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>[3.214043163869644, 3.467959368578602, 3.5147438672630504, 4.144880708057545, 3.5947222916150525, 3.8132375015781017, 4.284815685561375]</t>
+          <t>[3.214043378829956, 3.4679596424102783, 3.514744281768799, 4.144880771636963, 3.594722270965576, 3.813237428665161, 4.284815788269043]</t>
         </is>
       </c>
       <c r="U117" t="n">
         <v>4</v>
       </c>
       <c r="V117" t="n">
-        <v>0.9889402671969006</v>
+        <v>0.9889402985572815</v>
       </c>
       <c r="W117" t="n">
         <v>0</v>
@@ -11129,7 +11129,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.723947</t>
+          <t>2025-10-17T02:09:58.356371</t>
         </is>
       </c>
     </row>
@@ -11152,7 +11152,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G118" t="n">
         <v>0.5714285714285714</v>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 4.7490582515585045, 4.749802060161882, 4.262615134053559, 4.822253668538271, 6.011244912382028, 5.095142176192084]</t>
+          <t>[4.597238540649414, 4.749058246612549, 4.749802112579346, 4.262615203857422, 4.822253704071045, 6.011245250701904, 5.095141887664795]</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -11203,14 +11203,14 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 4.7490582515585045, 4.749802060161882, 4.262615134053559, 4.822253668538271, 6.011244912382028, 5.095142176192084]</t>
+          <t>[4.597238540649414, 4.749058246612549, 4.749802112579346, 4.262615203857422, 4.822253704071045, 6.011245250701904, 5.095141887664795]</t>
         </is>
       </c>
       <c r="U118" t="n">
         <v>4</v>
       </c>
       <c r="V118" t="n">
-        <v>0.9353131425704025</v>
+        <v>0.9353132247924805</v>
       </c>
       <c r="W118" t="n">
         <v>1</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.723947</t>
+          <t>2025-10-17T02:09:58.356902</t>
         </is>
       </c>
     </row>
@@ -11246,7 +11246,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G119" t="n">
         <v>0.5714285714285714</v>
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 4.355672049078373, 4.640130992802321, 6.029143738706898, 5.122492560805985, 5.742318943857148, 5.442207236021047]</t>
+          <t>[4.911062240600586, 4.355671405792236, 4.640130519866943, 6.029144287109375, 5.122491836547852, 5.742319583892822, 5.442206859588623]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -11297,14 +11297,14 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>[4.911062758761296, 4.355672049078373, 4.640130992802321, 6.029143738706898, 5.122492560805985, 5.742318943857148, 5.442207236021047]</t>
+          <t>[4.911062240600586, 4.355671405792236, 4.640130519866943, 6.029144287109375, 5.122491836547852, 5.742319583892822, 5.442206859588623]</t>
         </is>
       </c>
       <c r="U119" t="n">
         <v>4</v>
       </c>
       <c r="V119" t="n">
-        <v>0.9604515071244812</v>
+        <v>0.960451602935791</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
@@ -11313,7 +11313,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.723947</t>
+          <t>2025-10-17T02:09:58.356902</t>
         </is>
       </c>
     </row>
@@ -11336,7 +11336,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G120" t="n">
         <v>0.5714285714285714</v>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>[3.687053531461962, 4.063030690939169, 3.5262188434262915, 3.6162494363590643, 5.2468920535753725, 4.197838043540694, 4.3111699814593765]</t>
+          <t>[3.687053680419922, 4.063031196594238, 3.526219367980957, 3.6162493228912354, 5.246891975402832, 4.197838306427002, 4.3111701011657715]</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -11387,14 +11387,14 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>[3.687053531461962, 4.063030690939169, 3.5262188434262915, 3.6162494363590643, 5.2468920535753725, 4.197838043540694, 4.3111699814593765]</t>
+          <t>[3.687053680419922, 4.063031196594238, 3.526219367980957, 3.6162493228912354, 5.246891975402832, 4.197838306427002, 4.3111701011657715]</t>
         </is>
       </c>
       <c r="U120" t="n">
         <v>4</v>
       </c>
       <c r="V120" t="n">
-        <v>0.929415747078514</v>
+        <v>0.9294157028198242</v>
       </c>
       <c r="W120" t="n">
         <v>1</v>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.723947</t>
+          <t>2025-10-17T02:09:58.356902</t>
         </is>
       </c>
     </row>
@@ -11430,7 +11430,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G121" t="n">
         <v>0.5714285714285714</v>
@@ -11447,7 +11447,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.2325105363430455, 2.9245073641800627, 3.322685180011672, 3.627325286605539, 3.2950393092369206, 3.872633883260145]</t>
+          <t>[2.1220343112945557, 3.232510566711426, 2.9245073795318604, 3.3226852416992188, 3.6273250579833984, 3.295039176940918, 3.872633934020996]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -11481,14 +11481,14 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>[2.122034371822165, 3.2935049298999823, 3.322685180011672, 3.627325286605539, 3.6515682515137264, 3.872633883260145, 3.325388571884732]</t>
+          <t>[2.1220343112945557, 3.2935049533843994, 3.3226852416992188, 3.6273250579833984, 3.6515679359436035, 3.872633934020996, 3.3253886699676514]</t>
         </is>
       </c>
       <c r="U121" t="n">
         <v>4</v>
       </c>
       <c r="V121" t="n">
-        <v>1.014014305045256</v>
+        <v>1.014014363288879</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
@@ -11497,7 +11497,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.723947</t>
+          <t>2025-10-17T02:09:58.356902</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G122" t="n">
         <v>0.5714285714285714</v>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>[2.075854731143017, 2.0929172058822116, 2.419034003475125, 2.364516517370684, 2.537948094634543, 2.478717934769409, 2.7004280468397543]</t>
+          <t>[2.075855016708374, 2.0929172039031982, 2.419034004211426, 2.364516258239746, 2.5379481315612793, 2.478717803955078, 2.700427770614624]</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -11571,14 +11571,14 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>[2.075854731143017, 2.0929172058822116, 2.419034003475125, 2.537948094634543, 2.7004280468397543, 2.859086543870069, 2.8502327628929693]</t>
+          <t>[2.075855016708374, 2.0929172039031982, 2.419034004211426, 2.5379481315612793, 2.700427770614624, 2.859086513519287, 2.8502326011657715]</t>
         </is>
       </c>
       <c r="U122" t="n">
         <v>4</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8836502588938313</v>
+        <v>0.8836501240730286</v>
       </c>
       <c r="W122" t="n">
         <v>0</v>
@@ -11587,7 +11587,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.723947</t>
+          <t>2025-10-17T02:09:58.356902</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G123" t="n">
         <v>0.5714285714285714</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.9069388625424826, 2.992789259328362, 3.4286465763325458, 3.8877355626995187, 3.260327041202471, 3.251023802974645]</t>
+          <t>[2.9948232173919678, 3.906938314437866, 2.9927892684936523, 3.4286468029022217, 3.8877358436584473, 3.2603275775909424, 3.2510242462158203]</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -11661,14 +11661,14 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>[2.9948229666195876, 3.9069388625424826, 2.992789259328362, 3.4286465763325458, 3.8877355626995187, 3.260327041202471, 3.251023802974645]</t>
+          <t>[2.9948232173919678, 3.906938314437866, 2.9927892684936523, 3.4286468029022217, 3.8877358436584473, 3.2603275775909424, 3.2510242462158203]</t>
         </is>
       </c>
       <c r="U123" t="n">
         <v>4</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8843436806247057</v>
+        <v>0.8843437433242798</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.360157</t>
         </is>
       </c>
     </row>
@@ -11700,7 +11700,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G124" t="n">
         <v>0.5714285714285714</v>
@@ -11717,7 +11717,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>[3.1736584535809893, 3.6919219437828263, 3.37580140868191, 3.9607619891366004, 3.955591128711311, 4.227651771241657, 3.3858418837263913]</t>
+          <t>[3.1736578941345215, 3.6919217109680176, 3.3758013248443604, 3.9607620239257812, 3.9555912017822266, 4.227651596069336, 3.3858418464660645]</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -11751,14 +11751,14 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>[3.1736584535809893, 3.6919219437828263, 3.9607619891366004, 4.227651771241657, 3.3858418837263913, 3.872633883260145, 3.614002212459662]</t>
+          <t>[3.1736578941345215, 3.6919217109680176, 3.9607620239257812, 4.227651596069336, 3.3858418464660645, 3.872633934020996, 3.614001512527466]</t>
         </is>
       </c>
       <c r="U124" t="n">
         <v>4</v>
       </c>
       <c r="V124" t="n">
-        <v>0.9728566036295487</v>
+        <v>0.9728567004203796</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
@@ -11767,7 +11767,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.360157</t>
         </is>
       </c>
     </row>
@@ -11790,7 +11790,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G125" t="n">
         <v>0.5714285714285714</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>[5.963501910020404, 5.8771022110874025, 8.07798415946937, 7.700426926349534, 7.035663664819318, 7.146114835384492, 6.375900373085561]</t>
+          <t>[5.963501453399658, 5.877102375030518, 8.077983856201172, 7.700427055358887, 7.035663604736328, 7.146114349365234, 6.3759002685546875]</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -11841,14 +11841,14 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>[5.963501910020404, 5.8771022110874025, 8.07798415946937, 7.700426926349534, 7.035663664819318, 7.146114835384492, 6.375900373085561]</t>
+          <t>[5.963501453399658, 5.877102375030518, 8.077983856201172, 7.700427055358887, 7.035663604736328, 7.146114349365234, 6.3759002685546875]</t>
         </is>
       </c>
       <c r="U125" t="n">
         <v>4</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9530957105775985</v>
+        <v>0.9530956745147705</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
@@ -11857,7 +11857,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.360157</t>
         </is>
       </c>
     </row>
@@ -11880,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G126" t="n">
         <v>0.5714285714285714</v>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>[2.2461017335302853, 2.881950442561504, 3.0276800363791128, 2.9375938436301525, 2.802431094549146, 3.248879090648913, 3.0840142513324027]</t>
+          <t>[2.2461016178131104, 2.881950616836548, 3.0276803970336914, 2.937593698501587, 2.802431106567383, 3.2488789558410645, 3.0840141773223877]</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -11931,14 +11931,14 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>[2.881950442561504, 3.0276800363791128, 3.0840142513324027, 3.194867052366358, 3.6515682515137264, 3.41287685035954, 3.837268719911371]</t>
+          <t>[2.881950616836548, 3.0276803970336914, 3.0840141773223877, 3.1948671340942383, 3.6515679359436035, 3.412876844406128, 3.837268829345703]</t>
         </is>
       </c>
       <c r="U126" t="n">
         <v>4</v>
       </c>
       <c r="V126" t="n">
-        <v>0.973652224218597</v>
+        <v>0.973652184009552</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
@@ -11947,7 +11947,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.360157</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G127" t="n">
         <v>0.5714285714285714</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.248768851566471, 2.4761678644475293, 2.648480526787959, 3.0624819192338673, 3.141560784968796, 3.33330983713227]</t>
+          <t>[1.9066146612167358, 2.2487688064575195, 2.476167678833008, 2.6484808921813965, 3.0624818801879883, 3.1415607929229736, 3.333310127258301]</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -12021,14 +12021,14 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>[1.9066147798612165, 2.248768851566471, 2.4761678644475293, 3.0624819192338673, 3.141560784968796, 2.648480526787959, 3.33330983713227]</t>
+          <t>[1.9066146612167358, 2.2487688064575195, 2.476167678833008, 3.0624818801879883, 3.1415607929229736, 2.6484808921813965, 3.333310127258301]</t>
         </is>
       </c>
       <c r="U127" t="n">
         <v>4</v>
       </c>
       <c r="V127" t="n">
-        <v>0.9063199151523211</v>
+        <v>0.9063200354576111</v>
       </c>
       <c r="W127" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.360157</t>
         </is>
       </c>
     </row>
@@ -12060,7 +12060,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G128" t="n">
         <v>0.5714285714285714</v>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>[2.2647031354672147, 2.6176432862342134, 2.5828325337736047, 2.9528352079350895, 3.0726841141785743, 3.3266559595532956, 3.2410848426085126]</t>
+          <t>[2.2647030353546143, 2.617643117904663, 2.5828325748443604, 2.9528355598449707, 3.0726840496063232, 3.326655626296997, 3.2410848140716553]</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -12111,14 +12111,14 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>[2.2647031354672147, 2.6176432862342134, 2.5828325337736047, 2.9528352079350895, 3.0726841141785743, 3.3266559595532956, 3.2410848426085126]</t>
+          <t>[2.2647030353546143, 2.617643117904663, 2.5828325748443604, 2.9528355598449707, 3.0726840496063232, 3.326655626296997, 3.2410848140716553]</t>
         </is>
       </c>
       <c r="U128" t="n">
         <v>4</v>
       </c>
       <c r="V128" t="n">
-        <v>0.9425685573598055</v>
+        <v>0.9425687193870544</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
@@ -12127,7 +12127,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12150,7 +12150,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G129" t="n">
         <v>0.5714285714285714</v>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 1.9421502542334632, 1.9486627840668806, 1.8080617436884052, 1.7933483341242031, 1.974941439828845, 2.185838434420039]</t>
+          <t>[1.8009406328201294, 1.9421498775482178, 1.9486628770828247, 1.8080617189407349, 1.7933483123779297, 1.974941372871399, 2.185838222503662]</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -12201,14 +12201,14 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>[1.800940592269496, 1.9421502542334632, 1.9486627840668806, 1.8080617436884052, 1.7933483341242031, 1.974941439828845, 2.185838434420039]</t>
+          <t>[1.8009406328201294, 1.9421498775482178, 1.9486628770828247, 1.8080617189407349, 1.7933483123779297, 1.974941372871399, 2.185838222503662]</t>
         </is>
       </c>
       <c r="U129" t="n">
         <v>4</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8491933546471288</v>
+        <v>0.8491933941841125</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
@@ -12217,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12240,7 +12240,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G130" t="n">
         <v>0.5714285714285714</v>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.7044602320074995, 2.5828325337736047, 2.831393561809339, 2.511294561293404, 2.5901691590287803, 3.3151618788091226]</t>
+          <t>[2.22337007522583, 2.704460382461548, 2.5828325748443604, 2.8313934803009033, 2.5112946033477783, 2.5901691913604736, 3.315161943435669]</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -12291,14 +12291,14 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>[2.223370161248983, 2.7044602320074995, 2.5828325337736047, 2.831393561809339, 2.511294561293404, 2.5901691590287803, 3.3151618788091226]</t>
+          <t>[2.22337007522583, 2.704460382461548, 2.5828325748443604, 2.8313934803009033, 2.5112946033477783, 2.5901691913604736, 3.315161943435669]</t>
         </is>
       </c>
       <c r="U130" t="n">
         <v>4</v>
       </c>
       <c r="V130" t="n">
-        <v>0.8956088716465981</v>
+        <v>0.8956087827682495</v>
       </c>
       <c r="W130" t="n">
         <v>0</v>
@@ -12307,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12330,7 +12330,7 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G131" t="n">
         <v>0.5714285714285714</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 2.8977346864010944, 3.16132080781727, 3.207568467180873, 3.204414507206446, 3.610103231774876, 3.3592959145348527]</t>
+          <t>[2.724548816680908, 2.8977346420288086, 3.161320924758911, 3.207568407058716, 3.2044146060943604, 3.610102891921997, 3.359295606613159]</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -12381,14 +12381,14 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 2.8977346864010944, 3.16132080781727, 3.207568467180873, 3.204414507206446, 3.610103231774876, 3.3592959145348527]</t>
+          <t>[2.724548816680908, 2.8977346420288086, 3.161320924758911, 3.207568407058716, 3.2044146060943604, 3.610102891921997, 3.359295606613159]</t>
         </is>
       </c>
       <c r="U131" t="n">
         <v>4</v>
       </c>
       <c r="V131" t="n">
-        <v>0.9431028211555751</v>
+        <v>0.9431028366088867</v>
       </c>
       <c r="W131" t="n">
         <v>0</v>
@@ -12397,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12420,7 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G132" t="n">
         <v>0.5714285714285714</v>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>[3.431582581458771, 4.803753400845289, 4.027479901551564, 4.276982545837988, 4.359033408394388, 4.924033666083297, 5.264995962698627]</t>
+          <t>[3.431582450866699, 4.80375337600708, 4.027479648590088, 4.276982307434082, 4.359033107757568, 4.924033164978027, 5.264995574951172]</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -12471,14 +12471,14 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>[3.431582581458771, 4.803753400845289, 4.027479901551564, 4.359033408394388, 4.276982545837988, 4.924033666083297, 5.264995962698627]</t>
+          <t>[3.431582450866699, 4.80375337600708, 4.027479648590088, 4.359033107757568, 4.276982307434082, 4.924033164978027, 5.264995574951172]</t>
         </is>
       </c>
       <c r="U132" t="n">
         <v>4</v>
       </c>
       <c r="V132" t="n">
-        <v>1.039621612633381</v>
+        <v>1.039621591567993</v>
       </c>
       <c r="W132" t="n">
         <v>1</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.724947</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12514,7 +12514,7 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G133" t="n">
         <v>0.5714285714285714</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 5.2186288926380024, 4.9921485908860115, 5.637545821627436, 6.512027771572142, 5.501764119669569, 6.0865307956003365]</t>
+          <t>[4.597238540649414, 5.218628883361816, 4.992148399353027, 5.637546062469482, 6.512027740478516, 5.501764297485352, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -12565,14 +12565,14 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>[4.597238614532386, 5.2186288926380024, 4.9921485908860115, 5.637545821627436, 6.512027771572142, 5.501764119669569, 6.0865307956003365]</t>
+          <t>[4.597238540649414, 5.218628883361816, 4.992148399353027, 5.637546062469482, 6.512027740478516, 5.501764297485352, 6.0865302085876465]</t>
         </is>
       </c>
       <c r="U133" t="n">
         <v>4</v>
       </c>
       <c r="V133" t="n">
-        <v>1.050357901816062</v>
+        <v>1.050357937812805</v>
       </c>
       <c r="W133" t="n">
         <v>0</v>
@@ -12581,7 +12581,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.725949</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12604,7 +12604,7 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G134" t="n">
         <v>0.5714285714285714</v>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>[2.8043221578060846, 2.8602280261288016, 3.055382927610812, 2.9528352079350895, 3.1204635122302253, 3.0770726866745868, 3.185168753020744]</t>
+          <t>[2.8043220043182373, 2.8602283000946045, 3.0553829669952393, 2.9528355598449707, 3.1204636096954346, 3.0770726203918457, 3.185168504714966]</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -12655,14 +12655,14 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>[2.8043221578060846, 2.8602280261288016, 3.055382927610812, 2.9528352079350895, 3.1204635122302253, 3.0770726866745868, 3.185168753020744]</t>
+          <t>[2.8043220043182373, 2.8602283000946045, 3.0553829669952393, 2.9528355598449707, 3.1204636096954346, 3.0770726203918457, 3.185168504714966]</t>
         </is>
       </c>
       <c r="U134" t="n">
         <v>4</v>
       </c>
       <c r="V134" t="n">
-        <v>0.9425685573598055</v>
+        <v>0.9425687193870544</v>
       </c>
       <c r="W134" t="n">
         <v>0</v>
@@ -12671,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.725949</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G135" t="n">
         <v>0.5714285714285714</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.9310291903366734, 2.2986018947502513, 2.412684299782368, 2.521614230662287, 2.5239659001150083, 3.1822995246302037]</t>
+          <t>[1.6076703071594238, 1.9310290813446045, 2.2986016273498535, 2.412684202194214, 2.5216143131256104, 2.523965835571289, 3.1822996139526367]</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -12745,14 +12745,14 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.9310291903366734, 2.412684299782368, 2.5239659001150083, 2.521614230662287, 2.7298887823733757, 3.7102153772319495]</t>
+          <t>[1.6076703071594238, 1.9310290813446045, 2.412684202194214, 2.523965835571289, 2.5216143131256104, 2.729888916015625, 3.7102155685424805]</t>
         </is>
       </c>
       <c r="U135" t="n">
         <v>4</v>
       </c>
       <c r="V135" t="n">
-        <v>0.919850439247877</v>
+        <v>0.9198504090309143</v>
       </c>
       <c r="W135" t="n">
         <v>0</v>
@@ -12761,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.725949</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12784,7 +12784,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G136" t="n">
         <v>0.5714285714285714</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>[4.817995118291822, 5.742318943857148, 4.872245620699661, 6.177269005040734, 4.742342295417687, 6.495593500783756, 5.201253104635441]</t>
+          <t>[4.817995548248291, 5.742319583892822, 4.872245788574219, 6.177268981933594, 4.742342472076416, 6.495593547821045, 5.201253414154053]</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -12835,14 +12835,14 @@
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>[4.817995118291822, 5.742318943857148, 4.872245620699661, 6.177269005040734, 4.742342295417687, 6.495593500783756, 5.201253104635441]</t>
+          <t>[4.817995548248291, 5.742319583892822, 4.872245788574219, 6.177268981933594, 4.742342472076416, 6.495593547821045, 5.201253414154053]</t>
         </is>
       </c>
       <c r="U136" t="n">
         <v>4</v>
       </c>
       <c r="V136" t="n">
-        <v>1.108962842787002</v>
+        <v>1.108962774276733</v>
       </c>
       <c r="W136" t="n">
         <v>3</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.725949</t>
+          <t>2025-10-17T02:09:58.361182</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12878,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G137" t="n">
         <v>0.5714285714285714</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>[1.828548470858394, 1.7858993453005365, 1.910042289811469, 2.1187842612958963, 2.2704152427110444, 2.2910375949335617, 2.4726563537298856]</t>
+          <t>[1.8285486698150635, 1.7858995199203491, 1.910042405128479, 2.118784189224243, 2.2704153060913086, 2.2910375595092773, 2.47265625]</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -12929,14 +12929,14 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>[1.7858993453005365, 1.828548470858394, 1.910042289811469, 2.1187842612958963, 2.2704152427110444, 2.4186038102904597, 2.3596155879150187]</t>
+          <t>[1.7858995199203491, 1.8285486698150635, 1.910042405128479, 2.118784189224243, 2.2704153060913086, 2.4186031818389893, 2.3596153259277344]</t>
         </is>
       </c>
       <c r="U137" t="n">
         <v>4</v>
       </c>
       <c r="V137" t="n">
-        <v>0.8785453624528426</v>
+        <v>0.878545343875885</v>
       </c>
       <c r="W137" t="n">
         <v>0</v>
@@ -12945,7 +12945,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.725949</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G138" t="n">
         <v>0.5714285714285714</v>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>[4.355672049078373, 4.829949611380288, 4.240592894529004, 3.705643929511386, 4.0318300127897775, 4.595175429854585, 4.76307526271921]</t>
+          <t>[4.355671405792236, 4.829949378967285, 4.2405924797058105, 3.705644130706787, 4.031829833984375, 4.595175743103027, 4.763075828552246]</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -13019,14 +13019,14 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>[4.355672049078373, 4.829949611380288, 4.240592894529004, 3.705643929511386, 4.0318300127897775, 4.595175429854585, 4.76307526271921]</t>
+          <t>[4.355671405792236, 4.829949378967285, 4.2405924797058105, 3.705644130706787, 4.031829833984375, 4.595175743103027, 4.763075828552246]</t>
         </is>
       </c>
       <c r="U138" t="n">
         <v>4</v>
       </c>
       <c r="V138" t="n">
-        <v>0.9361498527578108</v>
+        <v>0.9361498951911926</v>
       </c>
       <c r="W138" t="n">
         <v>0</v>
@@ -13035,7 +13035,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G139" t="n">
         <v>0.5714285714285714</v>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 4.046628961057276, 3.512515393209485, 3.9937842785865203, 4.872245620699661, 4.3782608704398305, 4.046635036444873]</t>
+          <t>[2.724548816680908, 4.046628952026367, 3.5125155448913574, 3.9937844276428223, 4.872245788574219, 4.378261089324951, 4.046635150909424]</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -13109,14 +13109,14 @@
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>[2.7245486687454363, 4.046628961057276, 3.512515393209485, 3.9937842785865203, 4.872245620699661, 4.3782608704398305, 4.046635036444873]</t>
+          <t>[2.724548816680908, 4.046628952026367, 3.5125155448913574, 3.9937844276428223, 4.872245788574219, 4.378261089324951, 4.046635150909424]</t>
         </is>
       </c>
       <c r="U139" t="n">
         <v>4</v>
       </c>
       <c r="V139" t="n">
-        <v>1.009569436190811</v>
+        <v>1.009569525718689</v>
       </c>
       <c r="W139" t="n">
         <v>0</v>
@@ -13125,7 +13125,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13148,7 +13148,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G140" t="n">
         <v>0.5714285714285714</v>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>[1.633431842009987, 2.044082455813837, 1.846257876701924, 2.1631128229650765, 2.218680616217326, 2.5944576900545924, 2.7921856064899973]</t>
+          <t>[1.6334316730499268, 2.0440824031829834, 1.8462578058242798, 2.1631126403808594, 2.2186803817749023, 2.5944576263427734, 2.7921857833862305]</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -13199,14 +13199,14 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>[1.633431842009987, 2.044082455813837, 1.846257876701924, 2.1631128229650765, 2.218680616217326, 2.5944576900545924, 2.7921856064899973]</t>
+          <t>[1.6334316730499268, 2.0440824031829834, 1.8462578058242798, 2.1631126403808594, 2.2186803817749023, 2.5944576263427734, 2.7921857833862305]</t>
         </is>
       </c>
       <c r="U140" t="n">
         <v>4</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8225494673089303</v>
+        <v>0.8225494027137756</v>
       </c>
       <c r="W140" t="n">
         <v>1</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G141" t="n">
         <v>0.5714285714285714</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 4.845022800522006, 4.329130290642565, 4.940451308546909, 4.719145531311351, 5.462943139572716, 5.745319777850801]</t>
+          <t>[5.760977745056152, 4.845022678375244, 4.329129695892334, 4.940451145172119, 4.71914529800415, 5.462942600250244, 5.745319843292236]</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -13293,14 +13293,14 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 4.845022800522006, 4.329130290642565, 4.940451308546909, 4.719145531311351, 5.462943139572716, 5.745319777850801]</t>
+          <t>[5.760977745056152, 4.845022678375244, 4.329129695892334, 4.940451145172119, 4.71914529800415, 5.462942600250244, 5.745319843292236]</t>
         </is>
       </c>
       <c r="U141" t="n">
         <v>4</v>
       </c>
       <c r="V141" t="n">
-        <v>1.085249302933645</v>
+        <v>1.085249304771423</v>
       </c>
       <c r="W141" t="n">
         <v>0</v>
@@ -13309,7 +13309,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13332,7 +13332,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G142" t="n">
         <v>0.5714285714285714</v>
@@ -13349,7 +13349,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>[2.840663375341693, 3.690391389595743, 3.4168082197346563, 3.841079487695473, 3.3315010612765414, 3.329941066745087, 3.206456113186343]</t>
+          <t>[2.840663433074951, 3.6903913021087646, 3.4168081283569336, 3.8410794734954834, 3.3315012454986572, 3.3299410343170166, 3.206456184387207]</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -13383,14 +13383,14 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>[3.841079487695473, 3.7102153772319495, 5.199067139342398, 3.7270072971539423, 4.053380025458161, 3.9956443299474653, 4.182245860316884]</t>
+          <t>[3.8410794734954834, 3.7102155685424805, 5.199067115783691, 3.7270073890686035, 4.053380012512207, 3.9956448078155518, 4.18224573135376]</t>
         </is>
       </c>
       <c r="U142" t="n">
         <v>4</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9870434774184689</v>
+        <v>0.9870434999465942</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
@@ -13399,7 +13399,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13422,7 +13422,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G143" t="n">
         <v>0.5714285714285714</v>
@@ -13439,7 +13439,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 5.952524568700919, 8.479500021432601, 8.46300497420318, 6.817715116020488, 7.83966167218804, 8.897569992257761]</t>
+          <t>[5.760977745056152, 5.952524662017822, 8.479499816894531, 8.463004112243652, 6.817714691162109, 7.839661121368408, 8.89756965637207]</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -13473,14 +13473,14 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>[5.7609780403862585, 5.952524568700919, 8.479500021432601, 6.817715116020488, 7.83966167218804, 8.897569992257761, 7.3983853382461]</t>
+          <t>[5.760977745056152, 5.952524662017822, 8.479499816894531, 6.817714691162109, 7.839661121368408, 8.89756965637207, 7.398385047912598]</t>
         </is>
       </c>
       <c r="U143" t="n">
         <v>4</v>
       </c>
       <c r="V143" t="n">
-        <v>1.237519889644405</v>
+        <v>1.23751974105835</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
@@ -13489,7 +13489,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13512,7 +13512,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G144" t="n">
         <v>0.5714285714285714</v>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>[1.8817331375636712, 2.228954275632573, 1.9302724277428103, 1.9098375081805583, 1.9725192696460834, 2.4070665745989945, 2.1687399363365314]</t>
+          <t>[1.8817329406738281, 2.2289540767669678, 1.9302723407745361, 1.9098376035690308, 1.9725189208984375, 2.407066583633423, 2.1687397956848145]</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -13563,14 +13563,14 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>[2.2811609901806733, 2.655972193018424, 2.8657150206750184, 2.6652310143695512, 2.928119899859947, 2.938935397714993, 3.41287685035954]</t>
+          <t>[2.281160831451416, 2.6559722423553467, 2.8657150268554688, 2.6652309894561768, 2.9281198978424072, 2.9389352798461914, 3.412876844406128]</t>
         </is>
       </c>
       <c r="U144" t="n">
         <v>4</v>
       </c>
       <c r="V144" t="n">
-        <v>0.7820571831902029</v>
+        <v>0.7820572257041931</v>
       </c>
       <c r="W144" t="n">
         <v>0</v>
@@ -13579,7 +13579,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G145" t="n">
         <v>0.5714285714285714</v>
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>[3.2897707920903008, 4.01752651888368, 5.478773838501507, 4.458620887346577, 4.440910395624921, 5.222866174783128, 4.548698166799649]</t>
+          <t>[3.2897708415985107, 4.017526626586914, 5.478774070739746, 4.458621025085449, 4.440910339355469, 5.222866058349609, 4.548698425292969]</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -13653,14 +13653,14 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>[3.2897707920903008, 4.01752651888368, 5.478773838501507, 4.458620887346577, 4.440910395624921, 5.222866174783128, 4.548698166799649]</t>
+          <t>[3.2897708415985107, 4.017526626586914, 5.478774070739746, 4.458621025085449, 4.440910339355469, 5.222866058349609, 4.548698425292969]</t>
         </is>
       </c>
       <c r="U145" t="n">
         <v>4</v>
       </c>
       <c r="V145" t="n">
-        <v>1.08976834120121</v>
+        <v>1.089768409729004</v>
       </c>
       <c r="W145" t="n">
         <v>0</v>
@@ -13669,7 +13669,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13692,7 +13692,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G146" t="n">
         <v>0.5714285714285714</v>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>[3.4186153034478592, 3.617624860968299, 3.5084594175811135, 3.6919219437828263, 3.516063299298525, 3.47024894080087, 4.360157601979225]</t>
+          <t>[3.4186151027679443, 3.6176247596740723, 3.5084593296051025, 3.6919217109680176, 3.5160634517669678, 3.4702489376068115, 4.360157489776611]</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -13743,14 +13743,14 @@
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>[3.4186153034478592, 3.617624860968299, 3.5084594175811135, 3.6919219437828263, 3.516063299298525, 3.47024894080087, 4.360157601979225]</t>
+          <t>[3.4186151027679443, 3.6176247596740723, 3.5084593296051025, 3.6919217109680176, 3.5160634517669678, 3.4702489376068115, 4.360157489776611]</t>
         </is>
       </c>
       <c r="U146" t="n">
         <v>4</v>
       </c>
       <c r="V146" t="n">
-        <v>0.9534789844705137</v>
+        <v>0.9534789323806763</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
@@ -13759,7 +13759,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.362179</t>
         </is>
       </c>
     </row>
@@ -13782,7 +13782,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G147" t="n">
         <v>0.5714285714285714</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>[7.2356272993768265, 7.0895256071410255, 7.700426926349534, 9.520485012671415, 9.953043787019434, 9.720782086612948, 8.742435665776714]</t>
+          <t>[7.235627174377441, 7.089526653289795, 7.700427055358887, 9.520484924316406, 9.953043937683105, 9.720782279968262, 8.742436408996582]</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -13833,14 +13833,14 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>[7.2356272993768265, 7.0895256071410255, 7.700426926349534, 9.520485012671415, 9.953043787019434, 9.720782086612948, 8.742435665776714]</t>
+          <t>[7.235627174377441, 7.089526653289795, 7.700427055358887, 9.520484924316406, 9.953043937683105, 9.720782279968262, 8.742436408996582]</t>
         </is>
       </c>
       <c r="U147" t="n">
         <v>4</v>
       </c>
       <c r="V147" t="n">
-        <v>0.9569106201527909</v>
+        <v>0.9569106101989746</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
@@ -13849,7 +13849,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.726948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -13872,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G148" t="n">
         <v>0.5714285714285714</v>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>[2.5651904610895238, 2.880482964398465, 3.0747294711528927, 2.8812597725304188, 3.5147438672630504, 3.3592167481724067, 3.3881812758196665]</t>
+          <t>[2.565190315246582, 2.8804829120635986, 3.0747292041778564, 2.8812596797943115, 3.514744281768799, 3.3592166900634766, 3.388181209564209]</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -13923,14 +13923,14 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>[2.5651904610895238, 2.880482964398465, 3.0747294711528927, 2.8812597725304188, 3.5147438672630504, 3.3592167481724067, 3.3881812758196665]</t>
+          <t>[2.565190315246582, 2.8804829120635986, 3.0747292041778564, 2.8812596797943115, 3.514744281768799, 3.3592166900634766, 3.388181209564209]</t>
         </is>
       </c>
       <c r="U148" t="n">
         <v>4</v>
       </c>
       <c r="V148" t="n">
-        <v>0.9605692933263986</v>
+        <v>0.9605692625045776</v>
       </c>
       <c r="W148" t="n">
         <v>3</v>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G149" t="n">
         <v>0.5714285714285714</v>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 2.156108113834737, 2.551895458869722, 2.7958012473154814, 2.8583253326806184, 2.930293146612869, 2.655466302860496]</t>
+          <t>[2.346198081970215, 2.1561083793640137, 2.5518956184387207, 2.7958014011383057, 2.858325481414795, 2.930293321609497, 2.655466318130493]</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -14017,14 +14017,14 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>[2.3461985439518567, 2.156108113834737, 2.551895458869722, 2.7958012473154814, 2.8583253326806184, 2.930293146612869, 2.655466302860496]</t>
+          <t>[2.346198081970215, 2.1561083793640137, 2.5518956184387207, 2.7958014011383057, 2.858325481414795, 2.930293321609497, 2.655466318130493]</t>
         </is>
       </c>
       <c r="U149" t="n">
         <v>4</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8942654223000234</v>
+        <v>0.8942654728889465</v>
       </c>
       <c r="W149" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14056,7 +14056,7 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G150" t="n">
         <v>0.5714285714285714</v>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>[5.233694277111122, 4.656518049344014, 4.760713655031792, 4.847490636520776, 5.8638807330688065, 6.813061980351193, 5.454411502754036]</t>
+          <t>[5.233694553375244, 4.65651798248291, 4.760714054107666, 4.8474907875061035, 5.863880634307861, 6.8130621910095215, 5.45441198348999]</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -14107,14 +14107,14 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>[5.233694277111122, 4.656518049344014, 4.760713655031792, 4.847490636520776, 5.8638807330688065, 6.813061980351193, 5.454411502754036]</t>
+          <t>[5.233694553375244, 4.65651798248291, 4.760714054107666, 4.8474907875061035, 5.863880634307861, 6.8130621910095215, 5.45441198348999]</t>
         </is>
       </c>
       <c r="U150" t="n">
         <v>4</v>
       </c>
       <c r="V150" t="n">
-        <v>1.063557556469483</v>
+        <v>1.063557624816895</v>
       </c>
       <c r="W150" t="n">
         <v>0</v>
@@ -14123,7 +14123,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14146,7 +14146,7 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G151" t="n">
         <v>0.5714285714285714</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.8699456462780393, 2.583285145077623, 2.4980746826733666, 3.073374779076887, 2.7222615172449642, 2.8335917770414025]</t>
+          <t>[1.6076703071594238, 1.8699456453323364, 2.583285093307495, 2.498074531555176, 3.0733749866485596, 2.722261428833008, 2.8335914611816406]</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>[1.6076702922304427, 1.8699456462780393, 2.583285145077623, 3.073374779076887, 2.4980746826733666, 2.7222615172449642, 2.828150568323183]</t>
+          <t>[1.6076703071594238, 1.8699456453323364, 2.583285093307495, 3.0733749866485596, 2.498074531555176, 2.722261428833008, 2.828150510787964]</t>
         </is>
       </c>
       <c r="U151" t="n">
         <v>4</v>
       </c>
       <c r="V151" t="n">
-        <v>0.9804392029974532</v>
+        <v>0.9804391860961914</v>
       </c>
       <c r="W151" t="n">
         <v>0</v>
@@ -14213,7 +14213,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14236,7 +14236,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G152" t="n">
         <v>0.5714285714285714</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>[3.13169603536538, 3.467959368578602, 3.7142996924694107, 4.018795038246461, 4.197838043540694, 3.8499871395797545, 4.197307937366091]</t>
+          <t>[3.1316962242126465, 3.4679596424102783, 3.7142999172210693, 4.018795013427734, 4.197838306427002, 3.849987268447876, 4.19730806350708]</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -14287,14 +14287,14 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>[3.13169603536538, 3.467959368578602, 3.7142996924694107, 4.018795038246461, 4.197838043540694, 3.8499871395797545, 4.197307937366091]</t>
+          <t>[3.1316962242126465, 3.4679596424102783, 3.7142999172210693, 4.018795013427734, 4.197838306427002, 3.849987268447876, 4.19730806350708]</t>
         </is>
       </c>
       <c r="U152" t="n">
         <v>4</v>
       </c>
       <c r="V152" t="n">
-        <v>0.9946846903816249</v>
+        <v>0.994684636592865</v>
       </c>
       <c r="W152" t="n">
         <v>0</v>
@@ -14303,7 +14303,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G153" t="n">
         <v>0.5714285714285714</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 3.4186153034478592, 4.031183150392049, 4.387338589717392, 3.9607619891366004, 3.8457737650661854, 3.7874939655617674]</t>
+          <t>[3.3570351600646973, 3.4186151027679443, 4.03118371963501, 4.387338161468506, 3.9607620239257812, 3.845773935317993, 3.787493944168091]</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -14377,14 +14377,14 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>[3.357035373690134, 3.4186153034478592, 4.031183150392049, 3.9607619891366004, 4.387338589717392, 3.8457737650661854, 3.7874939655617674]</t>
+          <t>[3.3570351600646973, 3.4186151027679443, 4.03118371963501, 3.9607620239257812, 4.387338161468506, 3.845773935317993, 3.787493944168091]</t>
         </is>
       </c>
       <c r="U153" t="n">
         <v>4</v>
       </c>
       <c r="V153" t="n">
-        <v>0.9773831389944262</v>
+        <v>0.9773830771446228</v>
       </c>
       <c r="W153" t="n">
         <v>0</v>
@@ -14393,7 +14393,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G154" t="n">
         <v>0.5714285714285714</v>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>[2.0517492806729503, 2.456120885016748, 2.4726563537298856, 2.6685079158792284, 2.469640841676819, 2.8085765540904246, 2.859086543870069]</t>
+          <t>[2.0517489910125732, 2.456120729446411, 2.47265625, 2.6685080528259277, 2.4696407318115234, 2.8085765838623047, 2.859086513519287]</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -14467,14 +14467,14 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>[2.0517492806729503, 2.456120885016748, 2.4726563537298856, 2.859086543870069, 2.9469076966923877, 2.820847629138028, 3.1146135913783457]</t>
+          <t>[2.0517489910125732, 2.456120729446411, 2.47265625, 2.859086513519287, 2.9469075202941895, 2.820847749710083, 3.1146137714385986]</t>
         </is>
       </c>
       <c r="U154" t="n">
         <v>4</v>
       </c>
       <c r="V154" t="n">
-        <v>0.9490095808464085</v>
+        <v>0.9490096569061279</v>
       </c>
       <c r="W154" t="n">
         <v>0</v>
@@ -14483,7 +14483,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14506,7 +14506,7 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G155" t="n">
         <v>0.5714285714285714</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>[3.9069388625424826, 5.952524568700919, 4.657368450840615, 5.965557702164408, 5.396847366262858, 5.124092565929298, 6.227796222179769]</t>
+          <t>[3.906938314437866, 5.952524662017822, 4.6573686599731445, 5.965558052062988, 5.396846771240234, 5.1240925788879395, 6.2277960777282715]</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -14557,14 +14557,14 @@
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>[3.9069388625424826, 5.952524568700919, 4.657368450840615, 5.965557702164408, 5.396847366262858, 5.124092565929298, 6.227796222179769]</t>
+          <t>[3.906938314437866, 5.952524662017822, 4.6573686599731445, 5.965558052062988, 5.396846771240234, 5.1240925788879395, 6.2277960777282715]</t>
         </is>
       </c>
       <c r="U155" t="n">
         <v>4</v>
       </c>
       <c r="V155" t="n">
-        <v>1.051369702299368</v>
+        <v>1.051369786262512</v>
       </c>
       <c r="W155" t="n">
         <v>0</v>
@@ -14573,7 +14573,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G156" t="n">
         <v>0.5714285714285714</v>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>[1.7493576782092717, 1.959227576079553, 1.974941439828845, 2.489864013521455, 2.2772457486263464, 2.324934172604318, 2.3695618485838037]</t>
+          <t>[1.7493575811386108, 1.9592275619506836, 1.974941372871399, 2.489863872528076, 2.27724552154541, 2.324934482574463, 2.3695621490478516]</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -14647,14 +14647,14 @@
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>[1.7493576782092717, 1.959227576079553, 1.974941439828845, 2.324934172604318, 2.489864013521455, 2.2772457486263464, 2.3695618485838037]</t>
+          <t>[1.7493575811386108, 1.9592275619506836, 1.974941372871399, 2.324934482574463, 2.489863872528076, 2.27724552154541, 2.3695621490478516]</t>
         </is>
       </c>
       <c r="U156" t="n">
         <v>4</v>
       </c>
       <c r="V156" t="n">
-        <v>0.9716342565678273</v>
+        <v>0.9716341495513916</v>
       </c>
       <c r="W156" t="n">
         <v>0</v>
@@ -14663,7 +14663,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.363179</t>
         </is>
       </c>
     </row>
@@ -14686,7 +14686,7 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G157" t="n">
         <v>0.5714285714285714</v>
@@ -14727,7 +14727,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 2.473052264397535, 2.4380065550884993, 3.16132080781727, 3.04757004269102, 3.066934512394545, 3.1476909050543522]</t>
+          <t>[2.0348715782165527, 2.4730520248413086, 2.438006639480591, 3.161320924758911, 3.047569751739502, 3.06693434715271, 3.147691011428833]</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -14737,14 +14737,14 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>[2.0348715183180546, 2.473052264397535, 2.4380065550884993, 3.16132080781727, 3.04757004269102, 3.066934512394545, 3.1476909050543522]</t>
+          <t>[2.0348715782165527, 2.4730520248413086, 2.438006639480591, 3.161320924758911, 3.047569751739502, 3.06693434715271, 3.147691011428833]</t>
         </is>
       </c>
       <c r="U157" t="n">
         <v>4</v>
       </c>
       <c r="V157" t="n">
-        <v>0.9362791694823388</v>
+        <v>0.9362792372703552</v>
       </c>
       <c r="W157" t="n">
         <v>1</v>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.727948</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -14780,7 +14780,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G158" t="n">
         <v>0.5714285714285714</v>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.5428647038411, 3.687053531461962, 4.0706848750932565, 4.018795038246461, 4.0653921231836545, 4.407372668924887]</t>
+          <t>[3.110032796859741, 3.5428647994995117, 3.687053680419922, 4.070684909820557, 4.018795013427734, 4.06539249420166, 4.407371997833252]</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -14831,14 +14831,14 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>[3.1100328351146356, 3.5428647038411, 3.687053531461962, 4.0706848750932565, 4.018795038246461, 4.0653921231836545, 4.407372668924887]</t>
+          <t>[3.110032796859741, 3.5428647994995117, 3.687053680419922, 4.070684909820557, 4.018795013427734, 4.06539249420166, 4.407371997833252]</t>
         </is>
       </c>
       <c r="U158" t="n">
         <v>4</v>
       </c>
       <c r="V158" t="n">
-        <v>0.9292443052581695</v>
+        <v>0.929244339466095</v>
       </c>
       <c r="W158" t="n">
         <v>0</v>
@@ -14847,7 +14847,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G159" t="n">
         <v>0.5714285714285714</v>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>[2.791842143039259, 2.8583253326806184, 3.4984824462414847, 3.3031439729484724, 3.489127045893417, 3.886372076452864, 3.6495754751220733]</t>
+          <t>[2.791842222213745, 2.858325481414795, 3.4984824657440186, 3.3031439781188965, 3.4891271591186523, 3.8863720893859863, 3.6495754718780518]</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -14921,14 +14921,14 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>[2.791842143039259, 2.8583253326806184, 3.4984824462414847, 3.3031439729484724, 3.489127045893417, 3.886372076452864, 3.6495754751220733]</t>
+          <t>[2.791842222213745, 2.858325481414795, 3.4984824657440186, 3.3031439781188965, 3.4891271591186523, 3.8863720893859863, 3.6495754718780518]</t>
         </is>
       </c>
       <c r="U159" t="n">
         <v>4</v>
       </c>
       <c r="V159" t="n">
-        <v>0.9943810567628202</v>
+        <v>0.9943810701370239</v>
       </c>
       <c r="W159" t="n">
         <v>0</v>
@@ -14937,7 +14937,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -14960,7 +14960,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G160" t="n">
         <v>0.5714285714285714</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 5.8771022110874025, 5.2186288926380024, 6.76648307157548, 5.965557702164408, 5.603435468615615, 7.003667525694934]</t>
+          <t>[3.4999589920043945, 5.877102375030518, 5.218628883361816, 6.766482830047607, 5.965558052062988, 5.603435516357422, 7.003667831420898]</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -15011,14 +15011,14 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>[3.4999590352438696, 5.8771022110874025, 5.2186288926380024, 6.76648307157548, 5.965557702164408, 5.603435468615615, 7.003667525694934]</t>
+          <t>[3.4999589920043945, 5.877102375030518, 5.218628883361816, 6.766482830047607, 5.965558052062988, 5.603435516357422, 7.003667831420898]</t>
         </is>
       </c>
       <c r="U160" t="n">
         <v>4</v>
       </c>
       <c r="V160" t="n">
-        <v>1.046213754387062</v>
+        <v>1.046213746070862</v>
       </c>
       <c r="W160" t="n">
         <v>1</v>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15054,7 +15054,7 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G161" t="n">
         <v>0.5714285714285714</v>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>[2.7726260453341616, 3.141560784968796, 3.514280685908663, 3.4700406142952325, 3.65343276780438, 3.590182636033232, 3.668346666469462]</t>
+          <t>[2.7726261615753174, 3.1415607929229736, 3.5142805576324463, 3.470040798187256, 3.653432846069336, 3.5901825428009033, 3.668346405029297]</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -15105,14 +15105,14 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>[2.7726260453341616, 3.141560784968796, 3.65343276780438, 3.514280685908663, 3.590182636033232, 3.668346666469462, 4.135369249853029]</t>
+          <t>[2.7726261615753174, 3.1415607929229736, 3.653432846069336, 3.5142805576324463, 3.5901825428009033, 3.668346405029297, 4.135369300842285]</t>
         </is>
       </c>
       <c r="U161" t="n">
         <v>4</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9332503706894962</v>
+        <v>0.9332504272460938</v>
       </c>
       <c r="W161" t="n">
         <v>0</v>
@@ -15121,7 +15121,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15144,7 +15144,7 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G162" t="n">
         <v>0.5714285714285714</v>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>[2.841708928462958, 3.0182317967175893, 3.260327041202471, 2.8517644573757157, 2.760044928412959, 3.469683128075531, 3.1562825075264787]</t>
+          <t>[2.8417088985443115, 3.0182318687438965, 3.2603275775909424, 2.851764678955078, 2.760044813156128, 3.4696831703186035, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -15195,14 +15195,14 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>[2.841708928462958, 3.0182317967175893, 3.260327041202471, 2.760044928412959, 2.8517644573757157, 3.469683128075531, 3.1562825075264787]</t>
+          <t>[2.8417088985443115, 3.0182318687438965, 3.2603275775909424, 2.760044813156128, 2.851764678955078, 3.4696831703186035, 3.1562821865081787]</t>
         </is>
       </c>
       <c r="U162" t="n">
         <v>4</v>
       </c>
       <c r="V162" t="n">
-        <v>0.9237946611368736</v>
+        <v>0.9237948060035706</v>
       </c>
       <c r="W162" t="n">
         <v>0</v>
@@ -15211,7 +15211,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15234,7 +15234,7 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G163" t="n">
         <v>0.5714285714285714</v>
@@ -15251,7 +15251,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>[4.526288077944848, 4.904311988203288, 5.066530744845299, 5.50539649493053, 5.541491180947259, 7.772940613323146, 6.259047997346832]</t>
+          <t>[4.5262885093688965, 4.9043121337890625, 5.066530704498291, 5.505396842956543, 5.5414910316467285, 7.772940635681152, 6.259047508239746]</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -15285,14 +15285,14 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>[4.526288077944848, 6.259047997346832, 6.595394514983138, 6.725600353005439, 5.979614164484645, 6.90403343816763, 6.515894405667479]</t>
+          <t>[4.5262885093688965, 6.259047508239746, 6.595394134521484, 6.725600242614746, 5.979613780975342, 6.904033184051514, 6.515894412994385]</t>
         </is>
       </c>
       <c r="U163" t="n">
         <v>4</v>
       </c>
       <c r="V163" t="n">
-        <v>1.197836732312962</v>
+        <v>1.197836875915527</v>
       </c>
       <c r="W163" t="n">
         <v>0</v>
@@ -15301,7 +15301,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15324,7 +15324,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G164" t="n">
         <v>0.5714285714285714</v>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>[3.190882849225537, 3.1721940124763592, 3.0726841141785743, 3.2097150741296745, 3.735061726277516, 3.7059737025726767, 3.6476585588548587]</t>
+          <t>[3.190882921218872, 3.172193765640259, 3.0726840496063232, 3.2097151279449463, 3.7350618839263916, 3.7059738636016846, 3.6476588249206543]</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -15375,14 +15375,14 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>[3.190882849225537, 3.1721940124763592, 3.0726841141785743, 3.2097150741296745, 3.735061726277516, 3.7059737025726767, 3.6476585588548587]</t>
+          <t>[3.190882921218872, 3.172193765640259, 3.0726840496063232, 3.2097151279449463, 3.7350618839263916, 3.7059738636016846, 3.6476588249206543]</t>
         </is>
       </c>
       <c r="U164" t="n">
         <v>4</v>
       </c>
       <c r="V164" t="n">
-        <v>0.9758476496866774</v>
+        <v>0.9758476614952087</v>
       </c>
       <c r="W164" t="n">
         <v>0</v>
@@ -15391,7 +15391,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.728947</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15414,7 +15414,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G165" t="n">
         <v>0.5714285714285714</v>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.831393561809339, 3.059501143684357, 3.451305239260681, 3.1547164486600305, 3.0025325607537208, 3.430947459742662]</t>
+          <t>[2.6275532245635986, 2.8313934803009033, 3.0595009326934814, 3.451305389404297, 3.1547162532806396, 3.002532482147217, 3.430947780609131]</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -15465,14 +15465,14 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>[2.6275535494139306, 2.831393561809339, 3.059501143684357, 3.451305239260681, 3.1547164486600305, 3.0025325607537208, 3.430947459742662]</t>
+          <t>[2.6275532245635986, 2.8313934803009033, 3.0595009326934814, 3.451305389404297, 3.1547162532806396, 3.002532482147217, 3.430947780609131]</t>
         </is>
       </c>
       <c r="U165" t="n">
         <v>4</v>
       </c>
       <c r="V165" t="n">
-        <v>0.9179252781415167</v>
+        <v>0.9179252982139587</v>
       </c>
       <c r="W165" t="n">
         <v>0</v>
@@ -15481,7 +15481,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15504,7 +15504,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G166" t="n">
         <v>0.5714285714285714</v>
@@ -15521,7 +15521,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>[5.701618162168646, 7.0895256071410255, 6.7148297929617735, 7.931451127191836, 5.58928580465266, 7.405628255225379, 6.220804701069444]</t>
+          <t>[5.701618194580078, 7.089526653289795, 6.714829921722412, 7.931450843811035, 5.589285850524902, 7.405628204345703, 6.220804691314697]</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -15555,14 +15555,14 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>[5.701618162168646, 7.0895256071410255, 6.7148297929617735, 7.931451127191836, 5.58928580465266, 7.405628255225379, 6.283158010827813]</t>
+          <t>[5.701618194580078, 7.089526653289795, 6.714829921722412, 7.931450843811035, 5.589285850524902, 7.405628204345703, 6.283157825469971]</t>
         </is>
       </c>
       <c r="U166" t="n">
         <v>4</v>
       </c>
       <c r="V166" t="n">
-        <v>1.008085025035496</v>
+        <v>1.008085012435913</v>
       </c>
       <c r="W166" t="n">
         <v>0</v>
@@ -15571,7 +15571,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.364179</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G167" t="n">
         <v>0.5714285714285714</v>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>[2.6406611436403225, 3.431582581458771, 3.059501143684357, 3.1204635122302253, 3.1457463813976885, 3.5119890338276916, 3.6505118501183618]</t>
+          <t>[2.6406612396240234, 3.431582450866699, 3.0595009326934814, 3.1204636096954346, 3.1457464694976807, 3.511988878250122, 3.6505117416381836]</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -15645,14 +15645,14 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>[2.6406611436403225, 3.431582581458771, 3.059501143684357, 3.1204635122302253, 3.1457463813976885, 3.5119890338276916, 3.6505118501183618]</t>
+          <t>[2.6406612396240234, 3.431582450866699, 3.0595009326934814, 3.1204636096954346, 3.1457464694976807, 3.511988878250122, 3.6505117416381836]</t>
         </is>
       </c>
       <c r="U167" t="n">
         <v>4</v>
       </c>
       <c r="V167" t="n">
-        <v>0.9564534158370381</v>
+        <v>0.9564534425735474</v>
       </c>
       <c r="W167" t="n">
         <v>1</v>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.365179</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G168" t="n">
         <v>0.5714285714285714</v>
@@ -15729,7 +15729,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>[2.3569203703761845, 2.63793048574738, 2.6162436170715484, 2.728515147156043, 3.311073028732481, 3.3810821216851688, 3.516063299298525]</t>
+          <t>[2.3569202423095703, 2.6379308700561523, 2.616243839263916, 2.728515386581421, 3.311072826385498, 3.38108229637146, 3.5160634517669678]</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -15739,14 +15739,14 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>[2.3569203703761845, 2.63793048574738, 2.6162436170715484, 2.728515147156043, 3.311073028732481, 3.3810821216851688, 3.516063299298525]</t>
+          <t>[2.3569202423095703, 2.6379308700561523, 2.616243839263916, 2.728515386581421, 3.311072826385498, 3.38108229637146, 3.5160634517669678]</t>
         </is>
       </c>
       <c r="U168" t="n">
         <v>4</v>
       </c>
       <c r="V168" t="n">
-        <v>0.9103351129397802</v>
+        <v>0.9103351235389709</v>
       </c>
       <c r="W168" t="n">
         <v>1</v>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.365179</t>
         </is>
       </c>
     </row>
@@ -15782,7 +15782,7 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G169" t="n">
         <v>0.5714285714285714</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>[2.6140567590334665, 2.9709963738177745, 2.835864764067928, 2.6221364391449695, 3.3606670383073642, 3.312179248723088, 3.4051772725356773]</t>
+          <t>[2.6140570640563965, 2.970996618270874, 2.835864782333374, 2.622136354446411, 3.3606669902801514, 3.3121793270111084, 3.405177593231201]</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -15833,14 +15833,14 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>[2.6140567590334665, 2.9709963738177745, 3.3606670383073642, 2.835864764067928, 2.6221364391449695, 3.312179248723088, 3.4051772725356773]</t>
+          <t>[2.6140570640563965, 2.970996618270874, 3.3606669902801514, 2.835864782333374, 2.622136354446411, 3.3121793270111084, 3.405177593231201]</t>
         </is>
       </c>
       <c r="U169" t="n">
         <v>4</v>
       </c>
       <c r="V169" t="n">
-        <v>0.9613555918369714</v>
+        <v>0.9613555073738098</v>
       </c>
       <c r="W169" t="n">
         <v>1</v>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.365179</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G170" t="n">
         <v>0.5714285714285714</v>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>[2.3988046700318457, 2.992789259328362, 2.90029678333476, 2.841708928462958, 2.619320189305224, 3.214559223420193, 3.1177991631370303]</t>
+          <t>[2.3988049030303955, 2.9927892684936523, 2.900296926498413, 2.8417088985443115, 2.6193203926086426, 3.214559555053711, 3.1177992820739746]</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -15927,14 +15927,14 @@
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>[2.3988046700318457, 2.992789259328362, 2.90029678333476, 2.841708928462958, 2.619320189305224, 3.214559223420193, 2.9378876000195544]</t>
+          <t>[2.3988049030303955, 2.9927892684936523, 2.900296926498413, 2.8417088985443115, 2.6193203926086426, 3.214559555053711, 2.937887668609619]</t>
         </is>
       </c>
       <c r="U170" t="n">
         <v>4</v>
       </c>
       <c r="V170" t="n">
-        <v>0.8839027240873228</v>
+        <v>0.8839027285575867</v>
       </c>
       <c r="W170" t="n">
         <v>1</v>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.365179</t>
         </is>
       </c>
     </row>
@@ -15970,7 +15970,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9528331728191507</v>
+        <v>0.9631937911053103</v>
       </c>
       <c r="G171" t="n">
         <v>0.5714285714285714</v>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.706172787816595, 3.389834022021634, 3.4529015532153244, 3.485902229819895, 3.3881812758196665, 3.5947222916150525]</t>
+          <t>[2.7656188011169434, 2.7061729431152344, 3.389833927154541, 3.452901601791382, 3.4859018325805664, 3.388181209564209, 3.594722270965576]</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -16021,14 +16021,14 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>[2.765618588919533, 2.706172787816595, 3.389834022021634, 3.4529015532153244, 3.485902229819895, 3.3881812758196665, 3.5947222916150525]</t>
+          <t>[2.7656188011169434, 2.7061729431152344, 3.389833927154541, 3.452901601791382, 3.4859018325805664, 3.388181209564209, 3.594722270965576]</t>
         </is>
       </c>
       <c r="U171" t="n">
         <v>4</v>
       </c>
       <c r="V171" t="n">
-        <v>0.9751910468190422</v>
+        <v>0.975191056728363</v>
       </c>
       <c r="W171" t="n">
         <v>1</v>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:14.729948</t>
+          <t>2025-10-17T02:09:58.365179</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.179436</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.179970</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.179970</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.179970</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.180482</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.180482</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.180482</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.180482</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.344060</t>
+          <t>2025-10-17T07:09:17.180482</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.180482</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.181497</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.182496</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.345056</t>
+          <t>2025-10-17T07:09:17.182496</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.182496</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.182496</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.182496</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.182496</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.183496</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.183496</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.183496</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.183496</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.183496</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.346056</t>
+          <t>2025-10-17T07:09:17.183496</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.184496</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.185496</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.185496</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.347056</t>
+          <t>2025-10-17T07:09:17.185496</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.185496</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.185496</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.185496</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.348055</t>
+          <t>2025-10-17T07:09:17.186496</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.187495</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.187495</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.187495</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.187495</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.187495</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.187495</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.188496</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.188496</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5845,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.188496</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.349056</t>
+          <t>2025-10-17T07:09:17.188496</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.188496</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.188496</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.189496</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.350055</t>
+          <t>2025-10-17T07:09:17.190496</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.190496</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.190496</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.190496</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.190496</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.190496</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.191495</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.191495</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.191495</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.191495</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.351055</t>
+          <t>2025-10-17T07:09:17.191495</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.191495</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.192496</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.352056</t>
+          <t>2025-10-17T07:09:17.193496</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.193496</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.193496</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.193496</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.193496</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.193496</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.353056</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.194496</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.196167</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.196167</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.354055</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10315,7 +10315,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10499,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355054</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355813</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10949,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.355813</t>
+          <t>2025-10-17T07:09:17.196892</t>
         </is>
       </c>
     </row>
@@ -11039,7 +11039,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356371</t>
+          <t>2025-10-17T07:09:17.199208</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356371</t>
+          <t>2025-10-17T07:09:17.199724</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356902</t>
+          <t>2025-10-17T07:09:17.199769</t>
         </is>
       </c>
     </row>
@@ -11313,7 +11313,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356902</t>
+          <t>2025-10-17T07:09:17.199769</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356902</t>
+          <t>2025-10-17T07:09:17.199769</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356902</t>
+          <t>2025-10-17T07:09:17.199769</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11587,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.356902</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11677,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.360157</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.360157</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.360157</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -11947,7 +11947,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.360157</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12037,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.360157</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12127,7 +12127,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.361182</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12945,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13125,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13309,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13489,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13579,7 +13579,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13669,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13759,7 +13759,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.362179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14213,7 +14213,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14483,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14663,7 +14663,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.363179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14847,7 +14847,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15121,7 +15121,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15571,7 +15571,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.364179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.365179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.365179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.365179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.365179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T02:09:58.365179</t>
+          <t>2025-10-17T07:09:17.200276</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="n">
         <v>0.8631205685666311</v>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.179436</t>
+          <t>2025-10-19T23:54:29.817606</t>
         </is>
       </c>
     </row>
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.179970</t>
+          <t>2025-10-19T23:54:29.817606</t>
         </is>
       </c>
     </row>
@@ -764,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.179970</t>
+          <t>2025-10-19T23:54:29.818605</t>
         </is>
       </c>
     </row>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.179970</t>
+          <t>2025-10-19T23:54:29.818605</t>
         </is>
       </c>
     </row>
@@ -948,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.5916727785823274</v>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.180482</t>
+          <t>2025-10-19T23:54:29.818605</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
         <v>0.8631205685666311</v>
@@ -1105,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.180482</t>
+          <t>2025-10-19T23:54:29.818605</t>
         </is>
       </c>
     </row>
@@ -1128,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.180482</t>
+          <t>2025-10-19T23:54:29.818605</t>
         </is>
       </c>
     </row>
@@ -1218,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.180482</t>
+          <t>2025-10-19T23:54:29.819603</t>
         </is>
       </c>
     </row>
@@ -1308,10 +1308,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.180482</t>
+          <t>2025-10-19T23:54:29.819603</t>
         </is>
       </c>
     </row>
@@ -1398,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.180482</t>
+          <t>2025-10-19T23:54:29.819603</t>
         </is>
       </c>
     </row>
@@ -1488,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.819603</t>
         </is>
       </c>
     </row>
@@ -1582,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.819603</t>
         </is>
       </c>
     </row>
@@ -1672,10 +1672,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.819603</t>
         </is>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.820604</t>
         </is>
       </c>
     </row>
@@ -1852,10 +1852,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.820604</t>
         </is>
       </c>
     </row>
@@ -1942,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2009,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.820604</t>
         </is>
       </c>
     </row>
@@ -2032,10 +2032,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.181497</t>
+          <t>2025-10-19T23:54:29.820604</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2189,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.182496</t>
+          <t>2025-10-19T23:54:29.820604</t>
         </is>
       </c>
     </row>
@@ -2212,10 +2212,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
         <v>0.5916727785823274</v>
@@ -2279,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.182496</t>
+          <t>2025-10-19T23:54:29.822604</t>
         </is>
       </c>
     </row>
@@ -2302,10 +2302,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.182496</t>
+          <t>2025-10-19T23:54:29.822604</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2396,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.182496</t>
+          <t>2025-10-19T23:54:29.822604</t>
         </is>
       </c>
     </row>
@@ -2490,10 +2490,10 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.182496</t>
+          <t>2025-10-19T23:54:29.823609</t>
         </is>
       </c>
     </row>
@@ -2580,10 +2580,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
         <v>0.9852281360342515</v>
@@ -2647,7 +2647,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.182496</t>
+          <t>2025-10-19T23:54:29.823609</t>
         </is>
       </c>
     </row>
@@ -2670,10 +2670,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.183496</t>
+          <t>2025-10-19T23:54:29.823609</t>
         </is>
       </c>
     </row>
@@ -2760,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.183496</t>
+          <t>2025-10-19T23:54:29.823609</t>
         </is>
       </c>
     </row>
@@ -2854,10 +2854,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>0.5916727785823274</v>
@@ -2921,7 +2921,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.183496</t>
+          <t>2025-10-19T23:54:29.824601</t>
         </is>
       </c>
     </row>
@@ -2944,10 +2944,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.183496</t>
+          <t>2025-10-19T23:54:29.824601</t>
         </is>
       </c>
     </row>
@@ -3034,10 +3034,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.183496</t>
+          <t>2025-10-19T23:54:29.824601</t>
         </is>
       </c>
     </row>
@@ -3124,10 +3124,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.183496</t>
+          <t>2025-10-19T23:54:29.824601</t>
         </is>
       </c>
     </row>
@@ -3218,10 +3218,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.824601</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.825602</t>
         </is>
       </c>
     </row>
@@ -3402,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.825602</t>
         </is>
       </c>
     </row>
@@ -3492,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.825602</t>
         </is>
       </c>
     </row>
@@ -3582,10 +3582,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>0.9852281360342515</v>
@@ -3649,7 +3649,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.825602</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.825602</t>
         </is>
       </c>
     </row>
@@ -3762,10 +3762,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3829,7 +3829,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.184496</t>
+          <t>2025-10-19T23:54:29.826601</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.185496</t>
+          <t>2025-10-19T23:54:29.826601</t>
         </is>
       </c>
     </row>
@@ -3946,10 +3946,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.185496</t>
+          <t>2025-10-19T23:54:29.826601</t>
         </is>
       </c>
     </row>
@@ -4040,10 +4040,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.185496</t>
+          <t>2025-10-19T23:54:29.827605</t>
         </is>
       </c>
     </row>
@@ -4130,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="n">
         <v>0.5916727785823274</v>
@@ -4197,7 +4197,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.185496</t>
+          <t>2025-10-19T23:54:29.828605</t>
         </is>
       </c>
     </row>
@@ -4220,10 +4220,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.185496</t>
+          <t>2025-10-19T23:54:29.828605</t>
         </is>
       </c>
     </row>
@@ -4310,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.185496</t>
+          <t>2025-10-19T23:54:29.829607</t>
         </is>
       </c>
     </row>
@@ -4400,10 +4400,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.829607</t>
         </is>
       </c>
     </row>
@@ -4494,10 +4494,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4561,7 +4561,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.829607</t>
         </is>
       </c>
     </row>
@@ -4584,24 +4584,24 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G46" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.5714285714285714</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.829607</t>
         </is>
       </c>
     </row>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.830606</t>
         </is>
       </c>
     </row>
@@ -4768,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.830606</t>
         </is>
       </c>
     </row>
@@ -4862,10 +4862,10 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.830606</t>
         </is>
       </c>
     </row>
@@ -4956,10 +4956,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.186496</t>
+          <t>2025-10-19T23:54:29.830606</t>
         </is>
       </c>
     </row>
@@ -5046,10 +5046,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.187495</t>
+          <t>2025-10-19T23:54:29.831604</t>
         </is>
       </c>
     </row>
@@ -5140,10 +5140,10 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.187495</t>
+          <t>2025-10-19T23:54:29.831604</t>
         </is>
       </c>
     </row>
@@ -5234,10 +5234,10 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.187495</t>
+          <t>2025-10-19T23:54:29.831604</t>
         </is>
       </c>
     </row>
@@ -5324,10 +5324,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5391,7 +5391,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.187495</t>
+          <t>2025-10-19T23:54:29.831604</t>
         </is>
       </c>
     </row>
@@ -5414,10 +5414,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="n">
         <v>0.5916727785823274</v>
@@ -5481,7 +5481,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.187495</t>
+          <t>2025-10-19T23:54:29.831604</t>
         </is>
       </c>
     </row>
@@ -5504,10 +5504,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5571,7 +5571,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.187495</t>
+          <t>2025-10-19T23:54:29.832603</t>
         </is>
       </c>
     </row>
@@ -5594,10 +5594,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.188496</t>
+          <t>2025-10-19T23:54:29.832603</t>
         </is>
       </c>
     </row>
@@ -5688,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5755,7 +5755,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.188496</t>
+          <t>2025-10-19T23:54:29.832603</t>
         </is>
       </c>
     </row>
@@ -5778,10 +5778,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5845,7 +5845,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.188496</t>
+          <t>2025-10-19T23:54:29.832603</t>
         </is>
       </c>
     </row>
@@ -5868,10 +5868,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.188496</t>
+          <t>2025-10-19T23:54:29.832603</t>
         </is>
       </c>
     </row>
@@ -5958,10 +5958,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="n">
         <v>0.5916727785823274</v>
@@ -6025,7 +6025,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.188496</t>
+          <t>2025-10-19T23:54:29.833604</t>
         </is>
       </c>
     </row>
@@ -6048,10 +6048,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.188496</t>
+          <t>2025-10-19T23:54:29.833604</t>
         </is>
       </c>
     </row>
@@ -6138,10 +6138,10 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.833604</t>
         </is>
       </c>
     </row>
@@ -6232,10 +6232,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.833604</t>
         </is>
       </c>
     </row>
@@ -6326,10 +6326,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.833604</t>
         </is>
       </c>
     </row>
@@ -6416,10 +6416,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.834602</t>
         </is>
       </c>
     </row>
@@ -6510,10 +6510,10 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.834602</t>
         </is>
       </c>
     </row>
@@ -6604,10 +6604,10 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.834602</t>
         </is>
       </c>
     </row>
@@ -6698,10 +6698,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.189496</t>
+          <t>2025-10-19T23:54:29.834602</t>
         </is>
       </c>
     </row>
@@ -6792,10 +6792,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.190496</t>
+          <t>2025-10-19T23:54:29.834602</t>
         </is>
       </c>
     </row>
@@ -6882,10 +6882,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.190496</t>
+          <t>2025-10-19T23:54:29.834602</t>
         </is>
       </c>
     </row>
@@ -6972,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.190496</t>
+          <t>2025-10-19T23:54:29.835601</t>
         </is>
       </c>
     </row>
@@ -7062,10 +7062,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.190496</t>
+          <t>2025-10-19T23:54:29.835601</t>
         </is>
       </c>
     </row>
@@ -7152,10 +7152,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7219,7 +7219,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.190496</t>
+          <t>2025-10-19T23:54:29.835601</t>
         </is>
       </c>
     </row>
@@ -7242,10 +7242,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="n">
         <v>0.5916727785823274</v>
@@ -7309,7 +7309,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.190496</t>
+          <t>2025-10-19T23:54:29.835601</t>
         </is>
       </c>
     </row>
@@ -7332,10 +7332,10 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.191495</t>
+          <t>2025-10-19T23:54:29.835601</t>
         </is>
       </c>
     </row>
@@ -7426,10 +7426,10 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7493,7 +7493,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.191495</t>
+          <t>2025-10-19T23:54:29.835601</t>
         </is>
       </c>
     </row>
@@ -7516,10 +7516,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.191495</t>
+          <t>2025-10-19T23:54:29.836602</t>
         </is>
       </c>
     </row>
@@ -7606,10 +7606,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.191495</t>
+          <t>2025-10-19T23:54:29.836602</t>
         </is>
       </c>
     </row>
@@ -7700,10 +7700,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7767,7 +7767,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.191495</t>
+          <t>2025-10-19T23:54:29.836602</t>
         </is>
       </c>
     </row>
@@ -7790,10 +7790,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.191495</t>
+          <t>2025-10-19T23:54:29.836602</t>
         </is>
       </c>
     </row>
@@ -7884,10 +7884,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7901,7 +7901,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="n">
         <v>0.8631205685666311</v>
@@ -7951,7 +7951,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.836602</t>
         </is>
       </c>
     </row>
@@ -7974,10 +7974,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="n">
         <v>0.5916727785823274</v>
@@ -8041,7 +8041,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.836602</t>
         </is>
       </c>
     </row>
@@ -8064,10 +8064,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.837602</t>
         </is>
       </c>
     </row>
@@ -8158,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8225,7 +8225,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.837602</t>
         </is>
       </c>
     </row>
@@ -8248,10 +8248,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="n">
         <v>0.8631205685666311</v>
@@ -8315,7 +8315,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.838604</t>
         </is>
       </c>
     </row>
@@ -8338,10 +8338,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="n">
         <v>0.8631205685666311</v>
@@ -8405,7 +8405,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.838604</t>
         </is>
       </c>
     </row>
@@ -8428,10 +8428,10 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -8495,7 +8495,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.192496</t>
+          <t>2025-10-19T23:54:29.838604</t>
         </is>
       </c>
     </row>
@@ -8518,10 +8518,10 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8585,7 +8585,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.193496</t>
+          <t>2025-10-19T23:54:29.838604</t>
         </is>
       </c>
     </row>
@@ -8608,10 +8608,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>0.9852281360342515</v>
@@ -8675,7 +8675,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.193496</t>
+          <t>2025-10-19T23:54:29.839606</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.193496</t>
+          <t>2025-10-19T23:54:29.839606</t>
         </is>
       </c>
     </row>
@@ -8788,10 +8788,10 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -8855,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.193496</t>
+          <t>2025-10-19T23:54:29.840604</t>
         </is>
       </c>
     </row>
@@ -8878,10 +8878,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.193496</t>
+          <t>2025-10-19T23:54:29.840604</t>
         </is>
       </c>
     </row>
@@ -8968,10 +8968,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -9035,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.193496</t>
+          <t>2025-10-19T23:54:29.840604</t>
         </is>
       </c>
     </row>
@@ -9058,10 +9058,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.841607</t>
         </is>
       </c>
     </row>
@@ -9152,10 +9152,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.841607</t>
         </is>
       </c>
     </row>
@@ -9246,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.841607</t>
         </is>
       </c>
     </row>
@@ -9336,10 +9336,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="n">
         <v>0.5916727785823274</v>
@@ -9403,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.841607</t>
         </is>
       </c>
     </row>
@@ -9426,10 +9426,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -9493,7 +9493,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.842601</t>
         </is>
       </c>
     </row>
@@ -9516,10 +9516,10 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.842601</t>
         </is>
       </c>
     </row>
@@ -9610,10 +9610,10 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -9677,7 +9677,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.842601</t>
         </is>
       </c>
     </row>
@@ -9700,10 +9700,10 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -9767,7 +9767,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.842601</t>
         </is>
       </c>
     </row>
@@ -9790,10 +9790,10 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.194496</t>
+          <t>2025-10-19T23:54:29.842601</t>
         </is>
       </c>
     </row>
@@ -9880,10 +9880,10 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -9947,7 +9947,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196167</t>
+          <t>2025-10-19T23:54:29.843599</t>
         </is>
       </c>
     </row>
@@ -9970,10 +9970,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -10037,7 +10037,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196167</t>
+          <t>2025-10-19T23:54:29.843599</t>
         </is>
       </c>
     </row>
@@ -10060,10 +10060,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.843599</t>
         </is>
       </c>
     </row>
@@ -10154,10 +10154,10 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.843599</t>
         </is>
       </c>
     </row>
@@ -10248,10 +10248,10 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -10315,7 +10315,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.844599</t>
         </is>
       </c>
     </row>
@@ -10338,10 +10338,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.844599</t>
         </is>
       </c>
     </row>
@@ -10432,10 +10432,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10499,7 +10499,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.844599</t>
         </is>
       </c>
     </row>
@@ -10522,10 +10522,10 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.844599</t>
         </is>
       </c>
     </row>
@@ -10612,10 +10612,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.844599</t>
         </is>
       </c>
     </row>
@@ -10702,10 +10702,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10719,7 +10719,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L113" t="n">
         <v>0.5916727785823274</v>
@@ -10769,7 +10769,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.845599</t>
         </is>
       </c>
     </row>
@@ -10792,10 +10792,10 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -10859,7 +10859,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.845599</t>
         </is>
       </c>
     </row>
@@ -10882,10 +10882,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10949,7 +10949,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.196892</t>
+          <t>2025-10-19T23:54:29.845599</t>
         </is>
       </c>
     </row>
@@ -10972,10 +10972,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L116" t="n">
         <v>0.5916727785823274</v>
@@ -11039,7 +11039,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.199208</t>
+          <t>2025-10-19T23:54:29.845599</t>
         </is>
       </c>
     </row>
@@ -11062,10 +11062,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11129,7 +11129,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.199724</t>
+          <t>2025-10-19T23:54:29.845599</t>
         </is>
       </c>
     </row>
@@ -11152,10 +11152,10 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.199769</t>
+          <t>2025-10-19T23:54:29.846599</t>
         </is>
       </c>
     </row>
@@ -11246,10 +11246,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11313,7 +11313,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.199769</t>
+          <t>2025-10-19T23:54:29.846599</t>
         </is>
       </c>
     </row>
@@ -11336,10 +11336,10 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.199769</t>
+          <t>2025-10-19T23:54:29.847602</t>
         </is>
       </c>
     </row>
@@ -11430,10 +11430,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11447,7 +11447,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11497,7 +11497,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.199769</t>
+          <t>2025-10-19T23:54:29.847602</t>
         </is>
       </c>
     </row>
@@ -11520,10 +11520,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -11537,7 +11537,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L122" t="n">
         <v>0.8631205685666311</v>
@@ -11587,7 +11587,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.847602</t>
         </is>
       </c>
     </row>
@@ -11610,10 +11610,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11677,7 +11677,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.848605</t>
         </is>
       </c>
     </row>
@@ -11700,10 +11700,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -11717,7 +11717,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11767,7 +11767,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.848605</t>
         </is>
       </c>
     </row>
@@ -11790,24 +11790,24 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G125" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.5714285714285714</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11857,7 +11857,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.848605</t>
         </is>
       </c>
     </row>
@@ -11880,10 +11880,10 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L126" t="n">
         <v>0.9852281360342515</v>
@@ -11947,7 +11947,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.848605</t>
         </is>
       </c>
     </row>
@@ -11970,10 +11970,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.849607</t>
         </is>
       </c>
     </row>
@@ -12060,10 +12060,10 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -12127,7 +12127,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.849938</t>
         </is>
       </c>
     </row>
@@ -12150,10 +12150,10 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -12217,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.849938</t>
         </is>
       </c>
     </row>
@@ -12240,10 +12240,10 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -12307,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.850468</t>
         </is>
       </c>
     </row>
@@ -12330,10 +12330,10 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -12397,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.850468</t>
         </is>
       </c>
     </row>
@@ -12420,10 +12420,10 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.850468</t>
         </is>
       </c>
     </row>
@@ -12514,10 +12514,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12581,7 +12581,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.850468</t>
         </is>
       </c>
     </row>
@@ -12604,10 +12604,10 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -12671,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.850468</t>
         </is>
       </c>
     </row>
@@ -12694,10 +12694,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -12711,7 +12711,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K135" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L135" t="n">
         <v>0.8631205685666311</v>
@@ -12761,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851382</t>
         </is>
       </c>
     </row>
@@ -12784,10 +12784,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851382</t>
         </is>
       </c>
     </row>
@@ -12878,10 +12878,10 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -12945,7 +12945,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851918</t>
         </is>
       </c>
     </row>
@@ -12968,10 +12968,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -13035,7 +13035,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851918</t>
         </is>
       </c>
     </row>
@@ -13058,10 +13058,10 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -13125,7 +13125,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851918</t>
         </is>
       </c>
     </row>
@@ -13148,10 +13148,10 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G140" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851918</t>
         </is>
       </c>
     </row>
@@ -13242,10 +13242,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13309,7 +13309,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.851918</t>
         </is>
       </c>
     </row>
@@ -13332,10 +13332,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -13349,7 +13349,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13399,7 +13399,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.852909</t>
         </is>
       </c>
     </row>
@@ -13422,10 +13422,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -13439,7 +13439,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13489,7 +13489,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.852909</t>
         </is>
       </c>
     </row>
@@ -13512,10 +13512,10 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -13529,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
@@ -13579,7 +13579,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.852909</t>
         </is>
       </c>
     </row>
@@ -13602,10 +13602,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G145" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13669,7 +13669,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.852909</t>
         </is>
       </c>
     </row>
@@ -13692,10 +13692,10 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -13759,7 +13759,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.852909</t>
         </is>
       </c>
     </row>
@@ -13782,10 +13782,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G147" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13849,7 +13849,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.853909</t>
         </is>
       </c>
     </row>
@@ -13872,10 +13872,10 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G148" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.853909</t>
         </is>
       </c>
     </row>
@@ -13966,10 +13966,10 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.853909</t>
         </is>
       </c>
     </row>
@@ -14056,10 +14056,10 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
@@ -14123,7 +14123,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.853909</t>
         </is>
       </c>
     </row>
@@ -14146,10 +14146,10 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14213,7 +14213,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.853909</t>
         </is>
       </c>
     </row>
@@ -14236,10 +14236,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G152" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14303,7 +14303,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.855927</t>
         </is>
       </c>
     </row>
@@ -14326,10 +14326,10 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G153" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -14393,7 +14393,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.855927</t>
         </is>
       </c>
     </row>
@@ -14416,10 +14416,10 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G154" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K154" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L154" t="n">
         <v>0.9852281360342515</v>
@@ -14483,7 +14483,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.856913</t>
         </is>
       </c>
     </row>
@@ -14506,10 +14506,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14573,7 +14573,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.857471</t>
         </is>
       </c>
     </row>
@@ -14596,10 +14596,10 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G156" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -14663,7 +14663,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.857471</t>
         </is>
       </c>
     </row>
@@ -14686,10 +14686,10 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G157" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858018</t>
         </is>
       </c>
     </row>
@@ -14780,10 +14780,10 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -14847,7 +14847,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858018</t>
         </is>
       </c>
     </row>
@@ -14870,10 +14870,10 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G159" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -14937,7 +14937,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858018</t>
         </is>
       </c>
     </row>
@@ -14960,10 +14960,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G160" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858018</t>
         </is>
       </c>
     </row>
@@ -15054,10 +15054,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -15071,7 +15071,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K161" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L161" t="n">
         <v>0.5916727785823274</v>
@@ -15121,7 +15121,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858999</t>
         </is>
       </c>
     </row>
@@ -15144,10 +15144,10 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G162" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -15211,7 +15211,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858999</t>
         </is>
       </c>
     </row>
@@ -15234,10 +15234,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G163" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -15251,7 +15251,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15301,7 +15301,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858999</t>
         </is>
       </c>
     </row>
@@ -15324,10 +15324,10 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -15341,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -15391,7 +15391,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858999</t>
         </is>
       </c>
     </row>
@@ -15414,10 +15414,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15481,7 +15481,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.858999</t>
         </is>
       </c>
     </row>
@@ -15504,10 +15504,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -15521,7 +15521,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15571,7 +15571,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.859996</t>
         </is>
       </c>
     </row>
@@ -15594,10 +15594,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.859996</t>
         </is>
       </c>
     </row>
@@ -15688,10 +15688,10 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G168" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.859996</t>
         </is>
       </c>
     </row>
@@ -15782,10 +15782,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G169" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.859996</t>
         </is>
       </c>
     </row>
@@ -15876,10 +15876,10 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G170" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.859996</t>
         </is>
       </c>
     </row>
@@ -15970,10 +15970,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631937911053103</v>
+        <v>0.9528332069774007</v>
       </c>
       <c r="G171" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:17.200276</t>
+          <t>2025-10-19T23:54:29.859996</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -651,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.817606</t>
+          <t>2025-10-20T01:21:04.533458</t>
         </is>
       </c>
     </row>
@@ -741,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.817606</t>
+          <t>2025-10-20T01:21:04.533458</t>
         </is>
       </c>
     </row>
@@ -831,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.818605</t>
+          <t>2025-10-20T01:21:04.533458</t>
         </is>
       </c>
     </row>
@@ -925,7 +935,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.818605</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.818605</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.818605</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.818605</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.819603</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.819603</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.819603</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1569,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.819603</t>
+          <t>2025-10-20T01:21:04.534457</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.819603</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.819603</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.820604</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.820604</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.820604</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.820604</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.820604</t>
+          <t>2025-10-20T01:21:04.535449</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.822604</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2383,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.822604</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2477,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.822604</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.823609</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.823609</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.823609</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2841,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.823609</t>
+          <t>2025-10-20T01:21:04.536449</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2931,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.824601</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3021,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.824601</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3111,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.824601</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3205,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.824601</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3299,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.824601</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3389,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.825602</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3479,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.825602</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3569,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.825602</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.825602</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3749,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.825602</t>
+          <t>2025-10-20T01:21:04.537462</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3839,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.826601</t>
+          <t>2025-10-20T01:21:04.538486</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3933,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.826601</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4027,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.826601</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4117,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.827605</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4207,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.828605</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4297,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.828605</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4387,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.829607</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4481,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.829607</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4571,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.829607</t>
+          <t>2025-10-20T01:21:04.538596</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4665,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.829607</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.830606</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4849,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.830606</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4943,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.830606</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5033,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.830606</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5127,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.831604</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5221,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.831604</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5311,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.831604</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5401,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.831604</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5491,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.831604</t>
+          <t>2025-10-20T01:21:04.539461</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5581,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.832603</t>
+          <t>2025-10-20T01:21:04.540460</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5675,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.832603</t>
+          <t>2025-10-20T01:21:04.540460</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5765,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.832603</t>
+          <t>2025-10-20T01:21:04.540460</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.832603</t>
+          <t>2025-10-20T01:21:04.540460</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.832603</t>
+          <t>2025-10-20T01:21:04.540460</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.833604</t>
+          <t>2025-10-20T01:21:04.540460</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.833604</t>
+          <t>2025-10-20T01:21:04.549454</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6219,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.833604</t>
+          <t>2025-10-20T01:21:04.549454</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6313,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.833604</t>
+          <t>2025-10-20T01:21:04.550454</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6403,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.833604</t>
+          <t>2025-10-20T01:21:04.551281</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6497,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.834602</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6591,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.834602</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6685,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.834602</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6779,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.834602</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.834602</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.834602</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.835601</t>
+          <t>2025-10-20T01:21:04.551562</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.835601</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.835601</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.835601</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7413,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.835601</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.835601</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.836602</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7687,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.836602</t>
+          <t>2025-10-20T01:21:04.552568</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.836602</t>
+          <t>2025-10-20T01:21:04.553559</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7871,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.836602</t>
+          <t>2025-10-20T01:21:04.553559</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.836602</t>
+          <t>2025-10-20T01:21:04.553559</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.836602</t>
+          <t>2025-10-20T01:21:04.553559</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8145,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.837602</t>
+          <t>2025-10-20T01:21:04.553559</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8235,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.837602</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8325,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.838604</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8415,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.838604</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8505,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.838604</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8595,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.838604</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8685,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.839606</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8775,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.839606</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.840604</t>
+          <t>2025-10-20T01:21:04.554561</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.840604</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.840604</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.841607</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9233,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.841607</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.841607</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.841607</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.842601</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9597,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.842601</t>
+          <t>2025-10-20T01:21:04.555561</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.842601</t>
+          <t>2025-10-20T01:21:04.556561</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.842601</t>
+          <t>2025-10-20T01:21:04.556561</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.842601</t>
+          <t>2025-10-20T01:21:04.556561</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.843599</t>
+          <t>2025-10-20T01:21:04.556561</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.843599</t>
+          <t>2025-10-20T01:21:04.556561</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10141,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.843599</t>
+          <t>2025-10-20T01:21:04.557573</t>
         </is>
       </c>
     </row>
@@ -10225,7 +10235,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.843599</t>
+          <t>2025-10-20T01:21:04.557573</t>
         </is>
       </c>
     </row>
@@ -10315,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.844599</t>
+          <t>2025-10-20T01:21:04.557573</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10419,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.844599</t>
+          <t>2025-10-20T01:21:04.558563</t>
         </is>
       </c>
     </row>
@@ -10499,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.844599</t>
+          <t>2025-10-20T01:21:04.558563</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10599,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.844599</t>
+          <t>2025-10-20T01:21:04.559565</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10689,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.844599</t>
+          <t>2025-10-20T01:21:04.559565</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10779,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.845599</t>
+          <t>2025-10-20T01:21:04.559565</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10869,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.845599</t>
+          <t>2025-10-20T01:21:04.559565</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10959,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.845599</t>
+          <t>2025-10-20T01:21:04.560562</t>
         </is>
       </c>
     </row>
@@ -11039,7 +11049,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.845599</t>
+          <t>2025-10-20T01:21:04.560562</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11139,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.845599</t>
+          <t>2025-10-20T01:21:04.561562</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11233,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.846599</t>
+          <t>2025-10-20T01:21:04.561562</t>
         </is>
       </c>
     </row>
@@ -11313,7 +11323,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.846599</t>
+          <t>2025-10-20T01:21:04.562567</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11417,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.847602</t>
+          <t>2025-10-20T01:21:04.562567</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.847602</t>
+          <t>2025-10-20T01:21:04.562567</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.847602</t>
+          <t>2025-10-20T01:21:04.563571</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.848605</t>
+          <t>2025-10-20T01:21:04.563571</t>
         </is>
       </c>
     </row>
@@ -11767,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.848605</t>
+          <t>2025-10-20T01:21:04.563571</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.848605</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -11947,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.848605</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.849607</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -12127,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.849938</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.849938</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.850468</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.850468</t>
+          <t>2025-10-20T01:21:04.565566</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12501,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.850468</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12591,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.850468</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.850468</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851382</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12865,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851382</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12955,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851918</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13045,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851918</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13135,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851918</t>
+          <t>2025-10-20T01:21:04.566574</t>
         </is>
       </c>
     </row>
@@ -13219,7 +13229,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851918</t>
+          <t>2025-10-20T01:21:04.567570</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13319,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.851918</t>
+          <t>2025-10-20T01:21:04.567570</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13409,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.852909</t>
+          <t>2025-10-20T01:21:04.567570</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13499,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.852909</t>
+          <t>2025-10-20T01:21:04.567570</t>
         </is>
       </c>
     </row>
@@ -13579,7 +13589,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.852909</t>
+          <t>2025-10-20T01:21:04.567570</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13679,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.852909</t>
+          <t>2025-10-20T01:21:04.567570</t>
         </is>
       </c>
     </row>
@@ -13759,7 +13769,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.852909</t>
+          <t>2025-10-20T01:21:04.568564</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13859,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.853909</t>
+          <t>2025-10-20T01:21:04.568564</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13953,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.853909</t>
+          <t>2025-10-20T01:21:04.568564</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14043,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.853909</t>
+          <t>2025-10-20T01:21:04.569565</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14133,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.853909</t>
+          <t>2025-10-20T01:21:04.569565</t>
         </is>
       </c>
     </row>
@@ -14213,7 +14223,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.853909</t>
+          <t>2025-10-20T01:21:04.569565</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14313,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.855927</t>
+          <t>2025-10-20T01:21:04.569565</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14403,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.855927</t>
+          <t>2025-10-20T01:21:04.570562</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14493,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.856913</t>
+          <t>2025-10-20T01:21:04.570562</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14583,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.857471</t>
+          <t>2025-10-20T01:21:04.570562</t>
         </is>
       </c>
     </row>
@@ -14663,7 +14673,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.857471</t>
+          <t>2025-10-20T01:21:04.570562</t>
         </is>
       </c>
     </row>
@@ -14757,7 +14767,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858018</t>
+          <t>2025-10-20T01:21:04.570562</t>
         </is>
       </c>
     </row>
@@ -14847,7 +14857,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858018</t>
+          <t>2025-10-20T01:21:04.570562</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14947,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858018</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15031,7 +15041,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858018</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15121,7 +15131,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858999</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15221,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858999</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15311,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858999</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15401,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858999</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15491,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.858999</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15571,7 +15581,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.859996</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15665,7 +15675,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.859996</t>
+          <t>2025-10-20T01:21:04.571563</t>
         </is>
       </c>
     </row>
@@ -15759,7 +15769,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.859996</t>
+          <t>2025-10-20T01:21:04.572561</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15863,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.859996</t>
+          <t>2025-10-20T01:21:04.572561</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15957,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.859996</t>
+          <t>2025-10-20T01:21:04.572561</t>
         </is>
       </c>
     </row>
@@ -16041,11 +16051,16 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-19T23:54:29.859996</t>
+          <t>2025-10-20T01:21:04.572561</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z171">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.533458</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.533458</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.533458</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -928,14 +928,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4329311706285884</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y5" t="n">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1562,14 +1562,14 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4346729307015544</v>
+        <v>0.4068777042230437</v>
       </c>
       <c r="Y12" t="n">
-        <v>410</v>
+        <v>116</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.534457</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.535449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2376,14 +2376,14 @@
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5843748470046234</v>
+        <v>0.5454543991712841</v>
       </c>
       <c r="Y21" t="n">
         <v>395</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2470,14 +2470,14 @@
         <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4221781641623663</v>
       </c>
       <c r="Y22" t="n">
-        <v>68</v>
+        <v>414</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2834,14 +2834,14 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5884403511369705</v>
+        <v>0.5897771074506666</v>
       </c>
       <c r="Y26" t="n">
         <v>404</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.536449</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3198,14 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4608484485919075</v>
+        <v>0.5234963019255433</v>
       </c>
       <c r="Y30" t="n">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3292,14 +3292,14 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4863890037284231</v>
+        <v>0.4014132610439435</v>
       </c>
       <c r="Y31" t="n">
         <v>52</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.537462</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538486</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -3926,14 +3926,14 @@
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.5607344153798228</v>
       </c>
       <c r="Y38" t="n">
         <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4020,14 +4020,14 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5885707141115961</v>
+        <v>0.4457596330983245</v>
       </c>
       <c r="Y39" t="n">
         <v>300</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4474,14 +4474,14 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4148089303468181</v>
+        <v>0.5211919949562023</v>
       </c>
       <c r="Y44" t="n">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.974596</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.538596</t>
+          <t>2025-10-23T11:28:49.983644</t>
         </is>
       </c>
     </row>
@@ -4658,14 +4658,14 @@
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>0.476585374950758</v>
+        <v>0.4944429850323899</v>
       </c>
       <c r="Y46" t="n">
         <v>148</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.983644</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.983644</t>
         </is>
       </c>
     </row>
@@ -4842,14 +4842,14 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>0.5182595575415454</v>
+        <v>0.5459212356676129</v>
       </c>
       <c r="Y48" t="n">
-        <v>411</v>
+        <v>245</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -4936,14 +4936,14 @@
         <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>0.4363649934414202</v>
+        <v>0.4001557531682029</v>
       </c>
       <c r="Y49" t="n">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5120,14 +5120,14 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y51" t="n">
         <v>10</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5214,14 +5214,14 @@
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.5829919351087561</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.539461</t>
+          <t>2025-10-23T11:28:49.984640</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.540460</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -5668,14 +5668,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4790300472003629</v>
+        <v>0.5878997883128378</v>
       </c>
       <c r="Y57" t="n">
         <v>419</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.540460</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.540460</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.540460</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.540460</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.540460</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.549454</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -6212,14 +6212,14 @@
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>0.4621964643431324</v>
+        <v>0.4741636504396533</v>
       </c>
       <c r="Y63" t="n">
-        <v>226</v>
+        <v>435</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.549454</t>
+          <t>2025-10-23T11:28:49.985636</t>
         </is>
       </c>
     </row>
@@ -6306,14 +6306,14 @@
         <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5223705789444759</v>
+        <v>0.5049549320516779</v>
       </c>
       <c r="Y64" t="n">
         <v>300</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.550454</t>
+          <t>2025-10-23T11:28:49.986638</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551281</t>
+          <t>2025-10-23T11:28:49.986638</t>
         </is>
       </c>
     </row>
@@ -6490,14 +6490,14 @@
         <v>2</v>
       </c>
       <c r="X66" t="n">
-        <v>0.4341048247374583</v>
+        <v>0.5360615077175559</v>
       </c>
       <c r="Y66" t="n">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.986638</t>
         </is>
       </c>
     </row>
@@ -6584,14 +6584,14 @@
         <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>0.4503564591650728</v>
+        <v>0.4493752125677202</v>
       </c>
       <c r="Y67" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.986638</t>
         </is>
       </c>
     </row>
@@ -6678,14 +6678,14 @@
         <v>1</v>
       </c>
       <c r="X68" t="n">
-        <v>0.544399754453365</v>
+        <v>0.5939819704323989</v>
       </c>
       <c r="Y68" t="n">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.987637</t>
         </is>
       </c>
     </row>
@@ -6772,14 +6772,14 @@
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.5093420558686559</v>
       </c>
       <c r="Y69" t="n">
         <v>307</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.551562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7406,14 +7406,14 @@
         <v>1</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4437528439146141</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7680,14 +7680,14 @@
         <v>2</v>
       </c>
       <c r="X79" t="n">
-        <v>0.538487206578054</v>
+        <v>0.4444215620941461</v>
       </c>
       <c r="Y79" t="n">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.552568</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.553559</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7864,14 +7864,14 @@
         <v>2</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5272820822527561</v>
+        <v>0.5791527191347039</v>
       </c>
       <c r="Y81" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.553559</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.553559</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.553559</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8138,14 +8138,14 @@
         <v>1</v>
       </c>
       <c r="X84" t="n">
-        <v>0.4092900825439996</v>
+        <v>0.493352578649596</v>
       </c>
       <c r="Y84" t="n">
         <v>404</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.553559</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.554561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9132,14 +9132,14 @@
         <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4579502905827536</v>
       </c>
       <c r="Y95" t="n">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9226,14 +9226,14 @@
         <v>1</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4898901348276407</v>
       </c>
       <c r="Y96" t="n">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9590,14 +9590,14 @@
         <v>1</v>
       </c>
       <c r="X100" t="n">
-        <v>0.573235229154987</v>
+        <v>0.4918497783931735</v>
       </c>
       <c r="Y100" t="n">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.555561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.556561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.556561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.556561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.556561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.556561</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10134,14 +10134,14 @@
         <v>1</v>
       </c>
       <c r="X106" t="n">
-        <v>0.4364472175576125</v>
+        <v>0.4517559963200034</v>
       </c>
       <c r="Y106" t="n">
         <v>338</v>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.557573</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10228,14 +10228,14 @@
         <v>1</v>
       </c>
       <c r="X107" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y107" t="n">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.557573</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.557573</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10412,14 +10412,14 @@
         <v>1</v>
       </c>
       <c r="X109" t="n">
-        <v>0.5766560517837737</v>
+        <v>0.5785117996979956</v>
       </c>
       <c r="Y109" t="n">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.558563</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.558563</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10599,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.559565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.559565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.559565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.559565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.560562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.560562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.561562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11226,14 +11226,14 @@
         <v>1</v>
       </c>
       <c r="X118" t="n">
-        <v>0.4461787651244298</v>
+        <v>0.4195344228012768</v>
       </c>
       <c r="Y118" t="n">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.561562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.562567</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11410,14 +11410,14 @@
         <v>1</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5366527037650917</v>
+        <v>0.4880304987479203</v>
       </c>
       <c r="Y120" t="n">
         <v>176</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.562567</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.562567</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.563571</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.563571</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.563571</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.565566</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12494,14 +12494,14 @@
         <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>0.5416145155592091</v>
+        <v>0.4285733635843882</v>
       </c>
       <c r="Y132" t="n">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12858,14 +12858,14 @@
         <v>3</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4080867179076863</v>
       </c>
       <c r="Y136" t="n">
         <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.566574</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13222,14 +13222,14 @@
         <v>1</v>
       </c>
       <c r="X140" t="n">
-        <v>0.5197316968394073</v>
+        <v>0.5559382000545539</v>
       </c>
       <c r="Y140" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.567570</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.567570</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.567570</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.567570</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.567570</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.567570</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.568564</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.568564</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -13946,14 +13946,14 @@
         <v>3</v>
       </c>
       <c r="X148" t="n">
-        <v>0.5005358046457723</v>
+        <v>0.5953229911665305</v>
       </c>
       <c r="Y148" t="n">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.568564</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.569565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.569565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.569565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.569565</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.570562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.570562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.570562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.570562</t>
+          <t>2025-10-23T11:28:49.987744</t>
         </is>
       </c>
     </row>
@@ -14760,14 +14760,14 @@
         <v>1</v>
       </c>
       <c r="X157" t="n">
-        <v>0.4705137712668338</v>
+        <v>0.5636029531844986</v>
       </c>
       <c r="Y157" t="n">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.570562</t>
+          <t>2025-10-23T11:28:50.000289</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.570562</t>
+          <t>2025-10-23T11:28:50.000289</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.000289</t>
         </is>
       </c>
     </row>
@@ -15034,14 +15034,14 @@
         <v>1</v>
       </c>
       <c r="X160" t="n">
-        <v>0.4281848449949526</v>
+        <v>0.4551998364045087</v>
       </c>
       <c r="Y160" t="n">
         <v>246</v>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.001289</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.001289</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15668,14 +15668,14 @@
         <v>1</v>
       </c>
       <c r="X167" t="n">
-        <v>0.4244175909401347</v>
+        <v>0.5614880310328125</v>
       </c>
       <c r="Y167" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.571563</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15762,14 +15762,14 @@
         <v>1</v>
       </c>
       <c r="X168" t="n">
-        <v>0.5295380241082724</v>
+        <v>0.4455870325083883</v>
       </c>
       <c r="Y168" t="n">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.572561</t>
+          <t>2025-10-23T11:28:50.002288</t>
         </is>
       </c>
     </row>
@@ -15856,14 +15856,14 @@
         <v>1</v>
       </c>
       <c r="X169" t="n">
-        <v>0.4601756619633539</v>
+        <v>0.5424541179848884</v>
       </c>
       <c r="Y169" t="n">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.572561</t>
+          <t>2025-10-23T11:28:50.003302</t>
         </is>
       </c>
     </row>
@@ -15950,14 +15950,14 @@
         <v>1</v>
       </c>
       <c r="X170" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.5521570097233794</v>
       </c>
       <c r="Y170" t="n">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.572561</t>
+          <t>2025-10-23T11:28:50.003302</t>
         </is>
       </c>
     </row>
@@ -16044,14 +16044,14 @@
         <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.4850311748982489</v>
+        <v>0.4623422152178822</v>
       </c>
       <c r="Y171" t="n">
         <v>189</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:04.572561</t>
+          <t>2025-10-23T11:28:50.004287</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.374025</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.374843</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.374843</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.374843</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.375402</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.375402</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.375912</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.376055</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.376055</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.376651</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.376651</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.376651</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.376651</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.377199</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.377199</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.377199</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.377751</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.377751</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.378263</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.379786</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.379786</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.379786</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.380359</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.380359</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.380941</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.380941</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.380941</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.380941</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.381485</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.381485</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.381485</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382022</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382022</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382022</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382022</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382563</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382563</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382563</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.382563</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.383107</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.383107</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.383107</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.974596</t>
+          <t>2025-10-23T12:44:48.383107</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.983644</t>
+          <t>2025-10-23T12:44:48.383652</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.983644</t>
+          <t>2025-10-23T12:44:48.383652</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.983644</t>
+          <t>2025-10-23T12:44:48.383652</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.383652</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384191</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384191</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384191</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384191</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384726</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384726</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.984640</t>
+          <t>2025-10-23T12:44:48.384726</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385233</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385257</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385257</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385257</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385795</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385795</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385795</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.985636</t>
+          <t>2025-10-23T12:44:48.385795</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.986638</t>
+          <t>2025-10-23T12:44:48.386331</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.986638</t>
+          <t>2025-10-23T12:44:48.386331</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.986638</t>
+          <t>2025-10-23T12:44:48.386331</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.986638</t>
+          <t>2025-10-23T12:44:48.386331</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987637</t>
+          <t>2025-10-23T12:44:48.386865</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.386865</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.386865</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.386865</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387404</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387404</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387404</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387937</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387937</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387937</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.387937</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.388753</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.388753</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389270</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389354</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389354</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389354</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389908</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389908</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389908</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389908</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.389908</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.390536</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.390536</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.390536</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.390536</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391079</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391079</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391079</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391589</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391589</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391589</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.391589</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392034</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392034</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392034</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392034</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392034</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392735</t>
         </is>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392735</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392735</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.392735</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393282</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10599,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393282</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393282</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393792</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393830</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393830</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.393830</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.394354</t>
         </is>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.394433</t>
         </is>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13319,7 +13319,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.675337</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:49.987744</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.000289</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.000289</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14947,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.000289</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.001289</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.001289</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.690986</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.692793</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.002288</t>
+          <t>2025-10-23T12:44:48.692793</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.003302</t>
+          <t>2025-10-23T12:44:48.693345</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.003302</t>
+          <t>2025-10-23T12:44:48.693345</t>
         </is>
       </c>
     </row>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-23T11:28:50.004287</t>
+          <t>2025-10-23T12:44:48.693345</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>2.157114712469289</v>
+        <v>2.157114744186401</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.278875</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -738,20 +738,20 @@
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>4.360157667336493</v>
+        <v>4.360157489776611</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4586976349436077</v>
+        <v>0.5930838702577588</v>
       </c>
       <c r="Y3" t="n">
         <v>340</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.278875</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -830,20 +830,20 @@
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>2.955834654327462</v>
+        <v>2.955834627151489</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5040136042355622</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y4" t="n">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.278875</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="n">
         <v>0.8631205685666311</v>
@@ -922,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>2.330784449996127</v>
+        <v>2.330784559249878</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.279875</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>2.168516787431688</v>
+        <v>2.168516874313354</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.280086</t>
         </is>
       </c>
     </row>
@@ -1098,16 +1098,20 @@
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>3.208828049867004</v>
+        <v>3.208827972412109</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.465191781040377</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.280086</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>3.485902186428175</v>
+        <v>3.485902070999146</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1195,7 +1199,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.280086</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>3.613182932572864</v>
+        <v>3.61318302154541</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.280086</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1366,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>3.507693554193324</v>
+        <v>3.507693529129028</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -1379,7 +1383,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.280086</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>2.092917205528976</v>
+        <v>2.092917203903198</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1467,7 +1471,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.281090</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1546,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>2.795801308264188</v>
+        <v>2.795801401138306</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1555,7 +1559,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.281090</t>
         </is>
       </c>
     </row>
@@ -1634,20 +1638,20 @@
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>3.477397964044639</v>
+        <v>3.477397918701172</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5580351081062411</v>
+        <v>0.5441879848504259</v>
       </c>
       <c r="Y13" t="n">
         <v>123</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.281090</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.675995978211259</v>
+        <v>2.675996065139771</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
@@ -1739,7 +1743,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.281090</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1781,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="n">
         <v>0.9852281360342515</v>
@@ -1818,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>3.116759459666232</v>
+        <v>3.116759538650513</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1827,7 +1831,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.281090</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1869,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L16" t="n">
         <v>0.5916727785823274</v>
@@ -1906,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>2.502524245961173</v>
+        <v>2.502524137496948</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1915,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.282088</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1994,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.959227587738293</v>
+        <v>1.959227561950684</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2003,7 +2007,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.282088</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2086,20 @@
         <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>3.435223328328265</v>
+        <v>3.435223340988159</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>297</v>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.282088</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.774998049667791</v>
+        <v>1.774998068809509</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2179,7 +2187,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.282088</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.947857582161779</v>
+        <v>1.947857618331909</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2267,7 +2275,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.282088</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>2.131900466592375</v>
+        <v>2.131900548934937</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2355,7 +2363,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.282088</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2434,20 +2442,20 @@
         <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>5.625724915311262</v>
+        <v>5.625724792480469</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5843748470046234</v>
+        <v>0.4357645418442658</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2534,7 @@
         <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>2.409832158239197</v>
+        <v>2.409832239151001</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2535,7 +2543,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>2.232717365990434</v>
+        <v>2.232717275619507</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2623,7 +2631,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2702,7 +2710,7 @@
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>3.871425210290716</v>
+        <v>3.871425151824951</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -2715,7 +2723,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -2794,16 +2802,20 @@
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.185838231633765</v>
+        <v>2.185838222503662</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5964336686658871</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>192</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2882,16 +2894,20 @@
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.163112610938815</v>
+        <v>2.163112640380859</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.5606279512759792</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>115</v>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2970,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>2.152631958428961</v>
+        <v>2.152631998062134</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2979,7 +2995,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -3058,16 +3074,20 @@
         <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>3.862919959289532</v>
+        <v>3.862920045852661</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.5693322284476612</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>83</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -3146,16 +3166,20 @@
         <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>3.249591361545142</v>
+        <v>3.24959135055542</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.480901625424438</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>117</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3217,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>0.8631205685666311</v>
@@ -3234,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>2.080991675122395</v>
+        <v>2.080991744995117</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3243,7 +3267,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.283089</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>4.371753468981833</v>
+        <v>4.371753692626953</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3331,7 +3355,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>3.082636591227818</v>
+        <v>3.082636594772339</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
@@ -3423,7 +3447,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>4.240592642697917</v>
+        <v>4.240592479705811</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -3515,7 +3539,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3594,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>3.172193990367615</v>
+        <v>3.172194004058838</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
@@ -3607,7 +3631,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>2.163736036444024</v>
+        <v>2.16373610496521</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3695,7 +3719,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3774,16 +3798,20 @@
         <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>2.955834654327462</v>
+        <v>2.955834627151489</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.4567841949474932</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>172</v>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>3.631736940705085</v>
+        <v>3.631736993789673</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3871,7 +3899,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -3950,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>3.739009136579542</v>
+        <v>3.739009141921997</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3959,7 +3987,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>3.200406144117444</v>
+        <v>3.200406074523926</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -4047,7 +4075,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.284089</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>4.38733829732847</v>
+        <v>4.387338161468506</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
@@ -4139,7 +4167,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.285087</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4218,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="V42" t="n">
-        <v>4.447107150571818</v>
+        <v>4.447107315063477</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4227,7 +4255,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.285087</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>1.816329724740481</v>
+        <v>1.816329717636108</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4315,7 +4343,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.286091</t>
         </is>
       </c>
     </row>
@@ -4394,20 +4422,20 @@
         <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>3.117799168283223</v>
+        <v>3.117799282073975</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4579502905827536</v>
+        <v>0.4484110543023001</v>
       </c>
       <c r="Y44" t="n">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.286091</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4486,16 +4514,20 @@
         <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>3.45290128923959</v>
+        <v>3.452901363372803</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.4187349535656185</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>410</v>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.286091</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4574,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>3.200801099399567</v>
+        <v>3.200801134109497</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -4587,7 +4619,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.286091</t>
         </is>
       </c>
     </row>
@@ -4666,16 +4698,20 @@
         <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>2.617141313287657</v>
+        <v>2.617141246795654</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.5988914925221641</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>180</v>
+      </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.286091</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4749,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L48" t="n">
         <v>0.9852281360342515</v>
@@ -4754,7 +4790,7 @@
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>3.97149479184511</v>
+        <v>3.971494674682617</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4763,7 +4799,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.287091</t>
         </is>
       </c>
     </row>
@@ -4842,20 +4878,20 @@
         <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>2.4699116158985</v>
+        <v>2.469911575317383</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5325044568707964</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y49" t="n">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.287091</t>
         </is>
       </c>
     </row>
@@ -4934,16 +4970,20 @@
         <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>3.846607293762169</v>
+        <v>3.846607208251953</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.4239730734667366</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>410</v>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.287091</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5062,7 @@
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>4.763889284322343</v>
+        <v>4.763889312744141</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -5031,7 +5071,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.961759</t>
+          <t>2025-10-29T23:38:14.287091</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>2.634864256690292</v>
+        <v>2.634864330291748</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5119,7 +5159,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.287091</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -5198,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>3.136862859586551</v>
+        <v>3.136862754821777</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5207,7 +5247,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.288088</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5286,20 +5326,20 @@
         <v>4</v>
       </c>
       <c r="V54" t="n">
-        <v>5.321010997477671</v>
+        <v>5.321011066436768</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5897771074506666</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y54" t="n">
         <v>304</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.288088</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -5378,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>3.118543439916383</v>
+        <v>3.118543386459351</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5387,7 +5427,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.288088</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5506,7 @@
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>4.284815730402634</v>
+        <v>4.284815788269043</v>
       </c>
       <c r="W56" t="n">
         <v>1</v>
@@ -5479,7 +5519,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.288088</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5558,16 +5598,20 @@
         <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>3.180856101001477</v>
+        <v>3.180855989456177</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.44571000435946</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>347</v>
+      </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.289086</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5646,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>3.081727993239573</v>
+        <v>3.081727981567383</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -5659,7 +5703,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.289086</t>
         </is>
       </c>
     </row>
@@ -5738,16 +5782,20 @@
         <v>4</v>
       </c>
       <c r="V59" t="n">
-        <v>2.182917891233416</v>
+        <v>2.182917833328247</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.5885819407825038</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>27</v>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.289086</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5833,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L60" t="n">
         <v>0.5916727785823274</v>
@@ -5826,7 +5874,7 @@
         <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>2.466278577465952</v>
+        <v>2.466278553009033</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5835,7 +5883,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.289086</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -5914,7 +5962,7 @@
         <v>4</v>
       </c>
       <c r="V61" t="n">
-        <v>2.778759816676212</v>
+        <v>2.778759717941284</v>
       </c>
       <c r="W61" t="n">
         <v>1</v>
@@ -5927,7 +5975,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.289086</t>
         </is>
       </c>
     </row>
@@ -5965,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6006,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>3.886372153005643</v>
+        <v>3.886372089385986</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -6015,7 +6063,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.290088</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>2.520403381336186</v>
+        <v>2.520403385162354</v>
       </c>
       <c r="W63" t="n">
         <v>1</v>
@@ -6107,7 +6155,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.290088</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6186,7 +6234,7 @@
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>2.598210830573817</v>
+        <v>2.59821081161499</v>
       </c>
       <c r="W64" t="n">
         <v>1</v>
@@ -6199,7 +6247,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.290088</t>
         </is>
       </c>
     </row>
@@ -6278,7 +6326,7 @@
         <v>4</v>
       </c>
       <c r="V65" t="n">
-        <v>3.422209701542705</v>
+        <v>3.422209739685059</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6287,7 +6335,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.290088</t>
         </is>
       </c>
     </row>
@@ -6366,16 +6414,20 @@
         <v>4</v>
       </c>
       <c r="V66" t="n">
-        <v>2.806350512499308</v>
+        <v>2.806350469589233</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.5082895947655132</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>44</v>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.290088</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6454,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="V67" t="n">
-        <v>2.920504488280142</v>
+        <v>2.920504570007324</v>
       </c>
       <c r="W67" t="n">
         <v>2</v>
@@ -6467,7 +6519,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.291088</t>
         </is>
       </c>
     </row>
@@ -6546,16 +6598,20 @@
         <v>4</v>
       </c>
       <c r="V68" t="n">
-        <v>3.515434293872683</v>
+        <v>3.515434265136719</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.5381875476204931</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>162</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.291088</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6690,7 @@
         <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>3.498482511434422</v>
+        <v>3.498482465744019</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6643,7 +6699,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.291088</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6778,7 @@
         <v>4</v>
       </c>
       <c r="V70" t="n">
-        <v>2.700428052808665</v>
+        <v>2.700428009033203</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -6731,7 +6787,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.291088</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6825,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L71" t="n">
         <v>0.8631205685666311</v>
@@ -6810,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>3.61762473839725</v>
+        <v>3.617624759674072</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6819,7 +6875,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.291088</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6913,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L72" t="n">
         <v>0.5916727785823274</v>
@@ -6898,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>2.298265723805504</v>
+        <v>2.298265695571899</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6907,7 +6963,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -6986,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="V73" t="n">
-        <v>4.371141530611843</v>
+        <v>4.37114143371582</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -6995,7 +7051,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7130,7 @@
         <v>4</v>
       </c>
       <c r="V74" t="n">
-        <v>3.649215451930979</v>
+        <v>3.649215459823608</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -7083,7 +7139,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7162,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>3.38901956407039</v>
+        <v>3.38901948928833</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7171,7 +7227,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="V76" t="n">
-        <v>3.055382846999021</v>
+        <v>3.05538272857666</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
@@ -7259,7 +7315,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="V77" t="n">
-        <v>3.477397964044639</v>
+        <v>3.477397918701172</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -7347,7 +7403,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7441,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>0.9852281360342515</v>
@@ -7426,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="V78" t="n">
-        <v>3.390831725678837</v>
+        <v>3.390831708908081</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7435,7 +7491,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7514,7 +7570,7 @@
         <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>2.528296266090024</v>
+        <v>2.528296232223511</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -7523,7 +7579,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7602,20 +7658,20 @@
         <v>4</v>
       </c>
       <c r="V80" t="n">
-        <v>2.614056892639822</v>
+        <v>2.614056825637817</v>
       </c>
       <c r="W80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X80" t="n">
-        <v>0.4278987721304084</v>
+        <v>0.5391625613581763</v>
       </c>
       <c r="Y80" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.292087</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7750,7 @@
         <v>4</v>
       </c>
       <c r="V81" t="n">
-        <v>4.490177666902133</v>
+        <v>4.490177631378174</v>
       </c>
       <c r="W81" t="n">
         <v>2</v>
@@ -7707,7 +7763,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -7786,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="V82" t="n">
-        <v>3.654120974688201</v>
+        <v>3.654120922088623</v>
       </c>
       <c r="W82" t="n">
         <v>0</v>
@@ -7795,7 +7851,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -7874,20 +7930,20 @@
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>4.631079724433871</v>
+        <v>4.63107967376709</v>
       </c>
       <c r="W83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.5689067697356303</v>
+        <v>0.5636029531844986</v>
       </c>
       <c r="Y83" t="n">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -7925,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -7966,7 +8022,7 @@
         <v>4</v>
       </c>
       <c r="V84" t="n">
-        <v>5.10365950990722</v>
+        <v>5.103659629821777</v>
       </c>
       <c r="W84" t="n">
         <v>2</v>
@@ -7979,7 +8035,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8058,7 +8114,7 @@
         <v>4</v>
       </c>
       <c r="V85" t="n">
-        <v>3.427791132008736</v>
+        <v>3.427791118621826</v>
       </c>
       <c r="W85" t="n">
         <v>2</v>
@@ -8071,7 +8127,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8150,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="V86" t="n">
-        <v>1.889388633827739</v>
+        <v>1.889388680458069</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -8159,7 +8215,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8238,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="V87" t="n">
-        <v>2.716722982404087</v>
+        <v>2.716722965240479</v>
       </c>
       <c r="W87" t="n">
         <v>1</v>
@@ -8251,7 +8307,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="V88" t="n">
-        <v>2.393057688705174</v>
+        <v>2.393057584762573</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8339,7 +8395,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8418,7 +8474,7 @@
         <v>4</v>
       </c>
       <c r="V89" t="n">
-        <v>2.11119001503217</v>
+        <v>2.1111900806427</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -8427,7 +8483,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -8506,16 +8562,20 @@
         <v>4</v>
       </c>
       <c r="V90" t="n">
-        <v>3.077072505807046</v>
+        <v>3.077072620391846</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
-      </c>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.5523239230657435</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>180</v>
+      </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8594,16 +8654,20 @@
         <v>4</v>
       </c>
       <c r="V91" t="n">
-        <v>2.247038057270672</v>
+        <v>2.247038125991821</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.576527268637868</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>297</v>
+      </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.293091</t>
         </is>
       </c>
     </row>
@@ -8682,7 +8746,7 @@
         <v>4</v>
       </c>
       <c r="V92" t="n">
-        <v>5.271964131558878</v>
+        <v>5.271964073181152</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8691,7 +8755,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.294088</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8834,7 @@
         <v>4</v>
       </c>
       <c r="V93" t="n">
-        <v>3.539912713262446</v>
+        <v>3.539912700653076</v>
       </c>
       <c r="W93" t="n">
         <v>1</v>
@@ -8783,7 +8847,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.294088</t>
         </is>
       </c>
     </row>
@@ -8862,20 +8926,20 @@
         <v>4</v>
       </c>
       <c r="V94" t="n">
-        <v>3.050092201715358</v>
+        <v>3.050092220306396</v>
       </c>
       <c r="W94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X94" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4834822006297558</v>
       </c>
       <c r="Y94" t="n">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.294088</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -8954,7 +9018,7 @@
         <v>4</v>
       </c>
       <c r="V95" t="n">
-        <v>2.195721571199591</v>
+        <v>2.195721626281738</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8963,7 +9027,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.295090</t>
         </is>
       </c>
     </row>
@@ -9042,7 +9106,7 @@
         <v>4</v>
       </c>
       <c r="V96" t="n">
-        <v>3.631736940705085</v>
+        <v>3.631736993789673</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -9051,7 +9115,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.295090</t>
         </is>
       </c>
     </row>
@@ -9130,20 +9194,20 @@
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>2.393057688705174</v>
+        <v>2.393057584762573</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>0.573235229154987</v>
+        <v>0.5614880310328125</v>
       </c>
       <c r="Y97" t="n">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.977262</t>
+          <t>2025-10-29T23:38:14.295090</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -9222,7 +9286,7 @@
         <v>4</v>
       </c>
       <c r="V98" t="n">
-        <v>3.055050099113476</v>
+        <v>3.055050134658813</v>
       </c>
       <c r="W98" t="n">
         <v>1</v>
@@ -9235,7 +9299,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.295090</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -9314,7 +9378,7 @@
         <v>4</v>
       </c>
       <c r="V99" t="n">
-        <v>3.553186791519304</v>
+        <v>3.553186893463135</v>
       </c>
       <c r="W99" t="n">
         <v>1</v>
@@ -9327,7 +9391,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.295090</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9470,7 @@
         <v>4</v>
       </c>
       <c r="V100" t="n">
-        <v>2.409832158239197</v>
+        <v>2.409832239151001</v>
       </c>
       <c r="W100" t="n">
         <v>1</v>
@@ -9419,7 +9483,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.296093</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9521,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L101" t="n">
         <v>0.5916727785823274</v>
@@ -9498,7 +9562,7 @@
         <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>2.639020714618178</v>
+        <v>2.639020681381226</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -9507,7 +9571,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.296093</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9650,7 @@
         <v>4</v>
       </c>
       <c r="V102" t="n">
-        <v>2.648480710377591</v>
+        <v>2.648480653762817</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -9595,7 +9659,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.296093</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9738,7 @@
         <v>4</v>
       </c>
       <c r="V103" t="n">
-        <v>5.83202896067018</v>
+        <v>5.832028865814209</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
@@ -9683,7 +9747,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.296093</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>2.716722982404087</v>
+        <v>2.716722965240479</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9771,7 +9835,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.297091</t>
         </is>
       </c>
     </row>
@@ -9809,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -9850,7 +9914,7 @@
         <v>4</v>
       </c>
       <c r="V105" t="n">
-        <v>3.594722185077816</v>
+        <v>3.594722270965576</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
@@ -9859,7 +9923,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.297091</t>
         </is>
       </c>
     </row>
@@ -9938,7 +10002,7 @@
         <v>4</v>
       </c>
       <c r="V106" t="n">
-        <v>5.423289001946403</v>
+        <v>5.423288822174072</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
@@ -9947,7 +10011,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.297091</t>
         </is>
       </c>
     </row>
@@ -9985,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10026,7 +10090,7 @@
         <v>4</v>
       </c>
       <c r="V107" t="n">
-        <v>4.063030501720379</v>
+        <v>4.06303071975708</v>
       </c>
       <c r="W107" t="n">
         <v>1</v>
@@ -10039,7 +10103,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.298240</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10182,7 @@
         <v>4</v>
       </c>
       <c r="V108" t="n">
-        <v>3.135686835290813</v>
+        <v>3.135686874389648</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -10127,7 +10191,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.298240</t>
         </is>
       </c>
     </row>
@@ -10165,7 +10229,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L109" t="n">
         <v>0.8631205685666311</v>
@@ -10206,7 +10270,7 @@
         <v>4</v>
       </c>
       <c r="V109" t="n">
-        <v>2.419034017600436</v>
+        <v>2.419034004211426</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10215,7 +10279,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.299245</t>
         </is>
       </c>
     </row>
@@ -10294,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="V110" t="n">
-        <v>3.260327436467227</v>
+        <v>3.260327339172363</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
@@ -10303,7 +10367,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.299245</t>
         </is>
       </c>
     </row>
@@ -10382,7 +10446,7 @@
         <v>4</v>
       </c>
       <c r="V111" t="n">
-        <v>3.58680957171517</v>
+        <v>3.586809635162354</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -10391,7 +10455,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.299245</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10534,7 @@
         <v>4</v>
       </c>
       <c r="V112" t="n">
-        <v>2.937593823821612</v>
+        <v>2.937593936920166</v>
       </c>
       <c r="W112" t="n">
         <v>0</v>
@@ -10479,7 +10543,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.299245</t>
         </is>
       </c>
     </row>
@@ -10558,20 +10622,20 @@
         <v>4</v>
       </c>
       <c r="V113" t="n">
-        <v>2.648480710377591</v>
+        <v>2.648480653762817</v>
       </c>
       <c r="W113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X113" t="n">
-        <v>0.5859395304685147</v>
+        <v>0.5632863746438768</v>
       </c>
       <c r="Y113" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.299245</t>
         </is>
       </c>
     </row>
@@ -10609,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -10650,7 +10714,7 @@
         <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>2.952835633971183</v>
+        <v>2.952835559844971</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -10659,7 +10723,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="V115" t="n">
-        <v>1.942150011874695</v>
+        <v>1.942149996757507</v>
       </c>
       <c r="W115" t="n">
         <v>1</v>
@@ -10751,7 +10815,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.979924</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -10830,7 +10894,7 @@
         <v>4</v>
       </c>
       <c r="V116" t="n">
-        <v>2.590169158330843</v>
+        <v>2.590169191360474</v>
       </c>
       <c r="W116" t="n">
         <v>1</v>
@@ -10843,7 +10907,7 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -10922,7 +10986,7 @@
         <v>4</v>
       </c>
       <c r="V117" t="n">
-        <v>3.204414368683929</v>
+        <v>3.204414367675781</v>
       </c>
       <c r="W117" t="n">
         <v>1</v>
@@ -10935,7 +10999,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -10973,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -11014,7 +11078,7 @@
         <v>4</v>
       </c>
       <c r="V118" t="n">
-        <v>4.359033058455959</v>
+        <v>4.359033107757568</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
@@ -11023,7 +11087,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11102,20 +11166,20 @@
         <v>4</v>
       </c>
       <c r="V119" t="n">
-        <v>5.077481554787667</v>
+        <v>5.077481746673584</v>
       </c>
       <c r="W119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X119" t="n">
-        <v>0.4732723686587383</v>
+        <v>0.4066101465801097</v>
       </c>
       <c r="Y119" t="n">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -11194,7 +11258,7 @@
         <v>4</v>
       </c>
       <c r="V120" t="n">
-        <v>3.055382846999021</v>
+        <v>3.05538272857666</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
@@ -11203,7 +11267,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11346,7 @@
         <v>4</v>
       </c>
       <c r="V121" t="n">
-        <v>2.412684371307054</v>
+        <v>2.412684440612793</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
@@ -11291,7 +11355,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -11329,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -11370,7 +11434,7 @@
         <v>4</v>
       </c>
       <c r="V122" t="n">
-        <v>4.904294735973747</v>
+        <v>4.904294967651367</v>
       </c>
       <c r="W122" t="n">
         <v>0</v>
@@ -11379,7 +11443,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11481,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>0.5916727785823274</v>
@@ -11458,7 +11522,7 @@
         <v>4</v>
       </c>
       <c r="V123" t="n">
-        <v>2.118784059684008</v>
+        <v>2.118783950805664</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
@@ -11467,7 +11531,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.300247</t>
         </is>
       </c>
     </row>
@@ -11546,7 +11610,7 @@
         <v>4</v>
       </c>
       <c r="V124" t="n">
-        <v>4.240592642697917</v>
+        <v>4.240592479705811</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
@@ -11555,7 +11619,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.301243</t>
         </is>
       </c>
     </row>
@@ -11634,20 +11698,20 @@
         <v>4</v>
       </c>
       <c r="V125" t="n">
-        <v>3.895752985868624</v>
+        <v>3.895752906799316</v>
       </c>
       <c r="W125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X125" t="n">
-        <v>0.5815132947852186</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y125" t="n">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.301243</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11749,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K126" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L126" t="n">
         <v>0.5916727785823274</v>
@@ -11726,7 +11790,7 @@
         <v>4</v>
       </c>
       <c r="V126" t="n">
-        <v>2.163112610938815</v>
+        <v>2.163112640380859</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
@@ -11735,7 +11799,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.301243</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -11814,16 +11878,20 @@
         <v>4</v>
       </c>
       <c r="V127" t="n">
-        <v>3.329940945213353</v>
+        <v>3.329941034317017</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.4455870325083883</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>107</v>
+      </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.301243</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11970,7 @@
         <v>4</v>
       </c>
       <c r="V128" t="n">
-        <v>1.972519067205562</v>
+        <v>1.972519040107727</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
@@ -11911,7 +11979,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.301243</t>
         </is>
       </c>
     </row>
@@ -11949,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -11990,7 +12058,7 @@
         <v>4</v>
       </c>
       <c r="V129" t="n">
-        <v>4.440910211003738</v>
+        <v>4.440910339355469</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
@@ -11999,7 +12067,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.302245</t>
         </is>
       </c>
     </row>
@@ -12078,20 +12146,20 @@
         <v>4</v>
       </c>
       <c r="V130" t="n">
-        <v>3.516063611962141</v>
+        <v>3.516063690185547</v>
       </c>
       <c r="W130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X130" t="n">
-        <v>0.5416145155592091</v>
+        <v>0.4036150727231042</v>
       </c>
       <c r="Y130" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.302245</t>
         </is>
       </c>
     </row>
@@ -12170,16 +12238,20 @@
         <v>4</v>
       </c>
       <c r="V131" t="n">
-        <v>3.074729324461126</v>
+        <v>3.074729442596436</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>229</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.303244</t>
         </is>
       </c>
     </row>
@@ -12258,7 +12330,7 @@
         <v>4</v>
       </c>
       <c r="V132" t="n">
-        <v>2.655466300691629</v>
+        <v>2.655466318130493</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
@@ -12267,7 +12339,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.303244</t>
         </is>
       </c>
     </row>
@@ -12346,7 +12418,7 @@
         <v>4</v>
       </c>
       <c r="V133" t="n">
-        <v>2.583285074911261</v>
+        <v>2.583285093307495</v>
       </c>
       <c r="W133" t="n">
         <v>4</v>
@@ -12359,7 +12431,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.980943</t>
+          <t>2025-10-29T23:38:14.303244</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -12438,20 +12510,20 @@
         <v>4</v>
       </c>
       <c r="V134" t="n">
-        <v>3.849987396615937</v>
+        <v>3.849987506866455</v>
       </c>
       <c r="W134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X134" t="n">
-        <v>0.5774425485152653</v>
+        <v>0.516137324287291</v>
       </c>
       <c r="Y134" t="n">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.303244</t>
         </is>
       </c>
     </row>
@@ -12530,16 +12602,20 @@
         <v>4</v>
       </c>
       <c r="V135" t="n">
-        <v>3.845773675909803</v>
+        <v>3.845773696899414</v>
       </c>
       <c r="W135" t="n">
-        <v>0</v>
-      </c>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0.4727259204758588</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>393</v>
+      </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.303244</t>
         </is>
       </c>
     </row>
@@ -12577,7 +12653,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K136" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L136" t="n">
         <v>0.9852281360342515</v>
@@ -12618,7 +12694,7 @@
         <v>4</v>
       </c>
       <c r="V136" t="n">
-        <v>2.472656346422046</v>
+        <v>2.47265625</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
@@ -12627,7 +12703,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.304242</t>
         </is>
       </c>
     </row>
@@ -12665,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -12706,7 +12782,7 @@
         <v>4</v>
       </c>
       <c r="V137" t="n">
-        <v>5.12409239385062</v>
+        <v>5.124092578887939</v>
       </c>
       <c r="W137" t="n">
         <v>1</v>
@@ -12719,7 +12795,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.304242</t>
         </is>
       </c>
     </row>
@@ -12798,7 +12874,7 @@
         <v>4</v>
       </c>
       <c r="V138" t="n">
-        <v>2.202156882259307</v>
+        <v>2.202156782150269</v>
       </c>
       <c r="W138" t="n">
         <v>1</v>
@@ -12811,7 +12887,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.304242</t>
         </is>
       </c>
     </row>
@@ -12890,7 +12966,7 @@
         <v>4</v>
       </c>
       <c r="V139" t="n">
-        <v>3.047569939027513</v>
+        <v>3.047569990158081</v>
       </c>
       <c r="W139" t="n">
         <v>2</v>
@@ -12903,7 +12979,7 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.305242</t>
         </is>
       </c>
     </row>
@@ -12982,7 +13058,7 @@
         <v>4</v>
       </c>
       <c r="V140" t="n">
-        <v>3.933206306173607</v>
+        <v>3.93320631980896</v>
       </c>
       <c r="W140" t="n">
         <v>1</v>
@@ -12995,7 +13071,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.305242</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13074,16 +13150,20 @@
         <v>4</v>
       </c>
       <c r="V141" t="n">
-        <v>3.311416016762584</v>
+        <v>3.311415910720825</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
-      </c>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0.5946021109504891</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>344</v>
+      </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.305242</t>
         </is>
       </c>
     </row>
@@ -13121,7 +13201,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K142" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13162,7 +13242,7 @@
         <v>4</v>
       </c>
       <c r="V142" t="n">
-        <v>3.590182582069499</v>
+        <v>3.590182542800903</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
@@ -13171,7 +13251,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.305242</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -13250,7 +13330,7 @@
         <v>4</v>
       </c>
       <c r="V143" t="n">
-        <v>3.018231940192769</v>
+        <v>3.018231868743896</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
@@ -13259,7 +13339,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.306244</t>
         </is>
       </c>
     </row>
@@ -13338,16 +13418,20 @@
         <v>4</v>
       </c>
       <c r="V144" t="n">
-        <v>3.209714930583075</v>
+        <v>3.209714889526367</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
-      </c>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.5880266884915557</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>96</v>
+      </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.306244</t>
         </is>
       </c>
     </row>
@@ -13385,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13426,16 +13510,20 @@
         <v>4</v>
       </c>
       <c r="V145" t="n">
-        <v>3.028637576344792</v>
+        <v>3.028637647628784</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
-      </c>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0.5570681302227887</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>232</v>
+      </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.306244</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13602,7 @@
         <v>4</v>
       </c>
       <c r="V146" t="n">
-        <v>6.283157893934959</v>
+        <v>6.283157825469971</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
@@ -13523,7 +13611,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.306244</t>
         </is>
       </c>
     </row>
@@ -13561,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13602,16 +13690,20 @@
         <v>4</v>
       </c>
       <c r="V147" t="n">
-        <v>3.145746562510539</v>
+        <v>3.145746469497681</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
-      </c>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0.4530404735363451</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>378</v>
+      </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.307246</t>
         </is>
       </c>
     </row>
@@ -13649,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -13690,16 +13782,20 @@
         <v>4</v>
       </c>
       <c r="V148" t="n">
-        <v>2.728515275478682</v>
+        <v>2.728515386581421</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.4521658349660818</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>53</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.981941</t>
+          <t>2025-10-29T23:38:14.307246</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -13778,7 +13874,7 @@
         <v>4</v>
       </c>
       <c r="V149" t="n">
-        <v>2.970996528697931</v>
+        <v>2.970996618270874</v>
       </c>
       <c r="W149" t="n">
         <v>0</v>
@@ -13787,7 +13883,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.982932</t>
+          <t>2025-10-29T23:38:14.307246</t>
         </is>
       </c>
     </row>
@@ -13866,16 +13962,20 @@
         <v>4</v>
       </c>
       <c r="V150" t="n">
-        <v>2.900296912943146</v>
+        <v>2.900296926498413</v>
       </c>
       <c r="W150" t="n">
-        <v>0</v>
-      </c>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0.5037581243486732</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>175</v>
+      </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.982932</t>
+          <t>2025-10-29T23:38:14.307246</t>
         </is>
       </c>
     </row>
@@ -13913,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -13954,16 +14054,20 @@
         <v>4</v>
       </c>
       <c r="V151" t="n">
-        <v>3.369989561296817</v>
+        <v>3.369989633560181</v>
       </c>
       <c r="W151" t="n">
-        <v>0</v>
-      </c>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0.4557742705184364</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>172</v>
+      </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:07.982932</t>
+          <t>2025-10-29T23:38:14.308246</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D25_R50_Pentropia.xlsx
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,11 +612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.988626</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -741,13 +741,17 @@
         <v>3.864998698234558</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5135400655639983</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>444</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.989199</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -774,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -829,13 +833,17 @@
         <v>2.847762703895569</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>377</v>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.989199</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -862,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -876,7 +884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -917,17 +925,13 @@
         <v>18.29147052764893</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.989780</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -944,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -954,7 +958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -968,11 +972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1015,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.990352</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1042,7 +1046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1056,11 +1060,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1097,13 +1101,17 @@
         <v>2.021633386611938</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5495437547794828</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>346</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.990352</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1144,7 +1152,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1191,7 +1199,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.990926</t>
+          <t>2025-11-13T06:51:28.956759</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1226,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1232,7 +1240,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1273,13 +1281,17 @@
         <v>3.232072234153748</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4868788731020857</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>61</v>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.990926</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1320,7 +1332,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1361,17 +1373,13 @@
         <v>4.279626369476318</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.4388760067989746</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.991468</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1406,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1412,7 +1420,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1459,7 +1467,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.992032</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1494,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1500,7 +1508,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1541,17 +1549,17 @@
         <v>3.247521758079529</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4543085831639484</v>
+        <v>0.5470432238481544</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.992032</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1586,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1592,7 +1600,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1633,13 +1641,17 @@
         <v>17.15424919128418</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5424541179848884</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>268</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.992589</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1678,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1680,7 +1692,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1727,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.993106</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1766,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1768,7 +1780,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1809,17 +1821,17 @@
         <v>2.979988813400269</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4090454577821077</v>
       </c>
       <c r="Y15" t="n">
         <v>33</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.993261</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1858,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1860,7 +1872,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1901,17 +1913,17 @@
         <v>3.7317134141922</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y16" t="n">
         <v>283</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.993826</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1950,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1952,7 +1964,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -1993,17 +2005,13 @@
         <v>8.241034507751465</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5022684797721876</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.993826</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2044,7 +2052,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2085,17 +2093,13 @@
         <v>2.455918312072754</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.4090454577821077</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.994383</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -2122,7 +2126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2136,11 +2140,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2177,13 +2181,17 @@
         <v>2.903743863105774</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5884403511369705</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>65</v>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.994943</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -2210,7 +2218,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2224,11 +2232,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2271,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.994943</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2298,7 +2306,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2312,7 +2320,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2353,17 +2361,17 @@
         <v>1.787505567073822</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4141881833999855</v>
       </c>
       <c r="Y21" t="n">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.995503</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2398,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2404,7 +2412,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2445,13 +2453,17 @@
         <v>3.109677195549011</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5153807769252718</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.996019</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2490,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2492,7 +2504,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2539,7 +2551,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.996063</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2566,7 +2578,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2580,11 +2592,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2627,7 +2639,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.996618</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2668,7 +2680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -2709,17 +2721,17 @@
         <v>2.019299268722534</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5884403511369705</v>
+        <v>0.5230014453398339</v>
       </c>
       <c r="Y25" t="n">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.996618</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2760,7 +2772,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -2801,13 +2813,17 @@
         <v>5.379607200622559</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5872309548321561</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>371</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.997175</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2834,7 +2850,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2848,11 +2864,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2889,13 +2905,17 @@
         <v>2.081863641738892</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.4512413887188916</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7</v>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:29.998730</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2942,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2936,7 +2956,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -2983,7 +3003,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.000438</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -3010,7 +3030,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3024,11 +3044,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -3065,13 +3085,17 @@
         <v>3.506299138069153</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.4436880874433667</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>281</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.000438</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3122,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3112,7 +3136,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -3153,17 +3177,17 @@
         <v>2.142898440361023</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5153807769252718</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y30" t="n">
-        <v>395</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.001023</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3204,7 +3228,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3245,17 +3269,13 @@
         <v>2.036471724510193</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.4863890037284231</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.001023</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3296,7 +3316,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3343,7 +3363,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.001589</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3384,7 +3404,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3428,14 +3448,14 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5230014453398339</v>
+        <v>0.493119603626492</v>
       </c>
       <c r="Y33" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.001589</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3482,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3476,7 +3496,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3517,13 +3537,17 @@
         <v>2.848228096961975</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.501762815367752</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>184</v>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.001589</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3550,7 +3574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3564,11 +3588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3611,7 +3635,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.002259</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3662,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3652,7 +3676,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
@@ -3693,17 +3717,13 @@
         <v>4.0845627784729</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4512413887188916</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.002259</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3750,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3744,7 +3764,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3791,7 +3811,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.002825</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3838,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3832,7 +3852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3873,17 +3893,17 @@
         <v>2.66642689704895</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.4856368296634629</v>
       </c>
       <c r="Y38" t="n">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.002825</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3924,7 +3944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
@@ -3965,17 +3985,13 @@
         <v>4.571045398712158</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.003433</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4018,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4016,7 +4032,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4057,13 +4073,17 @@
         <v>2.738109350204468</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4593020287295597</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>406</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.003433</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -4090,7 +4110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4104,11 +4124,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -4145,13 +4165,17 @@
         <v>2.16313362121582</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4777354579378964</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>241</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.003433</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4192,7 +4216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
@@ -4233,13 +4257,17 @@
         <v>2.806650519371033</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>293</v>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.003433</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4280,7 +4308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
@@ -4327,7 +4355,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.004365</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4382,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4368,7 +4396,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4409,17 +4437,13 @@
         <v>3.636664748191833</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.4148089303468181</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.004365</t>
+          <t>2025-11-13T06:51:28.964777</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4470,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4460,7 +4484,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4501,17 +4525,13 @@
         <v>3.034366965293884</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.5320394753435462</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.005366</t>
+          <t>2025-11-13T06:51:28.969989</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4552,7 +4572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4599,7 +4619,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.005691</t>
+          <t>2025-11-13T06:51:28.970199</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4646,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4640,7 +4660,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4687,7 +4707,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006217</t>
+          <t>2025-11-13T06:51:28.970713</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4728,7 +4748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4769,17 +4789,13 @@
         <v>3.8158860206604</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.4377414216682759</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006475</t>
+          <t>2025-11-13T06:51:28.970713</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4822,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4820,7 +4836,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4864,14 +4880,14 @@
         <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5264611661187159</v>
+        <v>0.5116586907214196</v>
       </c>
       <c r="Y49" t="n">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006475</t>
+          <t>2025-11-13T06:51:28.970713</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4912,7 +4928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -4953,13 +4969,17 @@
         <v>2.735380530357361</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.5989101021594682</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>411</v>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006991</t>
+          <t>2025-11-13T06:51:28.970713</t>
         </is>
       </c>
     </row>
@@ -4986,7 +5006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5000,7 +5020,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5041,17 +5061,13 @@
         <v>3.15588116645813</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.4777354579378964</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006991</t>
+          <t>2025-11-13T06:51:28.970713</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5094,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5092,7 +5108,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5136,14 +5152,14 @@
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.4900998503939086</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006991</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5186,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5184,7 +5200,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5228,14 +5244,14 @@
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>0.44571000435946</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y53" t="n">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.006991</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -5262,7 +5278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5276,11 +5292,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -5317,13 +5333,17 @@
         <v>3.47460675239563</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>390</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.008008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -5350,7 +5370,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5364,11 +5384,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -5405,13 +5425,17 @@
         <v>2.219000458717346</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.4690142496053366</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>416</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.008008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5462,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5452,7 +5476,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
@@ -5493,17 +5517,13 @@
         <v>5.428624868392944</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4593020287295597</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.008008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5550,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5544,7 +5564,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5585,17 +5605,13 @@
         <v>3.475237488746643</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.4790300472003629</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.008008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5622,7 +5638,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5636,11 +5652,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -5683,7 +5699,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.008008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5726,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5724,7 +5740,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
@@ -5765,13 +5781,17 @@
         <v>7.668370008468628</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.4074696377498429</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>120</v>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.009008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5798,7 +5818,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5812,11 +5832,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -5859,7 +5879,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.009008</t>
+          <t>2025-11-13T06:51:28.971719</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5906,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5900,7 +5920,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
@@ -5944,14 +5964,14 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>0.5766988044532517</v>
+        <v>0.4483704581800904</v>
       </c>
       <c r="Y61" t="n">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.009008</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5998,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5992,7 +6012,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -6033,13 +6053,17 @@
         <v>5.035804033279419</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5144008398418366</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>141</v>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.009008</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6080,7 +6104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6124,14 +6148,14 @@
         <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>0.473293756916572</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y63" t="n">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.010009</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6172,7 +6196,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6216,14 +6240,14 @@
         <v>2</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.5677867004138727</v>
       </c>
       <c r="Y64" t="n">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.010009</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6264,7 +6288,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6308,14 +6332,14 @@
         <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4623422152178822</v>
+        <v>0.4092900825439996</v>
       </c>
       <c r="Y65" t="n">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.010009</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6366,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6356,7 +6380,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6397,17 +6421,13 @@
         <v>2.898029208183289</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.4675230342807256</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.010009</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6448,7 +6468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6489,17 +6509,13 @@
         <v>2.190554141998291</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0.5939073734228317</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.010009</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -6526,7 +6542,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6540,11 +6556,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="b">
         <v>1</v>
@@ -6587,7 +6603,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.010009</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6630,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6628,7 +6644,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6669,17 +6685,13 @@
         <v>6.16321587562561</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0.4895566329146183</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.011008</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6718,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6720,7 +6732,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
@@ -6761,17 +6773,13 @@
         <v>2.700364351272583</v>
       </c>
       <c r="W70" t="n">
-        <v>4</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.5860033669621664</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.011008</t>
+          <t>2025-11-13T06:51:28.972715</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6806,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6812,7 +6820,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6853,13 +6861,17 @@
         <v>3.648892879486084</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.425412102530377</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>293</v>
+      </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.011008</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6898,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6900,7 +6912,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -6941,13 +6953,17 @@
         <v>2.320841431617737</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>293</v>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.011008</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6990,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6988,7 +7004,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7032,14 +7048,14 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5596590357933551</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y73" t="n">
         <v>326</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.011008</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7082,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7080,7 +7096,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7121,17 +7137,13 @@
         <v>3.194457292556763</v>
       </c>
       <c r="W74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.4074696377498429</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.012008</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7170,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7172,7 +7184,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7213,17 +7225,13 @@
         <v>2.848981857299805</v>
       </c>
       <c r="W75" t="n">
-        <v>1</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0.4807672342116082</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.012008</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7258,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7264,7 +7272,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7305,13 +7313,17 @@
         <v>2.458168148994446</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4323257428189228</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>286</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.012546</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7350,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7352,7 +7364,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7393,17 +7405,13 @@
         <v>2.716602325439453</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.5144008398418366</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.012546</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7438,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7444,7 +7452,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7485,17 +7493,13 @@
         <v>3.182361006736755</v>
       </c>
       <c r="W78" t="n">
-        <v>3</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.5376999801530733</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.012546</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7526,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7536,7 +7540,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7577,17 +7581,13 @@
         <v>3.13527238368988</v>
       </c>
       <c r="W79" t="n">
-        <v>4</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0.4877942841411272</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.013062</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -7614,7 +7614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7628,11 +7628,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="b">
         <v>1</v>
@@ -7675,7 +7675,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.013062</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7757,17 +7757,13 @@
         <v>2.348569869995117</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.013062</t>
+          <t>2025-11-13T06:51:28.973710</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -7794,7 +7790,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7808,11 +7804,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="b">
         <v>1</v>
@@ -7855,7 +7851,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.013062</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7882,7 +7878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7896,11 +7892,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="b">
         <v>1</v>
@@ -7937,13 +7933,17 @@
         <v>2.063066363334656</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.5383790395385386</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>135</v>
+      </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.013062</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -7970,7 +7970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8025,17 +8025,13 @@
         <v>4.236417770385742</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
-      </c>
-      <c r="X84" t="n">
-        <v>0.577323429790132</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.014079</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8058,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8076,7 +8072,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8117,13 +8113,17 @@
         <v>4.380986452102661</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.4648690042010548</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>29</v>
+      </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.014079</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -8150,7 +8150,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8164,11 +8164,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="b">
         <v>1</v>
@@ -8211,7 +8211,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.017083</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8238,7 +8238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8252,11 +8252,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8293,13 +8293,17 @@
         <v>3.134974718093872</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.4508327298139478</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>147</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.018085</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8340,7 +8344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8381,17 +8385,13 @@
         <v>2.722260475158691</v>
       </c>
       <c r="W88" t="n">
-        <v>1</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0.5113602524916701</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.018085</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8473,17 +8473,17 @@
         <v>3.729132533073425</v>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0.4987787430366869</v>
+        <v>0.5202230023486417</v>
       </c>
       <c r="Y89" t="n">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.019465</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8524,11 +8524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="b">
         <v>1</v>
@@ -8571,7 +8571,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.019465</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8653,13 +8653,17 @@
         <v>2.292493104934692</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>43</v>
+      </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.020067</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8700,7 +8704,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8741,17 +8745,13 @@
         <v>2.465856075286865</v>
       </c>
       <c r="W92" t="n">
-        <v>2</v>
-      </c>
-      <c r="X92" t="n">
-        <v>0.425412102530377</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.020067</t>
+          <t>2025-11-13T06:51:28.974710</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8836,14 +8836,14 @@
         <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y93" t="n">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.021144</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -8928,14 +8928,14 @@
         <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4321616102834998</v>
       </c>
       <c r="Y94" t="n">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.021144</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -8962,7 +8962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9023,7 +9023,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.021144</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9105,13 +9105,17 @@
         <v>4.461112976074219</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5960663167432091</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>208</v>
+      </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.022164</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9152,7 +9156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9193,17 +9197,17 @@
         <v>3.251365065574646</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y97" t="n">
         <v>136</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.022164</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -9230,7 +9234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9244,11 +9248,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="b">
         <v>1</v>
@@ -9291,7 +9295,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.023165</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9332,7 +9336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9379,7 +9383,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.023165</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9410,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9420,7 +9424,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9461,13 +9465,17 @@
         <v>2.211987257003784</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.5451911357740479</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>286</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.024164</t>
+          <t>2025-11-13T06:51:28.975710</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9502,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9508,7 +9516,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9555,7 +9563,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.025164</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9590,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9596,7 +9604,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
@@ -9637,13 +9645,17 @@
         <v>2.74618661403656</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
-      </c>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>179</v>
+      </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.025164</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9682,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9684,7 +9696,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9731,7 +9743,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.026163</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9772,7 +9784,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9813,13 +9825,17 @@
         <v>5.411996126174927</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
-      </c>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>170</v>
+      </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.026163</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9862,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -9860,7 +9876,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
@@ -9901,17 +9917,17 @@
         <v>3.214111328125</v>
       </c>
       <c r="W105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X105" t="n">
-        <v>0.5383790395385386</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y105" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.026163</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9954,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -9952,7 +9968,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
@@ -9999,7 +10015,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.027163</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10042,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10040,7 +10056,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10081,17 +10097,13 @@
         <v>2.050779163837433</v>
       </c>
       <c r="W107" t="n">
-        <v>1</v>
-      </c>
-      <c r="X107" t="n">
-        <v>0.4648690042010548</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.027163</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10130,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10132,7 +10144,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10173,13 +10185,17 @@
         <v>3.249354004859924</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>110</v>
+      </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.027163</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10222,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10220,7 +10236,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
@@ -10261,17 +10277,13 @@
         <v>2.169737458229065</v>
       </c>
       <c r="W109" t="n">
-        <v>2</v>
-      </c>
-      <c r="X109" t="n">
-        <v>0.493119603626492</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.028162</t>
+          <t>2025-11-13T06:51:28.976710</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10310,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10312,7 +10324,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10359,7 +10371,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.028162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10398,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10400,7 +10412,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10441,17 +10453,13 @@
         <v>3.238019347190857</v>
       </c>
       <c r="W111" t="n">
-        <v>1</v>
-      </c>
-      <c r="X111" t="n">
-        <v>0.5202230023486417</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.028162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10486,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10492,7 +10500,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10539,7 +10547,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.029162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -10566,7 +10574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10580,11 +10588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="b">
         <v>1</v>
@@ -10621,13 +10629,17 @@
         <v>2.208970308303833</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.5327003538216112</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>108</v>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.029162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -10668,7 +10680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="b">
@@ -10709,17 +10721,17 @@
         <v>2.446838736534119</v>
       </c>
       <c r="W114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X114" t="n">
-        <v>0.436866734866274</v>
+        <v>0.5005358046457723</v>
       </c>
       <c r="Y114" t="n">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.029162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10736,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -10746,7 +10758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -10760,11 +10772,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="b">
         <v>1</v>
@@ -10807,7 +10819,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.030162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10834,7 +10846,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -10848,7 +10860,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="b">
@@ -10895,7 +10907,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.030162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -10922,7 +10934,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -10936,7 +10948,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="b">
@@ -10977,17 +10989,17 @@
         <v>3.366743445396423</v>
       </c>
       <c r="W117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X117" t="n">
-        <v>0.4187963879681738</v>
+        <v>0.4770195457203851</v>
       </c>
       <c r="Y117" t="n">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.030162</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -11014,7 +11026,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -11028,7 +11040,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="b">
@@ -11069,17 +11081,13 @@
         <v>4.427846670150757</v>
       </c>
       <c r="W118" t="n">
-        <v>2</v>
-      </c>
-      <c r="X118" t="n">
-        <v>0.510552993367098</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.035168</t>
+          <t>2025-11-13T06:51:28.977710</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11114,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -11120,7 +11128,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="b">
@@ -11161,17 +11169,13 @@
         <v>4.879163980484009</v>
       </c>
       <c r="W119" t="n">
-        <v>1</v>
-      </c>
-      <c r="X119" t="n">
-        <v>0.5274859802996413</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.036168</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -11212,7 +11216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="b">
@@ -11256,14 +11260,14 @@
         <v>1</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5960663167432091</v>
+        <v>0.497348430591891</v>
       </c>
       <c r="Y120" t="n">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.037166</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -11290,7 +11294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -11304,11 +11308,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L121" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="b">
         <v>1</v>
@@ -11345,13 +11349,17 @@
         <v>2.818434000015259</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
-      </c>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.5284063292308575</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>223</v>
+      </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.037166</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -11378,7 +11386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -11392,11 +11400,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="b">
         <v>1</v>
@@ -11433,13 +11441,17 @@
         <v>2.236281871795654</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
-      </c>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>21</v>
+      </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.038166</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -11480,7 +11492,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="b">
@@ -11521,17 +11533,17 @@
         <v>3.031773328781128</v>
       </c>
       <c r="W123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.4199949831636006</v>
       </c>
       <c r="Y123" t="n">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.038166</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -11558,7 +11570,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -11572,11 +11584,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="b">
         <v>1</v>
@@ -11613,13 +11625,17 @@
         <v>3.063225507736206</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0.5456432697223719</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>295</v>
+      </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.038166</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11662,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -11660,7 +11676,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="b">
@@ -11704,14 +11720,14 @@
         <v>1</v>
       </c>
       <c r="X125" t="n">
-        <v>0.4641560129943472</v>
+        <v>0.4281848449949526</v>
       </c>
       <c r="Y125" t="n">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.039164</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -11738,7 +11754,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -11752,11 +11768,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="b">
         <v>1</v>
@@ -11799,7 +11815,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.039164</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11842,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -11840,7 +11856,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="b">
@@ -11887,7 +11903,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.039164</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -11914,7 +11930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -11928,7 +11944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="b">
@@ -11969,17 +11985,13 @@
         <v>2.671683430671692</v>
       </c>
       <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0.5451911357740479</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.040165</t>
+          <t>2025-11-13T06:51:28.978710</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12018,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -12020,7 +12032,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="b">
@@ -12061,13 +12073,17 @@
         <v>1.809760332107544</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
-      </c>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.5315225784600687</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>265</v>
+      </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.040165</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12094,7 +12110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -12108,7 +12124,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="b">
@@ -12152,14 +12168,14 @@
         <v>2</v>
       </c>
       <c r="X130" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.5361410903109534</v>
       </c>
       <c r="Y130" t="n">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.040165</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -12200,7 +12216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="b">
@@ -12241,13 +12257,17 @@
         <v>3.078553318977356</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.5481537235508409</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>257</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.041164</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -12288,7 +12308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="b">
@@ -12329,17 +12349,17 @@
         <v>3.984445333480835</v>
       </c>
       <c r="W132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5774172848530235</v>
       </c>
       <c r="Y132" t="n">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.041164</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -12380,7 +12400,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="b">
@@ -12421,17 +12441,13 @@
         <v>4.569465398788452</v>
       </c>
       <c r="W133" t="n">
-        <v>2</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.516137324287291</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.041164</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12474,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -12472,7 +12488,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="b">
@@ -12519,7 +12535,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.042159</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -12546,7 +12562,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -12560,11 +12576,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L135" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="b">
         <v>1</v>
@@ -12607,7 +12623,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.042159</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12634,7 +12650,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -12648,7 +12664,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="b">
@@ -12692,14 +12708,14 @@
         <v>1</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5590372389537407</v>
+        <v>0.5255788829897272</v>
       </c>
       <c r="Y136" t="n">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.042159</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12716,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -12726,7 +12742,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -12740,11 +12756,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="b">
         <v>1</v>
@@ -12781,13 +12797,17 @@
         <v>1.941580653190613</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.5580351081062411</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>58</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.043159</t>
+          <t>2025-11-13T06:51:28.979710</t>
         </is>
       </c>
     </row>
@@ -12814,7 +12834,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -12828,7 +12848,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="b">
@@ -12869,17 +12889,13 @@
         <v>4.126085758209229</v>
       </c>
       <c r="W138" t="n">
-        <v>1</v>
-      </c>
-      <c r="X138" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.043159</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12922,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -12920,7 +12936,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="b">
@@ -12961,17 +12977,13 @@
         <v>3.553491353988647</v>
       </c>
       <c r="W139" t="n">
-        <v>1</v>
-      </c>
-      <c r="X139" t="n">
-        <v>0.4914530323227457</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.044160</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -12988,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -12998,7 +13010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -13012,11 +13024,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="b">
         <v>1</v>
@@ -13053,13 +13065,17 @@
         <v>2.059907197952271</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.4301435087930859</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>52</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.044160</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13102,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -13100,7 +13116,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="b">
@@ -13147,7 +13163,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.044160</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13174,7 +13190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -13188,7 +13204,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="b">
@@ -13235,7 +13251,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.045159</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13252,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -13262,7 +13278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -13276,11 +13292,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="b">
         <v>1</v>
@@ -13317,13 +13333,17 @@
         <v>6.529798984527588</v>
       </c>
       <c r="W143" t="n">
-        <v>0</v>
-      </c>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0.5045465658763988</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>312</v>
+      </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.045159</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13350,7 +13370,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -13364,7 +13384,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="b">
@@ -13405,13 +13425,17 @@
         <v>1.851258158683777</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
-      </c>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.5157729791015118</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>379</v>
+      </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.045159</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13462,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -13452,7 +13476,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="b">
@@ -13493,17 +13517,17 @@
         <v>4.207494974136353</v>
       </c>
       <c r="W145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X145" t="n">
-        <v>0.5327003538216112</v>
+        <v>0.577323429790132</v>
       </c>
       <c r="Y145" t="n">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.047165</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13554,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -13544,7 +13568,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="b">
@@ -13585,17 +13609,13 @@
         <v>3.347555041313171</v>
       </c>
       <c r="W146" t="n">
-        <v>2</v>
-      </c>
-      <c r="X146" t="n">
-        <v>0.5992507399515848</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.050001</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13622,7 +13642,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -13636,7 +13656,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="b">
@@ -13677,13 +13697,17 @@
         <v>8.398797512054443</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
-      </c>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0.4899508266739531</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>421</v>
+      </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.050518</t>
+          <t>2025-11-13T06:51:28.980710</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -13724,7 +13748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="b">
@@ -13768,14 +13792,14 @@
         <v>1</v>
       </c>
       <c r="X148" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y148" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.050518</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -13802,7 +13826,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -13816,7 +13840,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="b">
@@ -13857,17 +13881,13 @@
         <v>2.447316527366638</v>
       </c>
       <c r="W149" t="n">
-        <v>1</v>
-      </c>
-      <c r="X149" t="n">
-        <v>0.4770195457203851</v>
-      </c>
-      <c r="Y149" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.050518</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -13908,7 +13928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="b">
@@ -13949,17 +13969,13 @@
         <v>5.474562883377075</v>
       </c>
       <c r="W150" t="n">
-        <v>1</v>
-      </c>
-      <c r="X150" t="n">
-        <v>0.5909730561326387</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.051517</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -13986,7 +14002,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -14000,11 +14016,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O151" t="b">
         <v>1</v>
@@ -14047,7 +14063,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.051517</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -14074,7 +14090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -14088,7 +14104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="b">
@@ -14129,13 +14145,17 @@
         <v>3.469574451446533</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
-      </c>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0.4515883255430311</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>300</v>
+      </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.051517</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -14152,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -14162,7 +14182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -14176,11 +14196,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O153" t="b">
         <v>1</v>
@@ -14217,13 +14237,17 @@
         <v>3.768404364585876</v>
       </c>
       <c r="W153" t="n">
-        <v>0</v>
-      </c>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0.4163188360800481</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>72</v>
+      </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.052517</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -14250,7 +14274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -14264,11 +14288,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L154" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="b">
         <v>1</v>
@@ -14311,7 +14335,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.052517</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -14338,7 +14362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -14352,7 +14376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="b">
@@ -14399,7 +14423,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.052517</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -14426,7 +14450,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -14440,7 +14464,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="b">
@@ -14487,7 +14511,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.053516</t>
+          <t>2025-11-13T06:51:28.981710</t>
         </is>
       </c>
     </row>
@@ -14504,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -14514,7 +14538,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -14528,11 +14552,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" t="b">
         <v>1</v>
@@ -14575,7 +14599,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.053516</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -14616,7 +14640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="b">
@@ -14657,17 +14681,13 @@
         <v>3.647702217102051</v>
       </c>
       <c r="W158" t="n">
-        <v>1</v>
-      </c>
-      <c r="X158" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.053516</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -14694,7 +14714,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -14708,7 +14728,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="b">
@@ -14752,14 +14772,14 @@
         <v>1</v>
       </c>
       <c r="X159" t="n">
-        <v>0.4199949831636006</v>
+        <v>0.4559120683593517</v>
       </c>
       <c r="Y159" t="n">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.054517</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14806,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -14800,7 +14820,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="b">
@@ -14847,7 +14867,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.054517</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -14874,7 +14894,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -14888,11 +14908,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" t="b">
         <v>1</v>
@@ -14929,13 +14949,17 @@
         <v>3.315830826759338</v>
       </c>
       <c r="W161" t="n">
-        <v>0</v>
-      </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0.4377414216682759</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>22</v>
+      </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.055517</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14986,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -14976,7 +15000,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="b">
@@ -15020,14 +15044,14 @@
         <v>2</v>
       </c>
       <c r="X162" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.5404968167974218</v>
       </c>
       <c r="Y162" t="n">
         <v>281</v>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.055517</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -15044,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -15054,7 +15078,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -15068,11 +15092,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L163" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" t="b">
         <v>1</v>
@@ -15115,7 +15139,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.055517</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15166,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -15156,7 +15180,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="b">
@@ -15203,7 +15227,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.056516</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15254,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -15244,7 +15268,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="b">
@@ -15285,13 +15309,17 @@
         <v>2.757277607917786</v>
       </c>
       <c r="W165" t="n">
-        <v>0</v>
-      </c>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0.5422299064876035</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>286</v>
+      </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.056516</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -15308,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -15318,7 +15346,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -15332,11 +15360,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" t="b">
         <v>1</v>
@@ -15373,13 +15401,17 @@
         <v>5.647400856018066</v>
       </c>
       <c r="W166" t="n">
-        <v>0</v>
-      </c>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0.4239730734667366</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>294</v>
+      </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.056516</t>
+          <t>2025-11-13T06:51:28.982710</t>
         </is>
       </c>
     </row>
@@ -15406,7 +15438,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -15420,7 +15452,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="b">
@@ -15461,13 +15493,17 @@
         <v>2.716691493988037</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
-      </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>54</v>
+      </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.057517</t>
+          <t>2025-11-13T06:51:28.983710</t>
         </is>
       </c>
     </row>
@@ -15494,7 +15530,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -15508,7 +15544,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="b">
@@ -15549,17 +15585,13 @@
         <v>2.90464448928833</v>
       </c>
       <c r="W168" t="n">
-        <v>2</v>
-      </c>
-      <c r="X168" t="n">
-        <v>0.5085080461109799</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.057517</t>
+          <t>2025-11-13T06:51:28.983710</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15618,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -15600,7 +15632,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="b">
@@ -15641,17 +15673,13 @@
         <v>2.519846200942993</v>
       </c>
       <c r="W169" t="n">
-        <v>3</v>
-      </c>
-      <c r="X169" t="n">
-        <v>0.5830427455252961</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.057517</t>
+          <t>2025-11-13T06:51:28.983710</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -15678,7 +15706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -15692,11 +15720,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" t="b">
         <v>1</v>
@@ -15733,13 +15761,17 @@
         <v>2.513474822044373</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5424358442695072</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>411</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.058516</t>
+          <t>2025-11-13T06:51:28.983710</t>
         </is>
       </c>
     </row>
@@ -15766,7 +15798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -15780,7 +15812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="b">
@@ -15824,14 +15856,14 @@
         <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.5481537235508409</v>
+        <v>0.5947511037682918</v>
       </c>
       <c r="Y171" t="n">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-11-12T07:20:30.058516</t>
+          <t>2025-11-13T06:51:28.983710</t>
         </is>
       </c>
     </row>
